--- a/ct.xlsx
+++ b/ct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://data4knowledge.sharepoint.com/sites/d4k9/Delte dokumenter/Projects/0002 - CDISC - BC Mining/DDF/Phase 4/StudyDesign/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/infographics/usdm_ct_infographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{4DEBE12B-D471-734E-973D-47A8F47C31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD116F95-DAE5-3343-99A3-8BF96A443BC1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC3241-599E-7946-9C1B-787BF82A181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52400" yWindow="500" windowWidth="45180" windowHeight="26320" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
+    <workbookView xWindow="-37280" yWindow="-4500" windowWidth="36680" windowHeight="18360" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="277">
   <si>
     <t>C16084</t>
   </si>
@@ -839,48 +839,6 @@
     <t>Regulatory Agency</t>
   </si>
   <si>
-    <t>C21541</t>
-  </si>
-  <si>
-    <t>Healthcare Facility</t>
-  </si>
-  <si>
-    <t>C54149</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Company</t>
-  </si>
-  <si>
-    <t>C37984</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>C54148</t>
-  </si>
-  <si>
-    <t>Contract Research Organization</t>
-  </si>
-  <si>
-    <t>C199144</t>
-  </si>
-  <si>
-    <t>Government Institute</t>
-  </si>
-  <si>
-    <t>C18240</t>
-  </si>
-  <si>
-    <t>Academic Institution</t>
-  </si>
-  <si>
-    <t>CNEW</t>
-  </si>
-  <si>
-    <t>Medical Device Company</t>
-  </si>
-  <si>
     <t>An organization (typically a government agency) that administers the registration of studies. (BRIDG)</t>
   </si>
   <si>
@@ -890,25 +848,25 @@
     <t xml:space="preserve">An organization (typically a government agency) that is responsible for implementing and enforcing laws, licensing and regulating products and services, promoting the use of standards, and ensuring safety and consumer protections. </t>
   </si>
   <si>
-    <t>The buildings and organizations where healthcare services are provided.</t>
-  </si>
-  <si>
-    <t>A company licensed to discover, develop, market, and/or distribute drugs.</t>
-  </si>
-  <si>
-    <t>An organization with the capability and competency to perform scientific research, experiments, and measurements. (BRIDG)</t>
-  </si>
-  <si>
-    <t>A person or an organization (commercial, academic, or other) contracted by the sponsor to perform one or more of a sponsor's trial-related duties and functions. [ICH E6 Glossary]</t>
-  </si>
-  <si>
-    <t>An organization established, funded, and overseen by a government, which has a specific purpose or intent.</t>
-  </si>
-  <si>
-    <t>An organization, such as a college or university, established for the purpose of scholastic pursuit, education, granting degrees, and research.</t>
-  </si>
-  <si>
-    <t>A company licensed to discover, develop, market, and/or distribute medical devices.</t>
+    <t>C70793</t>
+  </si>
+  <si>
+    <t>Clinical Study Sponsor</t>
+  </si>
+  <si>
+    <t>An individual, company, institution, or organization that takes responsibility for the initiation, management, and/or financing of a clinical study. [After ICH E6, WHO, 21 CFR 50.3 (e), and after IDMP]</t>
+  </si>
+  <si>
+    <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+  </si>
+  <si>
+    <t>Extension Study Design</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Adaptive Design</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94479E8-6944-C345-8953-69A0AF0635D7}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -1519,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
@@ -1536,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
@@ -2621,136 +2579,60 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="E92" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>282</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D94" s="4"/>
       <c r="E94" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A56:E56"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C16084&amp;ns=ncit" xr:uid="{EAA9AC9E-0871-504E-8761-89A1A32BCB3B}"/>
@@ -2817,12 +2699,22 @@
     <hyperlink ref="A86" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25508" xr:uid="{1B80C63E-610A-214E-AEEB-DEBDC6104644}"/>
     <hyperlink ref="A87" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85255" xr:uid="{04D6F260-0E96-E34C-9C17-7096E2E01C32}"/>
     <hyperlink ref="A88" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C188862" xr:uid="{C3E470BA-D8F6-EA42-A7AA-400AE4D708A8}"/>
+    <hyperlink ref="A92" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70793" xr:uid="{7F720212-54E1-3F49-A774-0819A7834494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="332ebed6bf1f21540ac8ed4139e2af2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9643d50ff51ef4e8f7efba950a0a6c6b" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -3029,15 +2921,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3050,6 +2933,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1323A5E8-4C72-41C9-A579-AD9E7BE66D1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAEC375B-DC95-4A5A-BA67-B31DCC6A86AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3064,14 +2955,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1323A5E8-4C72-41C9-A579-AD9E7BE66D1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ct.xlsx
+++ b/ct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/infographics/usdm_ct_infographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575A96D-D08C-9B46-AD4F-02D8F7B4CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9C9D3-9836-0C47-B5B3-306C914A0E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37780" yWindow="-4500" windowWidth="35260" windowHeight="19860" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17440" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="593">
   <si>
     <t>C16084</t>
   </si>
@@ -1272,15 +1272,6 @@
     <t>Fixed Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">C207413 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C215482 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C215484 - </t>
-  </si>
-  <si>
     <t xml:space="preserve">C188725 - </t>
   </si>
   <si>
@@ -1338,9 +1329,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
     <t>blindingSchema</t>
   </si>
   <si>
@@ -1777,6 +1765,57 @@
   </si>
   <si>
     <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C</t>
+  </si>
+  <si>
+    <t>C207413 - CDISC DDF Governance Date Type Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C66735 - CDISC SDTM Trial Blinding Schema Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C66735</t>
+  </si>
+  <si>
+    <t>C187674</t>
+  </si>
+  <si>
+    <t>C49659</t>
+  </si>
+  <si>
+    <t>C28233</t>
+  </si>
+  <si>
+    <t>C15228</t>
+  </si>
+  <si>
+    <t>C156592</t>
+  </si>
+  <si>
+    <t>Observer Blind Study</t>
+  </si>
+  <si>
+    <t>Open Label Study</t>
+  </si>
+  <si>
+    <t>Single Blind Study</t>
+  </si>
+  <si>
+    <t>Double Blind Study</t>
+  </si>
+  <si>
+    <t>Open Label for Treatment And Double Blind to Dose</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C215482</t>
+  </si>
+  <si>
+    <t>C215482 - CDISC DDF Medical Device Sourcing Value Set Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C215484</t>
+  </si>
+  <si>
+    <t>C215484 - CDISC DDF Medical Device Identifier Type Value Set Terminology</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2030,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2046,7 +2085,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2101,7 +2140,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2156,7 +2195,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2211,7 +2250,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2266,7 +2305,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2321,7 +2360,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2376,7 +2415,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2431,7 +2470,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2486,7 +2525,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2541,7 +2580,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2596,7 +2635,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2651,7 +2690,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2706,7 +2745,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3077,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94479E8-6944-C345-8953-69A0AF0635D7}">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H264" sqref="H264"/>
+    <sheetView tabSelected="1" topLeftCell="B148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3101,19 +3140,19 @@
         <v>188</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18"/>
       <c r="G1" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,7 +3160,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
@@ -3139,11 +3178,11 @@
         <v>188</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="18"/>
@@ -3155,7 +3194,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2"/>
@@ -3173,15 +3212,15 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3214,7 +3253,7 @@
         <v>190</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="16"/>
@@ -3232,7 +3271,7 @@
         <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="16"/>
@@ -3261,15 +3300,15 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="18"/>
       <c r="G10" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3349,15 +3388,15 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="18"/>
       <c r="G15" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3412,30 +3451,30 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="18"/>
       <c r="G19" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="1" t="s">
@@ -3450,14 +3489,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="18"/>
@@ -3466,10 +3505,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="2"/>
@@ -3480,30 +3519,30 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="18"/>
       <c r="G23" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="1" t="s">
@@ -3518,14 +3557,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="18"/>
@@ -3534,10 +3573,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="2"/>
@@ -3548,30 +3587,30 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="18"/>
       <c r="G27" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="1" t="s">
@@ -3586,17 +3625,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16"/>
@@ -3604,17 +3643,17 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16"/>
@@ -3622,10 +3661,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="2"/>
@@ -3639,19 +3678,19 @@
         <v>201</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="18"/>
       <c r="G32" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3659,7 +3698,7 @@
         <v>201</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
@@ -3677,14 +3716,14 @@
         <v>201</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="16"/>
@@ -3695,14 +3734,14 @@
         <v>201</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="16"/>
@@ -3713,14 +3752,14 @@
         <v>201</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="16"/>
@@ -3731,14 +3770,14 @@
         <v>201</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="16"/>
@@ -3749,14 +3788,14 @@
         <v>201</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="16"/>
@@ -3767,14 +3806,14 @@
         <v>201</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="16"/>
@@ -3785,14 +3824,14 @@
         <v>201</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="16"/>
@@ -3803,14 +3842,14 @@
         <v>201</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="16"/>
@@ -3821,14 +3860,14 @@
         <v>201</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="16"/>
@@ -3839,7 +3878,7 @@
         <v>201</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="2"/>
@@ -3853,19 +3892,19 @@
         <v>201</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="18"/>
       <c r="G44" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3873,7 +3912,7 @@
         <v>201</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="1" t="s">
@@ -3891,14 +3930,14 @@
         <v>201</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="16"/>
@@ -3909,14 +3948,14 @@
         <v>201</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="16"/>
@@ -3927,14 +3966,14 @@
         <v>201</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="16"/>
@@ -3945,14 +3984,14 @@
         <v>201</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="16"/>
@@ -3963,7 +4002,7 @@
         <v>201</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="2" t="s">
@@ -3981,14 +4020,14 @@
         <v>201</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="16"/>
@@ -3999,14 +4038,14 @@
         <v>201</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="16"/>
@@ -4017,14 +4056,14 @@
         <v>201</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="16"/>
@@ -4035,14 +4074,14 @@
         <v>201</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="16"/>
@@ -4053,14 +4092,14 @@
         <v>201</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="16"/>
@@ -4071,14 +4110,14 @@
         <v>201</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="16"/>
@@ -4089,14 +4128,14 @@
         <v>201</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="16"/>
@@ -4107,14 +4146,14 @@
         <v>201</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="16"/>
@@ -4125,14 +4164,14 @@
         <v>201</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="16"/>
@@ -4143,14 +4182,14 @@
         <v>201</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="16"/>
@@ -4161,14 +4200,14 @@
         <v>201</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="16"/>
@@ -4179,14 +4218,14 @@
         <v>201</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="16"/>
@@ -4197,14 +4236,14 @@
         <v>201</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="16"/>
@@ -4215,7 +4254,7 @@
         <v>201</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="2"/>
@@ -4233,15 +4272,15 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="18"/>
       <c r="G65" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4303,15 +4342,15 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="18"/>
       <c r="G69" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4409,15 +4448,15 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="18"/>
       <c r="G75" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,13 +4554,15 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="1" t="s">
-        <v>411</v>
+        <v>576</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="18"/>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="H81" s="19" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4612,26 +4653,30 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C87" s="18"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>577</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="H87" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="1" t="s">
@@ -4646,165 +4691,177 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="F89" s="18"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C90" s="18"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="D90" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="F90" s="18"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="16"/>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C91" s="18"/>
-      <c r="D91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>113</v>
+      <c r="D91" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="F91" s="18"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="19"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="F92" s="18"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="24"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="C93" s="18"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="D93" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="F93" s="18"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="16"/>
+      <c r="H93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="C94" s="18"/>
-      <c r="D94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="18"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G94" s="16"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>325</v>
+        <v>420</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="D95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="18"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="2"/>
+      <c r="G95" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C96" s="18"/>
-      <c r="D96" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" s="1"/>
+      <c r="D96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F96" s="18"/>
-      <c r="G96" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="6"/>
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>113</v>
+      <c r="D97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="23"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="16"/>
@@ -4812,17 +4869,17 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="16"/>
@@ -4830,17 +4887,17 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="16"/>
@@ -4848,17 +4905,17 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="16"/>
@@ -4866,17 +4923,17 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="2" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="16"/>
@@ -4884,17 +4941,17 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="16"/>
@@ -4902,17 +4959,17 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="16"/>
@@ -4920,17 +4977,17 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="16"/>
@@ -4938,17 +4995,17 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="16"/>
@@ -4956,105 +5013,105 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="16"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="D108" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="18"/>
       <c r="G108" s="16"/>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="D109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="18"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="2"/>
+      <c r="G109" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E110" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F110" s="18"/>
-      <c r="G110" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C111" s="18"/>
-      <c r="D111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>113</v>
+      <c r="D111" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="F111" s="18"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="2"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="2" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>505</v>
+        <v>17</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="16"/>
@@ -5062,17 +5119,17 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="16"/>
@@ -5080,17 +5137,17 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="16"/>
@@ -5098,17 +5155,17 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="16"/>
@@ -5116,17 +5173,17 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="16"/>
@@ -5134,183 +5191,195 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="18"/>
       <c r="G117" s="16"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>435</v>
+        <v>244</v>
       </c>
       <c r="C118" s="18"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="D118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="18"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="2"/>
+      <c r="G118" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F119" s="18"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="C120" s="18"/>
-      <c r="D120" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>113</v>
+      <c r="D120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F120" s="18"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="19"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="C121" s="18"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F121" s="18"/>
       <c r="G121" s="16"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="C122" s="18"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="D122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F122" s="18"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="16"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="C123" s="18"/>
-      <c r="D123" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>113</v>
+      <c r="D123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F123" s="18"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="19"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="C124" s="18"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F124" s="18"/>
       <c r="G124" s="16"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="D125" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" s="1"/>
+      <c r="D125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F125" s="18"/>
-      <c r="G125" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="16"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>113</v>
+      <c r="D126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F126" s="18"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="16"/>
@@ -5318,17 +5387,17 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="16"/>
@@ -5336,17 +5405,17 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="16"/>
@@ -5354,17 +5423,17 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="16"/>
@@ -5372,17 +5441,17 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="16"/>
@@ -5390,17 +5459,17 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="16"/>
@@ -5408,17 +5477,17 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="16"/>
@@ -5426,17 +5495,17 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F134" s="18"/>
       <c r="G134" s="16"/>
@@ -5444,17 +5513,17 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F135" s="18"/>
       <c r="G135" s="16"/>
@@ -5462,17 +5531,17 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="16"/>
@@ -5480,17 +5549,17 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="16"/>
@@ -5498,17 +5567,17 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="16"/>
@@ -5516,17 +5585,17 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="16"/>
@@ -5534,17 +5603,17 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F140" s="18"/>
       <c r="G140" s="16"/>
@@ -5552,17 +5621,17 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="16"/>
@@ -5570,17 +5639,17 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="16"/>
@@ -5588,17 +5657,17 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F143" s="18"/>
       <c r="G143" s="16"/>
@@ -5606,17 +5675,17 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F144" s="18"/>
       <c r="G144" s="16"/>
@@ -5624,17 +5693,17 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F145" s="18"/>
       <c r="G145" s="16"/>
@@ -5642,17 +5711,17 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F146" s="18"/>
       <c r="G146" s="16"/>
@@ -5660,17 +5729,17 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F147" s="18"/>
       <c r="G147" s="16"/>
@@ -5678,17 +5747,17 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="16"/>
@@ -5696,17 +5765,17 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="16"/>
@@ -5714,89 +5783,87 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F150" s="18"/>
       <c r="G150" s="16"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="18"/>
       <c r="G151" s="16"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C152" s="18"/>
-      <c r="D152" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="D152" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E152" s="1"/>
       <c r="F152" s="18"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G152" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H152" s="26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>77</v>
+      <c r="D153" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F153" s="18"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="2"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="2" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="16"/>
@@ -5804,17 +5871,17 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="2" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="16"/>
@@ -5822,103 +5889,104 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D156" s="13"/>
+      <c r="E156" s="14"/>
       <c r="F156" s="18"/>
-      <c r="G156" s="16"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>422</v>
+        <v>227</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C157" s="18"/>
-      <c r="D157" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D157" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E157" s="1"/>
       <c r="F157" s="18"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="2"/>
+      <c r="G157" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>422</v>
+        <v>227</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C158" s="18"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="D158" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F158" s="18"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="6"/>
+      <c r="H158" s="19"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C159" s="18"/>
-      <c r="D159" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E159" s="1"/>
+      <c r="D159" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F159" s="18"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="16"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="D160" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>113</v>
+      <c r="D160" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="F160" s="18"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="19"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="2"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="16"/>
@@ -5926,17 +5994,17 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C162" s="18"/>
       <c r="D162" s="2" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="16"/>
@@ -5944,41 +6012,42 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="13"/>
       <c r="E163" s="14"/>
       <c r="F163" s="18"/>
+      <c r="G163" s="16"/>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="18"/>
       <c r="G164" s="6"/>
       <c r="H164" s="26" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C165" s="18"/>
       <c r="D165" s="1" t="s">
@@ -5993,17 +6062,17 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="16"/>
@@ -6011,17 +6080,17 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F167" s="18"/>
       <c r="G167" s="16"/>
@@ -6029,17 +6098,17 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F168" s="18"/>
       <c r="G168" s="16"/>
@@ -6047,381 +6116,385 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C169" s="18"/>
-      <c r="D169" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D169" s="13"/>
+      <c r="E169" s="14"/>
       <c r="F169" s="18"/>
       <c r="G169" s="16"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="C170" s="18"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="14"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
       <c r="F170" s="18"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="2"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E171" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F171" s="18"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="19"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="C172" s="18"/>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" s="18"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C174" s="18"/>
+      <c r="D174" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="19"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C173" s="18"/>
-      <c r="D173" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="16"/>
-      <c r="H173" s="2"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="F174" s="18"/>
-      <c r="G174" s="16"/>
-      <c r="H174" s="2"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="19"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="C175" s="18"/>
-      <c r="D175" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="18"/>
       <c r="G175" s="16"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>205</v>
+        <v>432</v>
       </c>
       <c r="C176" s="18"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="14"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
       <c r="F176" s="18"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="2"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="C177" s="18"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F177" s="18"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="19"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="18"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="19"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G178" s="16"/>
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
       <c r="F179" s="18"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="2"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F180" s="18"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="19"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="18"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="19"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G181" s="16"/>
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
       <c r="F182" s="18"/>
-      <c r="G182" s="16"/>
-      <c r="H182" s="2"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F183" s="18"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="19"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="18"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="19"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G184" s="16"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
+      <c r="D185" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E185" s="1"/>
       <c r="F185" s="18"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="2"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F186" s="18"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="19"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="C187" s="18"/>
-      <c r="D187" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>113</v>
+      <c r="D187" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F187" s="18"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="19"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="2"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>424</v>
+        <v>244</v>
       </c>
       <c r="C188" s="18"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
+      <c r="D188" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F188" s="18"/>
       <c r="G188" s="16"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="C189" s="18"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
+      <c r="D189" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="F189" s="18"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G189" s="16"/>
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="D190" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>113</v>
+      <c r="D190" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="F190" s="18"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="19"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="C191" s="18"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="D191" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="F191" s="18"/>
       <c r="G191" s="16"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>243</v>
       </c>
@@ -6429,17 +6502,17 @@
         <v>244</v>
       </c>
       <c r="C192" s="18"/>
-      <c r="D192" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E192" s="1"/>
+      <c r="D192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="F192" s="18"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G192" s="16"/>
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>243</v>
       </c>
@@ -6447,15 +6520,15 @@
         <v>244</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>113</v>
+      <c r="D193" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F193" s="18"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="19"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
@@ -6466,10 +6539,10 @@
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F194" s="18"/>
       <c r="G194" s="16"/>
@@ -6483,119 +6556,111 @@
         <v>244</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="D195" s="13"/>
+      <c r="E195" s="14"/>
       <c r="F195" s="18"/>
       <c r="G195" s="16"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
       <c r="F196" s="18"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="2"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G196" s="6"/>
+      <c r="H196" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="D197" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>252</v>
+      <c r="D197" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F197" s="18"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="2"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="19"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="C198" s="18"/>
-      <c r="D198" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="18"/>
       <c r="G198" s="16"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C199" s="18"/>
-      <c r="D199" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="D199" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E199" s="1"/>
       <c r="F199" s="18"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="2"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G199" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>257</v>
+      <c r="D200" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F200" s="18"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="2"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="2" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="F201" s="18"/>
       <c r="G201" s="16"/>
@@ -6603,67 +6668,77 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C202" s="18"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="14"/>
+      <c r="D202" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F202" s="18"/>
       <c r="G202" s="16"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>437</v>
+        <v>198</v>
       </c>
       <c r="C203" s="18"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
+      <c r="D203" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F203" s="18"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G203" s="16"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>437</v>
+        <v>198</v>
       </c>
       <c r="C204" s="18"/>
-      <c r="D204" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>113</v>
+      <c r="D204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="F204" s="18"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="19"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="2"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>437</v>
+        <v>198</v>
       </c>
       <c r="C205" s="18"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
+      <c r="D205" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F205" s="18"/>
       <c r="G205" s="16"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>260</v>
       </c>
@@ -6671,19 +6746,17 @@
         <v>198</v>
       </c>
       <c r="C206" s="18"/>
-      <c r="D206" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E206" s="1"/>
+      <c r="D206" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F206" s="18"/>
-      <c r="G206" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H206" s="19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G206" s="16"/>
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>260</v>
       </c>
@@ -6691,15 +6764,15 @@
         <v>198</v>
       </c>
       <c r="C207" s="18"/>
-      <c r="D207" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>113</v>
+      <c r="D207" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F207" s="18"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="2"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
@@ -6710,10 +6783,10 @@
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F208" s="18"/>
       <c r="G208" s="16"/>
@@ -6728,10 +6801,10 @@
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="2" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="16"/>
@@ -6745,119 +6818,109 @@
         <v>198</v>
       </c>
       <c r="C210" s="18"/>
-      <c r="D210" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D210" s="13"/>
+      <c r="E210" s="14"/>
       <c r="F210" s="18"/>
       <c r="G210" s="16"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="C211" s="18"/>
-      <c r="D211" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
       <c r="F211" s="18"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="2"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G211" s="6"/>
+      <c r="H211" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>143</v>
+      <c r="D212" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F212" s="18"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="2"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="19"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="C213" s="18"/>
-      <c r="D213" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
       <c r="F213" s="18"/>
       <c r="G213" s="16"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C214" s="18"/>
-      <c r="D214" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="D214" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E214" s="1"/>
       <c r="F214" s="18"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="2"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G214" s="6"/>
+      <c r="H214" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C215" s="18"/>
-      <c r="D215" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>149</v>
+      <c r="D215" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F215" s="18"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="2"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="19"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="F216" s="18"/>
       <c r="G216" s="16"/>
@@ -6865,133 +6928,135 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C217" s="18"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="14"/>
+      <c r="D217" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="F217" s="18"/>
       <c r="G217" s="16"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
-        <v>438</v>
+        <v>262</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
       <c r="C218" s="18"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="14"/>
       <c r="F218" s="18"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="G218" s="16"/>
+      <c r="H218" s="2"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C219" s="18"/>
-      <c r="D219" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
       <c r="F219" s="18"/>
       <c r="G219" s="6"/>
-      <c r="H219" s="19"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H219" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C220" s="18"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
+      <c r="D220" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F220" s="18"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="2"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>263</v>
+        <v>437</v>
       </c>
       <c r="C221" s="18"/>
-      <c r="D221" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E221" s="1"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
       <c r="F221" s="18"/>
-      <c r="G221" s="6"/>
-      <c r="H221" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="G221" s="16"/>
+      <c r="H221" s="2"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H222" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C223" s="18"/>
+      <c r="D223" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F222" s="18"/>
-      <c r="G222" s="6"/>
-      <c r="H222" s="19"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C223" s="18"/>
-      <c r="D223" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="F223" s="18"/>
-      <c r="G223" s="16"/>
-      <c r="H223" s="2"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F224" s="18"/>
       <c r="G224" s="16"/>
@@ -6999,117 +7064,123 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C225" s="18"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="14"/>
+      <c r="D225" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="F225" s="18"/>
       <c r="G225" s="16"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
-        <v>440</v>
+        <v>268</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>441</v>
+        <v>198</v>
       </c>
       <c r="C226" s="18"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="14"/>
       <c r="F226" s="18"/>
-      <c r="G226" s="6"/>
-      <c r="H226" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="G226" s="16"/>
+      <c r="H226" s="2"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>440</v>
+        <v>273</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>441</v>
+        <v>198</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H227" s="19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C228" s="18"/>
+      <c r="D228" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F227" s="18"/>
-      <c r="G227" s="6"/>
-      <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B228" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C228" s="18"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
       <c r="F228" s="18"/>
-      <c r="G228" s="16"/>
-      <c r="H228" s="2"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B229" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C229" s="18"/>
-      <c r="D229" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E229" s="1"/>
+      <c r="D229" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="F229" s="18"/>
-      <c r="G229" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H229" s="19" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G229" s="16"/>
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C230" s="18"/>
-      <c r="D230" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>113</v>
+      <c r="D230" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F230" s="18"/>
-      <c r="G230" s="6"/>
-      <c r="H230" s="6"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="2"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F231" s="18"/>
       <c r="G231" s="16"/>
@@ -7117,17 +7188,17 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F232" s="18"/>
       <c r="G232" s="16"/>
@@ -7135,7 +7206,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>198</v>
@@ -7149,30 +7220,30 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="18"/>
       <c r="G234" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H234" s="19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="1" t="s">
@@ -7187,17 +7258,17 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C236" s="18"/>
       <c r="D236" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="16"/>
@@ -7205,17 +7276,17 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C237" s="18"/>
       <c r="D237" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="16"/>
@@ -7223,17 +7294,17 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F238" s="18"/>
       <c r="G238" s="16"/>
@@ -7241,17 +7312,17 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F239" s="18"/>
       <c r="G239" s="16"/>
@@ -7259,19 +7330,23 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C240" s="18"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="14"/>
+      <c r="D240" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="F240" s="18"/>
       <c r="G240" s="16"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>282</v>
       </c>
@@ -7279,19 +7354,17 @@
         <v>263</v>
       </c>
       <c r="C241" s="18"/>
-      <c r="D241" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E241" s="1"/>
+      <c r="D241" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="F241" s="18"/>
-      <c r="G241" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H241" s="19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G241" s="16"/>
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>282</v>
       </c>
@@ -7299,15 +7372,15 @@
         <v>263</v>
       </c>
       <c r="C242" s="18"/>
-      <c r="D242" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>113</v>
+      <c r="D242" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="F242" s="18"/>
-      <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="2"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
@@ -7318,10 +7391,10 @@
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F243" s="18"/>
       <c r="G243" s="16"/>
@@ -7336,10 +7409,10 @@
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="16"/>
@@ -7354,10 +7427,10 @@
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="16"/>
@@ -7372,10 +7445,10 @@
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="16"/>
@@ -7390,10 +7463,10 @@
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F247" s="18"/>
       <c r="G247" s="16"/>
@@ -7408,10 +7481,10 @@
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F248" s="18"/>
       <c r="G248" s="16"/>
@@ -7426,10 +7499,10 @@
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F249" s="18"/>
       <c r="G249" s="16"/>
@@ -7444,10 +7517,10 @@
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="2" t="s">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="F250" s="18"/>
       <c r="G250" s="16"/>
@@ -7461,65 +7534,61 @@
         <v>263</v>
       </c>
       <c r="C251" s="18"/>
-      <c r="D251" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="D251" s="13"/>
+      <c r="E251" s="14"/>
       <c r="F251" s="18"/>
       <c r="G251" s="16"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C252" s="18"/>
-      <c r="D252" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="D252" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E252" s="1"/>
       <c r="F252" s="18"/>
-      <c r="G252" s="16"/>
-      <c r="H252" s="2"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G252" s="6"/>
+      <c r="H252" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C253" s="18"/>
-      <c r="D253" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>304</v>
+      <c r="D253" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F253" s="18"/>
-      <c r="G253" s="16"/>
-      <c r="H253" s="2"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="19"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F254" s="18"/>
       <c r="G254" s="16"/>
@@ -7527,17 +7596,17 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F255" s="18"/>
       <c r="G255" s="16"/>
@@ -7545,17 +7614,17 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F256" s="18"/>
       <c r="G256" s="16"/>
@@ -7563,17 +7632,17 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="2" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="F257" s="18"/>
       <c r="G257" s="16"/>
@@ -7581,10 +7650,10 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="13"/>
@@ -7598,17 +7667,15 @@
         <v>311</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="C259" s="18"/>
-      <c r="D259" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="18"/>
       <c r="G259" s="6"/>
       <c r="H259" s="26" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -7616,7 +7683,7 @@
         <v>311</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="1" t="s">
@@ -7634,157 +7701,159 @@
         <v>311</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="C261" s="18"/>
-      <c r="D261" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
       <c r="F261" s="18"/>
       <c r="G261" s="16"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="C262" s="18"/>
-      <c r="D262" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
       <c r="F262" s="18"/>
-      <c r="G262" s="16"/>
-      <c r="H262" s="2"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G262" s="6"/>
+      <c r="H262" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="C263" s="18"/>
-      <c r="D263" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>318</v>
+      <c r="D263" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F263" s="18"/>
-      <c r="G263" s="16"/>
-      <c r="H263" s="2"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="19"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="C264" s="18"/>
-      <c r="D264" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
       <c r="F264" s="18"/>
       <c r="G264" s="16"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="C265" s="18"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="14"/>
+      <c r="D265" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E265" s="1"/>
       <c r="F265" s="18"/>
-      <c r="G265" s="16"/>
-      <c r="H265" s="2"/>
+      <c r="G265" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H265" s="19" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B266" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C266" s="18"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F266" s="18"/>
       <c r="G266" s="6"/>
-      <c r="H266" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H266" s="19"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C267" s="18"/>
-      <c r="D267" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>113</v>
+      <c r="D267" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F267" s="18"/>
-      <c r="G267" s="6"/>
-      <c r="H267" s="19"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G267" s="16"/>
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C268" s="18"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
       <c r="F268" s="18"/>
       <c r="G268" s="16"/>
       <c r="H268" s="2"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="C269" s="18"/>
-      <c r="D269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E269" s="1"/>
       <c r="F269" s="18"/>
-      <c r="G269" s="6"/>
-      <c r="H269" s="26" t="s">
-        <v>579</v>
+      <c r="G269" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H269" s="19" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="1" t="s">
@@ -7794,94 +7863,100 @@
         <v>113</v>
       </c>
       <c r="F270" s="18"/>
-      <c r="G270" s="6"/>
+      <c r="G270" s="20"/>
       <c r="H270" s="19"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="C271" s="18"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
+      <c r="D271" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F271" s="18"/>
       <c r="G271" s="16"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="C272" s="18"/>
-      <c r="D272" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E272" s="1"/>
+      <c r="D272" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F272" s="18"/>
-      <c r="G272" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H272" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G272" s="16"/>
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="C273" s="18"/>
-      <c r="D273" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>113</v>
+      <c r="D273" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F273" s="18"/>
-      <c r="G273" s="6"/>
-      <c r="H273" s="19"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="2"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="C274" s="18"/>
       <c r="D274" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F274" s="18"/>
       <c r="G274" s="16"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="C275" s="18"/>
-      <c r="D275" s="12"/>
-      <c r="E275" s="12"/>
+      <c r="D275" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F275" s="18"/>
       <c r="G275" s="16"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>322</v>
       </c>
@@ -7889,67 +7964,63 @@
         <v>323</v>
       </c>
       <c r="C276" s="18"/>
-      <c r="D276" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E276" s="1"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="14"/>
       <c r="F276" s="18"/>
-      <c r="G276" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H276" s="19" t="s">
-        <v>487</v>
-      </c>
+      <c r="G276" s="16"/>
+      <c r="H276" s="2"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H277" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C278" s="18"/>
+      <c r="D278" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F277" s="18"/>
-      <c r="G277" s="20"/>
-      <c r="H277" s="19"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C278" s="18"/>
-      <c r="D278" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F278" s="18"/>
-      <c r="G278" s="16"/>
-      <c r="H278" s="2"/>
+      <c r="G278" s="20"/>
+      <c r="H278" s="19"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="2" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="F279" s="18"/>
       <c r="G279" s="16"/>
@@ -7957,17 +8028,17 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="2" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="F280" s="18"/>
       <c r="G280" s="16"/>
@@ -7975,17 +8046,17 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F281" s="18"/>
       <c r="G281" s="16"/>
@@ -7993,17 +8064,17 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="2" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="F282" s="18"/>
       <c r="G282" s="16"/>
@@ -8011,19 +8082,23 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C283" s="18"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="14"/>
+      <c r="D283" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="F283" s="18"/>
       <c r="G283" s="16"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>324</v>
       </c>
@@ -8031,19 +8106,17 @@
         <v>325</v>
       </c>
       <c r="C284" s="18"/>
-      <c r="D284" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E284" s="1"/>
+      <c r="D284" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="F284" s="18"/>
-      <c r="G284" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H284" s="19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G284" s="16"/>
+      <c r="H284" s="2"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>324</v>
       </c>
@@ -8051,15 +8124,15 @@
         <v>325</v>
       </c>
       <c r="C285" s="18"/>
-      <c r="D285" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>113</v>
+      <c r="D285" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="F285" s="18"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="19"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="2"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
@@ -8070,10 +8143,10 @@
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="2" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="F286" s="18"/>
       <c r="G286" s="16"/>
@@ -8088,10 +8161,10 @@
       </c>
       <c r="C287" s="18"/>
       <c r="D287" s="2" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F287" s="18"/>
       <c r="G287" s="16"/>
@@ -8105,189 +8178,189 @@
         <v>325</v>
       </c>
       <c r="C288" s="18"/>
-      <c r="D288" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D288" s="13"/>
+      <c r="E288" s="14"/>
       <c r="F288" s="18"/>
       <c r="G288" s="16"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C289" s="18"/>
-      <c r="D289" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="D289" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E289" s="1"/>
       <c r="F289" s="18"/>
-      <c r="G289" s="16"/>
-      <c r="H289" s="2"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G289" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H289" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C290" s="18"/>
-      <c r="D290" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>329</v>
+      <c r="D290" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F290" s="18"/>
-      <c r="G290" s="16"/>
-      <c r="H290" s="2"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G290" s="6"/>
+      <c r="H290" s="19"/>
+    </row>
+    <row r="291" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>331</v>
+        <v>153</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F291" s="18"/>
       <c r="G291" s="16"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>333</v>
+        <v>155</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F292" s="18"/>
       <c r="G292" s="16"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>335</v>
+        <v>157</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="16"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C294" s="18"/>
       <c r="D294" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>337</v>
+        <v>159</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="16"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C295" s="18"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="14"/>
+      <c r="D295" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F295" s="18"/>
       <c r="G295" s="16"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C296" s="18"/>
-      <c r="D296" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E296" s="1"/>
+      <c r="D296" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F296" s="18"/>
-      <c r="G296" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H296" s="19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G296" s="16"/>
+      <c r="H296" s="2"/>
+    </row>
+    <row r="297" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C297" s="18"/>
-      <c r="D297" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>113</v>
+      <c r="D297" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F297" s="18"/>
-      <c r="G297" s="6"/>
-      <c r="H297" s="19"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="2"/>
     </row>
     <row r="298" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F298" s="18"/>
       <c r="G298" s="16"/>
@@ -8298,14 +8371,14 @@
         <v>324</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C299" s="18"/>
       <c r="D299" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F299" s="18"/>
       <c r="G299" s="16"/>
@@ -8316,14 +8389,14 @@
         <v>324</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F300" s="18"/>
       <c r="G300" s="16"/>
@@ -8334,14 +8407,14 @@
         <v>324</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F301" s="18"/>
       <c r="G301" s="16"/>
@@ -8352,14 +8425,14 @@
         <v>324</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F302" s="18"/>
       <c r="G302" s="16"/>
@@ -8370,14 +8443,14 @@
         <v>324</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F303" s="18"/>
       <c r="G303" s="16"/>
@@ -8388,14 +8461,14 @@
         <v>324</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="16"/>
@@ -8406,14 +8479,14 @@
         <v>324</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="16"/>
@@ -8424,14 +8497,14 @@
         <v>324</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F306" s="18"/>
       <c r="G306" s="16"/>
@@ -8442,185 +8515,179 @@
         <v>324</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F307" s="18"/>
       <c r="G307" s="16"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C308" s="18"/>
-      <c r="D308" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="D308" s="13"/>
+      <c r="E308" s="14"/>
       <c r="F308" s="18"/>
       <c r="G308" s="16"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C309" s="18"/>
-      <c r="D309" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="D309" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E309" s="1"/>
       <c r="F309" s="18"/>
-      <c r="G309" s="16"/>
-      <c r="H309" s="2"/>
-    </row>
-    <row r="310" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G309" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H309" s="19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C310" s="18"/>
-      <c r="D310" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>178</v>
+      <c r="D310" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F310" s="18"/>
-      <c r="G310" s="16"/>
-      <c r="H310" s="2"/>
-    </row>
-    <row r="311" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G310" s="6"/>
+      <c r="H310" s="19"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F311" s="18"/>
       <c r="G311" s="16"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F312" s="18"/>
       <c r="G312" s="16"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>184</v>
+        <v>4</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F313" s="18"/>
       <c r="G313" s="16"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F314" s="18"/>
       <c r="G314" s="16"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C315" s="18"/>
-      <c r="D315" s="13"/>
-      <c r="E315" s="14"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
       <c r="F315" s="18"/>
       <c r="G315" s="16"/>
       <c r="H315" s="2"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>324</v>
+        <v>439</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C316" s="18"/>
-      <c r="D316" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="18"/>
-      <c r="G316" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H316" s="19" t="s">
-        <v>480</v>
+      <c r="G316" s="6"/>
+      <c r="H316" s="26" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>324</v>
+        <v>439</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="1" t="s">
@@ -8635,187 +8702,196 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
-        <v>324</v>
+        <v>439</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C318" s="18"/>
-      <c r="D318" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
       <c r="F318" s="18"/>
       <c r="G318" s="16"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="C319" s="18"/>
-      <c r="D319" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
       <c r="F319" s="18"/>
-      <c r="G319" s="16"/>
-      <c r="H319" s="2"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G319" s="6"/>
+      <c r="H319" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="C320" s="18"/>
-      <c r="D320" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>5</v>
+      <c r="D320" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F320" s="18"/>
-      <c r="G320" s="16"/>
-      <c r="H320" s="2"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="19"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="C321" s="18"/>
-      <c r="D321" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
       <c r="F321" s="18"/>
       <c r="G321" s="16"/>
       <c r="H321" s="2"/>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="C322" s="18"/>
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
+      <c r="D322" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E322" s="1"/>
       <c r="F322" s="18"/>
-      <c r="G322" s="16"/>
-      <c r="H322" s="2"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="19" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>443</v>
+        <v>338</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="C323" s="18"/>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
+      <c r="D323" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F323" s="18"/>
       <c r="G323" s="6"/>
-      <c r="H323" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H323" s="19"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
-        <v>443</v>
+        <v>338</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="C324" s="18"/>
-      <c r="D324" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>113</v>
+      <c r="D324" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F324" s="18"/>
-      <c r="G324" s="6"/>
-      <c r="H324" s="19"/>
+      <c r="G324" s="16"/>
+      <c r="H324" s="2"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
-        <v>443</v>
+        <v>338</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="C325" s="18"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
+      <c r="D325" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="F325" s="18"/>
       <c r="G325" s="16"/>
       <c r="H325" s="2"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="C326" s="18"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
+      <c r="D326" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="F326" s="18"/>
-      <c r="G326" s="6"/>
-      <c r="H326" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="G326" s="16"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="4"/>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="C327" s="18"/>
-      <c r="D327" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>113</v>
+      <c r="D327" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="F327" s="18"/>
-      <c r="G327" s="6"/>
-      <c r="H327" s="19"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G327" s="16"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="4"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="C328" s="18"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
+      <c r="D328" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="F328" s="18"/>
       <c r="G328" s="16"/>
       <c r="H328" s="2"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I328" s="4"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
         <v>338</v>
       </c>
@@ -8823,17 +8899,17 @@
         <v>339</v>
       </c>
       <c r="C329" s="18"/>
-      <c r="D329" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E329" s="1"/>
+      <c r="D329" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="F329" s="18"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G329" s="16"/>
+      <c r="H329" s="2"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>338</v>
       </c>
@@ -8841,15 +8917,15 @@
         <v>339</v>
       </c>
       <c r="C330" s="18"/>
-      <c r="D330" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>113</v>
+      <c r="D330" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="F330" s="18"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="19"/>
+      <c r="G330" s="16"/>
+      <c r="H330" s="2"/>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
@@ -8860,10 +8936,10 @@
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="16"/>
@@ -8877,12 +8953,8 @@
         <v>339</v>
       </c>
       <c r="C332" s="18"/>
-      <c r="D332" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="D332" s="13"/>
+      <c r="E332" s="14"/>
       <c r="F332" s="18"/>
       <c r="G332" s="16"/>
       <c r="H332" s="2"/>
@@ -8895,16 +8967,13 @@
         <v>339</v>
       </c>
       <c r="C333" s="18"/>
-      <c r="D333" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
       <c r="F333" s="18"/>
-      <c r="G333" s="16"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="4"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
@@ -8914,18 +8983,17 @@
         <v>339</v>
       </c>
       <c r="C334" s="18"/>
-      <c r="D334" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>347</v>
+      <c r="D334" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F334" s="18"/>
-      <c r="G334" s="16"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="4"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G334" s="6"/>
+      <c r="H334" s="19"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>338</v>
       </c>
@@ -8933,182 +9001,189 @@
         <v>339</v>
       </c>
       <c r="C335" s="18"/>
-      <c r="D335" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
       <c r="F335" s="18"/>
       <c r="G335" s="16"/>
       <c r="H335" s="2"/>
-      <c r="I335" s="4"/>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>338</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C336" s="18"/>
-      <c r="D336" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
       <c r="F336" s="18"/>
-      <c r="G336" s="16"/>
-      <c r="H336" s="2"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G336" s="6"/>
+      <c r="H336" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>338</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C337" s="18"/>
-      <c r="D337" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>353</v>
+      <c r="D337" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F337" s="18"/>
-      <c r="G337" s="16"/>
-      <c r="H337" s="2"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="19"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
         <v>338</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C338" s="18"/>
-      <c r="D338" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
       <c r="F338" s="18"/>
       <c r="G338" s="16"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C339" s="18"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="14"/>
+      <c r="D339" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E339" s="1"/>
       <c r="F339" s="18"/>
-      <c r="G339" s="16"/>
-      <c r="H339" s="2"/>
+      <c r="G339" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H339" s="19" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C340" s="18"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F340" s="18"/>
-      <c r="G340" s="6"/>
-      <c r="H340" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G340" s="20"/>
+      <c r="H340" s="19"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C341" s="18"/>
-      <c r="D341" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>113</v>
+      <c r="D341" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="F341" s="18"/>
-      <c r="G341" s="6"/>
-      <c r="H341" s="19"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="2"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C342" s="18"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
+      <c r="D342" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="F342" s="18"/>
       <c r="G342" s="16"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C343" s="18"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
+      <c r="D343" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="F343" s="18"/>
-      <c r="G343" s="6"/>
-      <c r="H343" s="19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G343" s="16"/>
+      <c r="H343" s="2"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C344" s="18"/>
-      <c r="D344" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>113</v>
+      <c r="D344" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="F344" s="18"/>
-      <c r="G344" s="6"/>
-      <c r="H344" s="19"/>
+      <c r="G344" s="16"/>
+      <c r="H344" s="2"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="9" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C345" s="18"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
+      <c r="D345" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="F345" s="18"/>
       <c r="G345" s="16"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>356</v>
       </c>
@@ -9116,19 +9191,17 @@
         <v>263</v>
       </c>
       <c r="C346" s="18"/>
-      <c r="D346" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E346" s="1"/>
+      <c r="D346" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="F346" s="18"/>
-      <c r="G346" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H346" s="19" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G346" s="16"/>
+      <c r="H346" s="2"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
         <v>356</v>
       </c>
@@ -9136,15 +9209,15 @@
         <v>263</v>
       </c>
       <c r="C347" s="18"/>
-      <c r="D347" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>113</v>
+      <c r="D347" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="F347" s="18"/>
-      <c r="G347" s="20"/>
-      <c r="H347" s="19"/>
+      <c r="G347" s="16"/>
+      <c r="H347" s="2"/>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
@@ -9155,10 +9228,10 @@
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="2" t="s">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="16"/>
@@ -9173,10 +9246,10 @@
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="16"/>
@@ -9191,10 +9264,10 @@
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="2" t="s">
-        <v>361</v>
+        <v>136</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="16"/>
@@ -9209,10 +9282,10 @@
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="2" t="s">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>152</v>
+        <v>373</v>
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="16"/>
@@ -9227,10 +9300,10 @@
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="16"/>
@@ -9245,10 +9318,10 @@
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="16"/>
@@ -9263,10 +9336,10 @@
       </c>
       <c r="C354" s="18"/>
       <c r="D354" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="16"/>
@@ -9281,10 +9354,10 @@
       </c>
       <c r="C355" s="18"/>
       <c r="D355" s="2" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="F355" s="18"/>
       <c r="G355" s="16"/>
@@ -9299,10 +9372,10 @@
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="16"/>
@@ -9317,10 +9390,10 @@
       </c>
       <c r="C357" s="18"/>
       <c r="D357" s="2" t="s">
-        <v>136</v>
+        <v>384</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F357" s="18"/>
       <c r="G357" s="16"/>
@@ -9335,10 +9408,10 @@
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="2" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="F358" s="18"/>
       <c r="G358" s="16"/>
@@ -9353,10 +9426,10 @@
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="16"/>
@@ -9371,10 +9444,10 @@
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="16"/>
@@ -9389,10 +9462,10 @@
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="16"/>
@@ -9407,10 +9480,10 @@
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="16"/>
@@ -9424,65 +9497,63 @@
         <v>263</v>
       </c>
       <c r="C363" s="18"/>
-      <c r="D363" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E363" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D363" s="13"/>
+      <c r="E363" s="14"/>
       <c r="F363" s="18"/>
       <c r="G363" s="16"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C364" s="18"/>
-      <c r="D364" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E364" s="2" t="s">
-        <v>385</v>
-      </c>
+      <c r="D364" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E364" s="1"/>
       <c r="F364" s="18"/>
-      <c r="G364" s="16"/>
-      <c r="H364" s="2"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G364" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H364" s="19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C365" s="18"/>
-      <c r="D365" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E365" s="2" t="s">
-        <v>143</v>
+      <c r="D365" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F365" s="18"/>
-      <c r="G365" s="16"/>
-      <c r="H365" s="2"/>
+      <c r="G365" s="20"/>
+      <c r="H365" s="19"/>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="2" t="s">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>387</v>
+        <v>103</v>
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="16"/>
@@ -9490,17 +9561,17 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="2" t="s">
-        <v>388</v>
+        <v>104</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="16"/>
@@ -9508,17 +9579,17 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="2" t="s">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="16"/>
@@ -9526,17 +9597,17 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="2" t="s">
-        <v>392</v>
+        <v>108</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="16"/>
@@ -9544,14 +9615,18 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C370" s="18"/>
-      <c r="D370" s="13"/>
-      <c r="E370" s="14"/>
+      <c r="D370" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F370" s="18"/>
       <c r="G370" s="16"/>
       <c r="H370" s="2"/>
@@ -9564,67 +9639,61 @@
         <v>198</v>
       </c>
       <c r="C371" s="18"/>
-      <c r="D371" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E371" s="1"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
       <c r="F371" s="18"/>
-      <c r="G371" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H371" s="19" t="s">
-        <v>491</v>
-      </c>
+      <c r="G371" s="16"/>
+      <c r="H371" s="2"/>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E372" s="1"/>
+      <c r="F372" s="18"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C373" s="18"/>
+      <c r="D373" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E372" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F372" s="18"/>
-      <c r="G372" s="20"/>
-      <c r="H372" s="19"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A373" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B373" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C373" s="18"/>
-      <c r="D373" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E373" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F373" s="18"/>
-      <c r="G373" s="16"/>
-      <c r="H373" s="2"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="19"/>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="2" t="s">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="16"/>
@@ -9632,17 +9701,17 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="2" t="s">
-        <v>106</v>
+        <v>399</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>107</v>
+        <v>400</v>
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="16"/>
@@ -9650,17 +9719,17 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="2" t="s">
-        <v>108</v>
+        <v>401</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="16"/>
@@ -9668,32 +9737,32 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="2" t="s">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>111</v>
+        <v>404</v>
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="16"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="C378" s="18"/>
-      <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="14"/>
       <c r="F378" s="18"/>
       <c r="G378" s="16"/>
       <c r="H378" s="2"/>
@@ -9703,17 +9772,17 @@
         <v>395</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E379" s="1"/>
       <c r="F379" s="18"/>
       <c r="G379" s="6"/>
       <c r="H379" s="19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -9721,7 +9790,7 @@
         <v>395</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="1" t="s">
@@ -9739,14 +9808,14 @@
         <v>395</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F381" s="18"/>
       <c r="G381" s="16"/>
@@ -9757,14 +9826,14 @@
         <v>395</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F382" s="18"/>
       <c r="G382" s="16"/>
@@ -9775,14 +9844,14 @@
         <v>395</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F383" s="18"/>
       <c r="G383" s="16"/>
@@ -9793,133 +9862,107 @@
         <v>395</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C384" s="18"/>
-      <c r="D384" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E384" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
       <c r="F384" s="18"/>
       <c r="G384" s="16"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B385" s="10" t="s">
-        <v>396</v>
-      </c>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="9"/>
+      <c r="B385" s="10"/>
       <c r="C385" s="18"/>
-      <c r="D385" s="13"/>
-      <c r="E385" s="14"/>
+      <c r="D385" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E385" s="1"/>
       <c r="F385" s="18"/>
-      <c r="G385" s="16"/>
-      <c r="H385" s="2"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="19"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B386" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="A386" s="9"/>
+      <c r="B386" s="10"/>
       <c r="C386" s="18"/>
-      <c r="D386" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E386" s="1"/>
+      <c r="D386" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F386" s="18"/>
       <c r="G386" s="6"/>
-      <c r="H386" s="19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B387" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="H386" s="19"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387" s="9"/>
+      <c r="B387" s="10"/>
       <c r="C387" s="18"/>
-      <c r="D387" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>113</v>
+      <c r="D387" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F387" s="18"/>
-      <c r="G387" s="6"/>
-      <c r="H387" s="19"/>
+      <c r="G387" s="16"/>
+      <c r="H387" s="2"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B388" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="A388" s="9"/>
+      <c r="B388" s="10"/>
       <c r="C388" s="18"/>
       <c r="D388" s="2" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="F388" s="18"/>
       <c r="G388" s="16"/>
       <c r="H388" s="2"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B389" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="A389" s="9"/>
+      <c r="B389" s="10"/>
       <c r="C389" s="18"/>
       <c r="D389" s="2" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="F389" s="18"/>
       <c r="G389" s="16"/>
       <c r="H389" s="2"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B390" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="A390" s="9"/>
+      <c r="B390" s="10"/>
       <c r="C390" s="18"/>
       <c r="D390" s="2" t="s">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="F390" s="18"/>
       <c r="G390" s="16"/>
       <c r="H390" s="2"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B391" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="A391" s="9"/>
+      <c r="B391" s="10"/>
       <c r="C391" s="18"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
+      <c r="D391" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F391" s="18"/>
       <c r="G391" s="16"/>
       <c r="H391" s="2"/>
@@ -9928,180 +9971,84 @@
       <c r="A392" s="9"/>
       <c r="B392" s="10"/>
       <c r="C392" s="18"/>
-      <c r="D392" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E392" s="1"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
       <c r="F392" s="18"/>
-      <c r="G392" s="6"/>
-      <c r="H392" s="19"/>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="9"/>
-      <c r="B393" s="10"/>
-      <c r="C393" s="18"/>
-      <c r="D393" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F393" s="18"/>
-      <c r="G393" s="6"/>
-      <c r="H393" s="19"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" s="9"/>
-      <c r="B394" s="10"/>
-      <c r="C394" s="18"/>
-      <c r="D394" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F394" s="18"/>
-      <c r="G394" s="16"/>
-      <c r="H394" s="2"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A395" s="9"/>
-      <c r="B395" s="10"/>
-      <c r="C395" s="18"/>
-      <c r="D395" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F395" s="18"/>
-      <c r="G395" s="16"/>
-      <c r="H395" s="2"/>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A396" s="9"/>
-      <c r="B396" s="10"/>
-      <c r="C396" s="18"/>
-      <c r="D396" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E396" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F396" s="18"/>
-      <c r="G396" s="16"/>
-      <c r="H396" s="2"/>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397" s="9"/>
-      <c r="B397" s="10"/>
-      <c r="C397" s="18"/>
-      <c r="D397" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F397" s="18"/>
-      <c r="G397" s="16"/>
-      <c r="H397" s="2"/>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A398" s="9"/>
-      <c r="B398" s="10"/>
-      <c r="C398" s="18"/>
-      <c r="D398" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F398" s="18"/>
-      <c r="G398" s="16"/>
-      <c r="H398" s="2"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="9"/>
-      <c r="B399" s="10"/>
-      <c r="C399" s="18"/>
-      <c r="D399" s="12"/>
-      <c r="E399" s="12"/>
-      <c r="F399" s="18"/>
-      <c r="G399" s="16"/>
-      <c r="H399" s="2"/>
+      <c r="G392" s="16"/>
+      <c r="H392" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E424">
-    <sortCondition ref="A1:A424"/>
-    <sortCondition ref="B1:B424"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E417">
+    <sortCondition ref="A1:A417"/>
+    <sortCondition ref="B1:B417"/>
   </sortState>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D251:D253" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D244:D246" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E305:E308 E248:E253" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E298:E301 E241:E246" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
       <formula1>40</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D319" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
-    <hyperlink ref="D320" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
-    <hyperlink ref="D321" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
-    <hyperlink ref="D394" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82639&amp;ns=ncit" xr:uid="{E183E1A4-04D7-E24E-8A31-133F938F0D28}"/>
-    <hyperlink ref="D395" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82637&amp;ns=ncit" xr:uid="{1598C15F-5688-1C49-8C1A-DAB7E2F8D613}"/>
-    <hyperlink ref="D396" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C142568&amp;ns=ncit" xr:uid="{D16C9CD1-5E6A-6541-BB1C-7456DD2BAC6F}"/>
-    <hyperlink ref="D397" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82640&amp;ns=ncit" xr:uid="{9A50C8E0-449D-AE4E-B910-5C25A0F1DDCF}"/>
-    <hyperlink ref="D398" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82638&amp;ns=ncit" xr:uid="{3C18698C-B1AE-FA4B-9520-3CEE14AE4A74}"/>
-    <hyperlink ref="D127" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
-    <hyperlink ref="D128" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
-    <hyperlink ref="D129" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
-    <hyperlink ref="D130" r:id="rId12" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{D1A6EBA8-5EB0-2C44-8CF1-4F32248BBABA}"/>
-    <hyperlink ref="D131" r:id="rId13" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{378AD94C-04DC-5141-AF38-82F17081A01D}"/>
-    <hyperlink ref="D132" r:id="rId14" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49664&amp;ns=ncit" xr:uid="{B622E711-2E06-3948-A337-ACDDDD41753D}"/>
-    <hyperlink ref="D133" r:id="rId15" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49663&amp;ns=ncit" xr:uid="{90FA3808-24C9-F64E-B64C-B4CA46192E89}"/>
-    <hyperlink ref="D134" r:id="rId16" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C178057&amp;ns=ncit" xr:uid="{3C761412-B393-ED44-91CF-9957D6558BDF}"/>
-    <hyperlink ref="D135" r:id="rId17" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158287&amp;ns=ncit" xr:uid="{6D32DDD1-AE98-2E43-BD7B-096D75610356}"/>
-    <hyperlink ref="D136" r:id="rId18" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49667&amp;ns=ncit" xr:uid="{F6EFDD48-09F8-0541-BDE0-483B76C2A992}"/>
-    <hyperlink ref="D137" r:id="rId19" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49666&amp;ns=ncit" xr:uid="{60CE0F0D-7279-7647-886C-207D5C6AEC81}"/>
-    <hyperlink ref="D138" r:id="rId20" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49665&amp;ns=ncit" xr:uid="{69F550B5-2198-BB4A-B840-175F41966649}"/>
-    <hyperlink ref="D139" r:id="rId21" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C39493&amp;ns=ncit" xr:uid="{C9D75BAB-3967-AA41-BC31-FB810A713DC9}"/>
-    <hyperlink ref="D140" r:id="rId22" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C201484&amp;ns=ncit" xr:uid="{D9B5CBEE-086F-144B-8881-E9423989DB5B}"/>
-    <hyperlink ref="D141" r:id="rId23" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C174366&amp;ns=ncit" xr:uid="{76398CA8-7DFE-074F-9615-77038545419E}"/>
-    <hyperlink ref="D142" r:id="rId24" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C120842&amp;ns=ncit" xr:uid="{F7CF6BD0-6EF9-3B46-BA28-45C1615F2957}"/>
-    <hyperlink ref="D143" r:id="rId25" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129001&amp;ns=ncit" xr:uid="{647C2A18-5BE0-EC46-83AE-FAC1A19B8480}"/>
-    <hyperlink ref="D144" r:id="rId26" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161477&amp;ns=ncit" xr:uid="{D3492A35-9EDA-2D44-8EBE-3EA2A26ADEEB}"/>
-    <hyperlink ref="D145" r:id="rId27" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161478&amp;ns=ncit" xr:uid="{877ACD3A-A6BC-6945-9A23-EF1F0ADBED65}"/>
-    <hyperlink ref="D146" r:id="rId28" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161479&amp;ns=ncit" xr:uid="{B6E0CA88-27D3-C147-9431-A79309BC526C}"/>
-    <hyperlink ref="D147" r:id="rId29" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161480&amp;ns=ncit" xr:uid="{D30181D7-62CC-3843-8EDD-94D3A7E828DC}"/>
-    <hyperlink ref="D148" r:id="rId30" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158283&amp;ns=ncit" xr:uid="{89C02071-8111-7A44-9B34-A21C17E266A7}"/>
-    <hyperlink ref="D149" r:id="rId31" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158284&amp;ns=ncit" xr:uid="{173FD762-EAC0-7941-BD4A-F2163B5EFBDB}"/>
-    <hyperlink ref="D150" r:id="rId32" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158290&amp;ns=ncit" xr:uid="{41363D12-A0AB-4442-96E2-F2EF89AF30A5}"/>
-    <hyperlink ref="D151" r:id="rId33" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158289&amp;ns=ncit" xr:uid="{4ED920F2-EC00-3740-A64A-34FEDA2E5C51}"/>
-    <hyperlink ref="D152" r:id="rId34" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158288&amp;ns=ncit" xr:uid="{C70BD844-68B5-1847-A926-2E32CDE28574}"/>
-    <hyperlink ref="D153" r:id="rId35" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158285&amp;ns=ncit" xr:uid="{074C134A-45D5-9D4D-9B57-8756AA2785F7}"/>
-    <hyperlink ref="D154" r:id="rId36" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158286&amp;ns=ncit" xr:uid="{A29F72E4-AE80-9C44-A9E5-33F34E1BB05D}"/>
-    <hyperlink ref="D155" r:id="rId37" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C127803&amp;ns=ncit" xr:uid="{2254B34B-2A80-F24A-A414-2F218796F0BE}"/>
-    <hyperlink ref="D156" r:id="rId38" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98729&amp;ns=ncit" xr:uid="{F1D3CE17-4BD1-4444-BE5E-0522D6C58FA0}"/>
-    <hyperlink ref="D157" r:id="rId39" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98791&amp;ns=ncit" xr:uid="{8A2DAB16-66B3-E448-93F8-2FCE9BDE458F}"/>
-    <hyperlink ref="D98" r:id="rId40" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15714&amp;ns=ncit" xr:uid="{556F5DC1-C1C8-2240-911F-A82212855285}"/>
-    <hyperlink ref="D99" r:id="rId41" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71485&amp;ns=ncit" xr:uid="{7505117A-A482-4243-85F9-0619C885AE2D}"/>
-    <hyperlink ref="D100" r:id="rId42" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C139174&amp;ns=ncit" xr:uid="{9D4684C2-55A0-EC4A-9C6D-38A561DA9672}"/>
-    <hyperlink ref="D101" r:id="rId43" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7F9BD7E2-D1B8-7E4A-879F-8EBF298EF875}"/>
-    <hyperlink ref="D102" r:id="rId44" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{8BAF591E-00BB-B64F-823A-553862C0BB8B}"/>
-    <hyperlink ref="D103" r:id="rId45" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15245&amp;ns=ncit" xr:uid="{B0227C52-5A21-B746-92BA-45FC129C985E}"/>
-    <hyperlink ref="D104" r:id="rId46" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{37B22110-B0C2-5D44-8386-0A8164E33FEC}"/>
-    <hyperlink ref="D105" r:id="rId47" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71486&amp;ns=ncit" xr:uid="{0C08005F-132B-A04E-A1B0-B278A7B08E2C}"/>
-    <hyperlink ref="D106" r:id="rId48" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
-    <hyperlink ref="D107" r:id="rId49" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
-    <hyperlink ref="D108" r:id="rId50" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
-    <hyperlink ref="D373" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
-    <hyperlink ref="D374" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
-    <hyperlink ref="D375" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
-    <hyperlink ref="D376" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
-    <hyperlink ref="D377" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
-    <hyperlink ref="H296" r:id="rId56" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
-    <hyperlink ref="H371" r:id="rId57" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
-    <hyperlink ref="H110" r:id="rId58" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
+    <hyperlink ref="D312" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
+    <hyperlink ref="D313" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
+    <hyperlink ref="D314" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
+    <hyperlink ref="D387" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82639&amp;ns=ncit" xr:uid="{E183E1A4-04D7-E24E-8A31-133F938F0D28}"/>
+    <hyperlink ref="D388" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82637&amp;ns=ncit" xr:uid="{1598C15F-5688-1C49-8C1A-DAB7E2F8D613}"/>
+    <hyperlink ref="D389" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C142568&amp;ns=ncit" xr:uid="{D16C9CD1-5E6A-6541-BB1C-7456DD2BAC6F}"/>
+    <hyperlink ref="D390" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82640&amp;ns=ncit" xr:uid="{9A50C8E0-449D-AE4E-B910-5C25A0F1DDCF}"/>
+    <hyperlink ref="D391" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82638&amp;ns=ncit" xr:uid="{3C18698C-B1AE-FA4B-9520-3CEE14AE4A74}"/>
+    <hyperlink ref="D120" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
+    <hyperlink ref="D121" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
+    <hyperlink ref="D122" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
+    <hyperlink ref="D123" r:id="rId12" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{D1A6EBA8-5EB0-2C44-8CF1-4F32248BBABA}"/>
+    <hyperlink ref="D124" r:id="rId13" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{378AD94C-04DC-5141-AF38-82F17081A01D}"/>
+    <hyperlink ref="D125" r:id="rId14" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49664&amp;ns=ncit" xr:uid="{B622E711-2E06-3948-A337-ACDDDD41753D}"/>
+    <hyperlink ref="D126" r:id="rId15" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49663&amp;ns=ncit" xr:uid="{90FA3808-24C9-F64E-B64C-B4CA46192E89}"/>
+    <hyperlink ref="D127" r:id="rId16" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C178057&amp;ns=ncit" xr:uid="{3C761412-B393-ED44-91CF-9957D6558BDF}"/>
+    <hyperlink ref="D128" r:id="rId17" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158287&amp;ns=ncit" xr:uid="{6D32DDD1-AE98-2E43-BD7B-096D75610356}"/>
+    <hyperlink ref="D129" r:id="rId18" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49667&amp;ns=ncit" xr:uid="{F6EFDD48-09F8-0541-BDE0-483B76C2A992}"/>
+    <hyperlink ref="D130" r:id="rId19" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49666&amp;ns=ncit" xr:uid="{60CE0F0D-7279-7647-886C-207D5C6AEC81}"/>
+    <hyperlink ref="D131" r:id="rId20" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49665&amp;ns=ncit" xr:uid="{69F550B5-2198-BB4A-B840-175F41966649}"/>
+    <hyperlink ref="D132" r:id="rId21" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C39493&amp;ns=ncit" xr:uid="{C9D75BAB-3967-AA41-BC31-FB810A713DC9}"/>
+    <hyperlink ref="D133" r:id="rId22" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C201484&amp;ns=ncit" xr:uid="{D9B5CBEE-086F-144B-8881-E9423989DB5B}"/>
+    <hyperlink ref="D134" r:id="rId23" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C174366&amp;ns=ncit" xr:uid="{76398CA8-7DFE-074F-9615-77038545419E}"/>
+    <hyperlink ref="D135" r:id="rId24" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C120842&amp;ns=ncit" xr:uid="{F7CF6BD0-6EF9-3B46-BA28-45C1615F2957}"/>
+    <hyperlink ref="D136" r:id="rId25" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129001&amp;ns=ncit" xr:uid="{647C2A18-5BE0-EC46-83AE-FAC1A19B8480}"/>
+    <hyperlink ref="D137" r:id="rId26" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161477&amp;ns=ncit" xr:uid="{D3492A35-9EDA-2D44-8EBE-3EA2A26ADEEB}"/>
+    <hyperlink ref="D138" r:id="rId27" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161478&amp;ns=ncit" xr:uid="{877ACD3A-A6BC-6945-9A23-EF1F0ADBED65}"/>
+    <hyperlink ref="D139" r:id="rId28" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161479&amp;ns=ncit" xr:uid="{B6E0CA88-27D3-C147-9431-A79309BC526C}"/>
+    <hyperlink ref="D140" r:id="rId29" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161480&amp;ns=ncit" xr:uid="{D30181D7-62CC-3843-8EDD-94D3A7E828DC}"/>
+    <hyperlink ref="D141" r:id="rId30" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158283&amp;ns=ncit" xr:uid="{89C02071-8111-7A44-9B34-A21C17E266A7}"/>
+    <hyperlink ref="D142" r:id="rId31" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158284&amp;ns=ncit" xr:uid="{173FD762-EAC0-7941-BD4A-F2163B5EFBDB}"/>
+    <hyperlink ref="D143" r:id="rId32" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158290&amp;ns=ncit" xr:uid="{41363D12-A0AB-4442-96E2-F2EF89AF30A5}"/>
+    <hyperlink ref="D144" r:id="rId33" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158289&amp;ns=ncit" xr:uid="{4ED920F2-EC00-3740-A64A-34FEDA2E5C51}"/>
+    <hyperlink ref="D145" r:id="rId34" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158288&amp;ns=ncit" xr:uid="{C70BD844-68B5-1847-A926-2E32CDE28574}"/>
+    <hyperlink ref="D146" r:id="rId35" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158285&amp;ns=ncit" xr:uid="{074C134A-45D5-9D4D-9B57-8756AA2785F7}"/>
+    <hyperlink ref="D147" r:id="rId36" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158286&amp;ns=ncit" xr:uid="{A29F72E4-AE80-9C44-A9E5-33F34E1BB05D}"/>
+    <hyperlink ref="D148" r:id="rId37" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C127803&amp;ns=ncit" xr:uid="{2254B34B-2A80-F24A-A414-2F218796F0BE}"/>
+    <hyperlink ref="D149" r:id="rId38" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98729&amp;ns=ncit" xr:uid="{F1D3CE17-4BD1-4444-BE5E-0522D6C58FA0}"/>
+    <hyperlink ref="D150" r:id="rId39" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98791&amp;ns=ncit" xr:uid="{8A2DAB16-66B3-E448-93F8-2FCE9BDE458F}"/>
+    <hyperlink ref="D97" r:id="rId40" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15714&amp;ns=ncit" xr:uid="{556F5DC1-C1C8-2240-911F-A82212855285}"/>
+    <hyperlink ref="D98" r:id="rId41" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71485&amp;ns=ncit" xr:uid="{7505117A-A482-4243-85F9-0619C885AE2D}"/>
+    <hyperlink ref="D99" r:id="rId42" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C139174&amp;ns=ncit" xr:uid="{9D4684C2-55A0-EC4A-9C6D-38A561DA9672}"/>
+    <hyperlink ref="D100" r:id="rId43" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7F9BD7E2-D1B8-7E4A-879F-8EBF298EF875}"/>
+    <hyperlink ref="D101" r:id="rId44" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{8BAF591E-00BB-B64F-823A-553862C0BB8B}"/>
+    <hyperlink ref="D102" r:id="rId45" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15245&amp;ns=ncit" xr:uid="{B0227C52-5A21-B746-92BA-45FC129C985E}"/>
+    <hyperlink ref="D103" r:id="rId46" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{37B22110-B0C2-5D44-8386-0A8164E33FEC}"/>
+    <hyperlink ref="D104" r:id="rId47" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71486&amp;ns=ncit" xr:uid="{0C08005F-132B-A04E-A1B0-B278A7B08E2C}"/>
+    <hyperlink ref="D105" r:id="rId48" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
+    <hyperlink ref="D106" r:id="rId49" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
+    <hyperlink ref="D107" r:id="rId50" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
+    <hyperlink ref="D366" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
+    <hyperlink ref="D367" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
+    <hyperlink ref="D368" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
+    <hyperlink ref="D369" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
+    <hyperlink ref="D370" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
+    <hyperlink ref="H289" r:id="rId56" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
+    <hyperlink ref="H364" r:id="rId57" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
+    <hyperlink ref="H109" r:id="rId58" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
     <hyperlink ref="D34" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C157352" xr:uid="{7714E1A1-7F57-1F45-8626-96AC1D085731}"/>
     <hyperlink ref="D35" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171525" xr:uid="{13669423-9FB2-DD4E-8C39-68B1F003F7CB}"/>
     <hyperlink ref="D36" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C175574" xr:uid="{90BF3119-C866-924C-8E68-7900AA0837E5}"/>
@@ -10152,60 +10099,60 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -10213,18 +10160,18 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>17</v>
@@ -10241,18 +10188,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>15</v>
@@ -10269,18 +10216,18 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
@@ -10297,18 +10244,18 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>19</v>
@@ -10325,18 +10272,18 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>23</v>
@@ -10355,82 +10302,82 @@
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -10451,37 +10398,37 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -10496,118 +10443,118 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -10666,6 +10613,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -10674,15 +10630,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10893,6 +10840,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1323A5E8-4C72-41C9-A579-AD9E7BE66D1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E47AC27-AEA3-4648-B7A2-5748F4E8871D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10905,14 +10860,6 @@
     <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1323A5E8-4C72-41C9-A579-AD9E7BE66D1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ct.xlsx
+++ b/ct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/infographics/usdm_ct_infographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9C9D3-9836-0C47-B5B3-306C914A0E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A18DEF-1094-E040-9FA0-D441BD47C5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17440" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17400" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="683">
   <si>
     <t>C16084</t>
   </si>
@@ -993,9 +993,6 @@
     <t>C165830</t>
   </si>
   <si>
-    <t>Real World Data</t>
-  </si>
-  <si>
     <t>C176263</t>
   </si>
   <si>
@@ -1272,21 +1269,6 @@
     <t>Fixed Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">C188725 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C215486 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C215485 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C188727 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C207417 - </t>
-  </si>
-  <si>
     <t xml:space="preserve">C201265 - </t>
   </si>
   <si>
@@ -1353,12 +1335,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>StudyCohort</t>
-  </si>
-  <si>
-    <t>StudyDesignPopulation</t>
-  </si>
-  <si>
     <t>StudyEpoch</t>
   </si>
   <si>
@@ -1764,9 +1740,6 @@
     <t>C207412 - CDISC DDF Geographic Scope Type Value Set Terminology</t>
   </si>
   <si>
-    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C</t>
-  </si>
-  <si>
     <t>C207413 - CDISC DDF Governance Date Type Value Set Terminology</t>
   </si>
   <si>
@@ -1816,6 +1789,303 @@
   </si>
   <si>
     <t>C215484 - CDISC DDF Medical Device Identifier Type Value Set Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C188725</t>
+  </si>
+  <si>
+    <t>C188725 - CDISC DDF Objective Level Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C127259 - CDISC SDTM Observational Study Model Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C127259</t>
+  </si>
+  <si>
+    <t>C127780</t>
+  </si>
+  <si>
+    <t>C15407</t>
+  </si>
+  <si>
+    <t>C15197</t>
+  </si>
+  <si>
+    <t>C15208</t>
+  </si>
+  <si>
+    <t>C15362</t>
+  </si>
+  <si>
+    <t>C127779</t>
+  </si>
+  <si>
+    <t>Ecologic or Community Based Study</t>
+  </si>
+  <si>
+    <t>Family Study</t>
+  </si>
+  <si>
+    <t>Case-Control Study</t>
+  </si>
+  <si>
+    <t>Cohort Study</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Observational Case-Crossover Study</t>
+  </si>
+  <si>
+    <t>C127260 - CDISC SDTM Observational Study Sampling Method Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C127260</t>
+  </si>
+  <si>
+    <t>C71517</t>
+  </si>
+  <si>
+    <t>C127781</t>
+  </si>
+  <si>
+    <t>Equal Probability Sampling Method</t>
+  </si>
+  <si>
+    <t>Non-Probability Sampling Method</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C215486</t>
+  </si>
+  <si>
+    <t>C215486 - 	CDISC DDF Observational Study Design Subtype Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C127261 - CDISC SDTM Observational Study Time Perspective Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C127261</t>
+  </si>
+  <si>
+    <t>C15273</t>
+  </si>
+  <si>
+    <t>C53310</t>
+  </si>
+  <si>
+    <t>C53312</t>
+  </si>
+  <si>
+    <t>Longitudinal Study</t>
+  </si>
+  <si>
+    <t>Cross-Sectional Study</t>
+  </si>
+  <si>
+    <t>Retrospective Study</t>
+  </si>
+  <si>
+    <t>C66732 - CDISC SDTM Sex of Study Group Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C66732</t>
+  </si>
+  <si>
+    <t>C49636</t>
+  </si>
+  <si>
+    <t>C16576</t>
+  </si>
+  <si>
+    <t>C20197</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C215485</t>
+  </si>
+  <si>
+    <t>C215485 - CDISC DDF Product Organization Role Code Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C71620 - CDISC SDTM Unit of Measure Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C71620</t>
+  </si>
+  <si>
+    <t>929 Codes - Too long to display</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C188727</t>
+  </si>
+  <si>
+    <t>C188727 - CDISC DDF Study Arm Data Origin Type Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C188865</t>
+  </si>
+  <si>
+    <t>Real-world Data</t>
+  </si>
+  <si>
+    <t>Virtual Data</t>
+  </si>
+  <si>
+    <t>C174222 - CDISC Protocol Study Arm Type Value Set Terminology</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C174222</t>
+  </si>
+  <si>
+    <t>C174266</t>
+  </si>
+  <si>
+    <t>C174267</t>
+  </si>
+  <si>
+    <t>C174268</t>
+  </si>
+  <si>
+    <t>C15538</t>
+  </si>
+  <si>
+    <t>C174269</t>
+  </si>
+  <si>
+    <t>C174270</t>
+  </si>
+  <si>
+    <t>C174226</t>
+  </si>
+  <si>
+    <t>Investigational Arm</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Placebo Control Arm</t>
+  </si>
+  <si>
+    <t>Protocol Treatment Arm</t>
+  </si>
+  <si>
+    <t>Sham Comparator Arm</t>
+  </si>
+  <si>
+    <t>No Intervention Arm</t>
+  </si>
+  <si>
+    <t>Control Arm</t>
+  </si>
+  <si>
+    <t>C99079 - CDISC SDTM Epoch Terminology</t>
+  </si>
+  <si>
+    <t>C102256</t>
+  </si>
+  <si>
+    <t>C210380</t>
+  </si>
+  <si>
+    <t>C123452</t>
+  </si>
+  <si>
+    <t>C123453</t>
+  </si>
+  <si>
+    <t>C199844</t>
+  </si>
+  <si>
+    <t>C202487</t>
+  </si>
+  <si>
+    <t>C98779</t>
+  </si>
+  <si>
+    <t>C125938</t>
+  </si>
+  <si>
+    <t>C165873</t>
+  </si>
+  <si>
+    <t>C202578</t>
+  </si>
+  <si>
+    <t>C209541</t>
+  </si>
+  <si>
+    <t>C101526</t>
+  </si>
+  <si>
+    <t>C102255</t>
+  </si>
+  <si>
+    <t>C202577</t>
+  </si>
+  <si>
+    <t>C42872</t>
+  </si>
+  <si>
+    <t>Open Label Treatment Epoch</t>
+  </si>
+  <si>
+    <t>Product Exposure Epoch</t>
+  </si>
+  <si>
+    <t>Continuation Therapy Epoch</t>
+  </si>
+  <si>
+    <t>Induction Therapy Epoch</t>
+  </si>
+  <si>
+    <t>Pre-Screening Epoch</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>Run-in Period</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>Observation Study Epoch</t>
+  </si>
+  <si>
+    <t>Follow-Up Epoch</t>
+  </si>
+  <si>
+    <t>Investigational Intervention Epoch</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>Blinded Treatment Epoch</t>
+  </si>
+  <si>
+    <t>Long-term Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>Washout Period</t>
+  </si>
+  <si>
+    <t>https://evsexplore.semantics.cancer.gov/evsexplore/subset/ncit/C99079</t>
+  </si>
+  <si>
+    <t>C207417 - CDISC DDF Study Intervention Role Value Set Terminology</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2300,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2085,7 +2355,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2140,7 +2410,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2195,7 +2465,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2250,7 +2520,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2305,7 +2575,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2360,7 +2630,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2415,7 +2685,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2470,7 +2740,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2525,7 +2795,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2580,7 +2850,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2635,7 +2905,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2690,7 +2960,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2745,7 +3015,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3116,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94479E8-6944-C345-8953-69A0AF0635D7}">
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3140,19 +3410,19 @@
         <v>188</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18"/>
       <c r="G1" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3160,7 +3430,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
@@ -3178,11 +3448,11 @@
         <v>188</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="18"/>
@@ -3194,7 +3464,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2"/>
@@ -3212,15 +3482,15 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3253,7 +3523,7 @@
         <v>190</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="16"/>
@@ -3271,7 +3541,7 @@
         <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="16"/>
@@ -3300,15 +3570,15 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="18"/>
       <c r="G10" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3388,15 +3658,15 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="18"/>
       <c r="G15" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3451,30 +3721,30 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="18"/>
       <c r="G19" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="1" t="s">
@@ -3489,14 +3759,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="18"/>
@@ -3505,10 +3775,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="2"/>
@@ -3519,30 +3789,30 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="18"/>
       <c r="G23" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="1" t="s">
@@ -3557,14 +3827,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="18"/>
@@ -3573,10 +3843,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="2"/>
@@ -3587,30 +3857,30 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="18"/>
       <c r="G27" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="1" t="s">
@@ -3625,17 +3895,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16"/>
@@ -3643,17 +3913,17 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16"/>
@@ -3661,10 +3931,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="2"/>
@@ -3678,19 +3948,19 @@
         <v>201</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="18"/>
       <c r="G32" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3698,7 +3968,7 @@
         <v>201</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
@@ -3716,14 +3986,14 @@
         <v>201</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="16"/>
@@ -3734,14 +4004,14 @@
         <v>201</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="16"/>
@@ -3752,14 +4022,14 @@
         <v>201</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="16"/>
@@ -3770,14 +4040,14 @@
         <v>201</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="16"/>
@@ -3788,14 +4058,14 @@
         <v>201</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="16"/>
@@ -3806,14 +4076,14 @@
         <v>201</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="16"/>
@@ -3824,14 +4094,14 @@
         <v>201</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="16"/>
@@ -3842,14 +4112,14 @@
         <v>201</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="16"/>
@@ -3860,14 +4130,14 @@
         <v>201</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="16"/>
@@ -3878,7 +4148,7 @@
         <v>201</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="2"/>
@@ -3892,19 +4162,19 @@
         <v>201</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="18"/>
       <c r="G44" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3912,7 +4182,7 @@
         <v>201</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="1" t="s">
@@ -3930,14 +4200,14 @@
         <v>201</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="16"/>
@@ -3948,14 +4218,14 @@
         <v>201</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="16"/>
@@ -3966,14 +4236,14 @@
         <v>201</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="16"/>
@@ -3984,14 +4254,14 @@
         <v>201</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="16"/>
@@ -4002,7 +4272,7 @@
         <v>201</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="2" t="s">
@@ -4020,14 +4290,14 @@
         <v>201</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="16"/>
@@ -4038,14 +4308,14 @@
         <v>201</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="16"/>
@@ -4056,14 +4326,14 @@
         <v>201</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="16"/>
@@ -4074,14 +4344,14 @@
         <v>201</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="16"/>
@@ -4092,14 +4362,14 @@
         <v>201</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="16"/>
@@ -4110,14 +4380,14 @@
         <v>201</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="16"/>
@@ -4128,14 +4398,14 @@
         <v>201</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="16"/>
@@ -4146,14 +4416,14 @@
         <v>201</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="16"/>
@@ -4164,14 +4434,14 @@
         <v>201</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="16"/>
@@ -4182,14 +4452,14 @@
         <v>201</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="16"/>
@@ -4200,14 +4470,14 @@
         <v>201</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="16"/>
@@ -4218,14 +4488,14 @@
         <v>201</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="16"/>
@@ -4236,14 +4506,14 @@
         <v>201</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="16"/>
@@ -4254,7 +4524,7 @@
         <v>201</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="2"/>
@@ -4272,15 +4542,15 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="18"/>
       <c r="G65" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4342,15 +4612,15 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="18"/>
       <c r="G69" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4448,15 +4718,15 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="18"/>
       <c r="G75" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4554,15 +4824,15 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="18"/>
       <c r="G81" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4653,30 +4923,30 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="18"/>
       <c r="G87" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="1" t="s">
@@ -4691,17 +4961,17 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="16"/>
@@ -4709,17 +4979,17 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="16"/>
@@ -4727,17 +4997,17 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="16"/>
@@ -4745,17 +5015,17 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="16"/>
@@ -4763,17 +5033,17 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="16"/>
@@ -4781,10 +5051,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="2"/>
@@ -4795,10 +5065,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="1" t="s">
@@ -4807,18 +5077,18 @@
       <c r="E95" s="1"/>
       <c r="F95" s="18"/>
       <c r="G95" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="5" t="s">
@@ -4833,10 +5103,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="2" t="s">
@@ -4851,10 +5121,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="2" t="s">
@@ -4869,10 +5139,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="2" t="s">
@@ -4887,10 +5157,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="2" t="s">
@@ -4905,10 +5175,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="2" t="s">
@@ -4923,10 +5193,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="2" t="s">
@@ -4941,10 +5211,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="2" t="s">
@@ -4959,10 +5229,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="2" t="s">
@@ -4977,10 +5247,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="2" t="s">
@@ -4995,10 +5265,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="2" t="s">
@@ -5013,10 +5283,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="2" t="s">
@@ -5031,10 +5301,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="12"/>
@@ -5045,10 +5315,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="1" t="s">
@@ -5057,18 +5327,18 @@
       <c r="E109" s="1"/>
       <c r="F109" s="18"/>
       <c r="G109" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="1" t="s">
@@ -5083,17 +5353,17 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="16"/>
@@ -5101,10 +5371,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="2" t="s">
@@ -5119,10 +5389,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="2" t="s">
@@ -5137,10 +5407,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="2" t="s">
@@ -5155,10 +5425,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="2" t="s">
@@ -5173,10 +5443,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="2" t="s">
@@ -5191,10 +5461,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="2"/>
@@ -5205,7 +5475,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>244</v>
@@ -5217,15 +5487,15 @@
       <c r="E118" s="1"/>
       <c r="F118" s="18"/>
       <c r="G118" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>244</v>
@@ -5243,7 +5513,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>244</v>
@@ -5261,7 +5531,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>244</v>
@@ -5279,7 +5549,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>244</v>
@@ -5297,7 +5567,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>244</v>
@@ -5315,7 +5585,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>244</v>
@@ -5333,7 +5603,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>244</v>
@@ -5351,7 +5621,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>244</v>
@@ -5369,7 +5639,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>244</v>
@@ -5387,7 +5657,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>244</v>
@@ -5405,7 +5675,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>244</v>
@@ -5423,7 +5693,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>244</v>
@@ -5441,7 +5711,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>244</v>
@@ -5459,7 +5729,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>244</v>
@@ -5477,7 +5747,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>244</v>
@@ -5495,7 +5765,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>244</v>
@@ -5513,7 +5783,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>244</v>
@@ -5531,7 +5801,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>244</v>
@@ -5549,7 +5819,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>244</v>
@@ -5567,7 +5837,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>244</v>
@@ -5585,7 +5855,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>244</v>
@@ -5603,7 +5873,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>244</v>
@@ -5621,7 +5891,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>244</v>
@@ -5639,7 +5909,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>244</v>
@@ -5657,7 +5927,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>244</v>
@@ -5675,7 +5945,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>244</v>
@@ -5693,7 +5963,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>244</v>
@@ -5711,7 +5981,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>244</v>
@@ -5729,7 +5999,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>244</v>
@@ -5747,7 +6017,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>244</v>
@@ -5765,7 +6035,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>244</v>
@@ -5783,7 +6053,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>244</v>
@@ -5801,7 +6071,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>244</v>
@@ -5822,15 +6092,15 @@
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="18"/>
       <c r="G152" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5909,15 +6179,15 @@
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="18"/>
       <c r="G157" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,13 +6303,15 @@
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="1" t="s">
-        <v>411</v>
+        <v>585</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="18"/>
-      <c r="G164" s="6"/>
+      <c r="G164" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="H164" s="26" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6133,15 +6405,19 @@
         <v>243</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="C170" s="18"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="E170" s="1"/>
       <c r="F170" s="18"/>
-      <c r="G170" s="6"/>
+      <c r="G170" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="H170" s="26" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6149,7 +6425,7 @@
         <v>243</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="1" t="s">
@@ -6167,103 +6443,115 @@
         <v>243</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="C172" s="18"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>594</v>
+      </c>
       <c r="F172" s="18"/>
       <c r="G172" s="16"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C173" s="18"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
+      <c r="D173" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="F173" s="18"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G173" s="16"/>
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C174" s="18"/>
-      <c r="D174" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>113</v>
+      <c r="D174" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="F174" s="18"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="19"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C175" s="18"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="D175" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>597</v>
+      </c>
       <c r="F175" s="18"/>
       <c r="G175" s="16"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C176" s="18"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
+      <c r="D176" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>598</v>
+      </c>
       <c r="F176" s="18"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G176" s="16"/>
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C177" s="18"/>
-      <c r="D177" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>113</v>
+      <c r="D177" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="F177" s="18"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="19"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="2"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="2"/>
@@ -6277,15 +6565,19 @@
         <v>243</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="E179" s="1"/>
       <c r="F179" s="18"/>
-      <c r="G179" s="6"/>
+      <c r="G179" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="H179" s="26" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6293,7 +6585,7 @@
         <v>243</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C180" s="18"/>
       <c r="D180" s="1" t="s">
@@ -6311,62 +6603,70 @@
         <v>243</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="F181" s="18"/>
       <c r="G181" s="16"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
+      <c r="D182" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="F182" s="18"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G182" s="16"/>
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="18"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="19"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G183" s="16"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="D184" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E184" s="1"/>
       <c r="F184" s="18"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="2"/>
+      <c r="G184" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H184" s="26" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
@@ -6377,16 +6677,16 @@
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E185" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F185" s="18"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="19"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>243</v>
       </c>
@@ -6394,15 +6694,15 @@
         <v>244</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="D186" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>113</v>
+      <c r="D186" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F186" s="18"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="19"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="2"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
@@ -6413,10 +6713,10 @@
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F187" s="18"/>
       <c r="G187" s="16"/>
@@ -6431,10 +6731,10 @@
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F188" s="18"/>
       <c r="G188" s="16"/>
@@ -6449,10 +6749,10 @@
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F189" s="18"/>
       <c r="G189" s="16"/>
@@ -6467,10 +6767,10 @@
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F190" s="18"/>
       <c r="G190" s="16"/>
@@ -6485,10 +6785,10 @@
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="2" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F191" s="18"/>
       <c r="G191" s="16"/>
@@ -6503,10 +6803,10 @@
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="2" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F192" s="18"/>
       <c r="G192" s="16"/>
@@ -6521,10 +6821,10 @@
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F193" s="18"/>
       <c r="G193" s="16"/>
@@ -6538,117 +6838,119 @@
         <v>244</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="D194" s="13"/>
+      <c r="E194" s="14"/>
       <c r="F194" s="18"/>
       <c r="G194" s="16"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="14"/>
+      <c r="D195" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E195" s="1"/>
       <c r="F195" s="18"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="2"/>
+      <c r="G195" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H195" s="26" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F196" s="18"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="19"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="D197" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>113</v>
+      <c r="D197" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="F197" s="18"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="19"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C198" s="18"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="D198" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="F198" s="18"/>
       <c r="G198" s="16"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>198</v>
+        <v>427</v>
       </c>
       <c r="C199" s="18"/>
-      <c r="D199" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E199" s="1"/>
+      <c r="D199" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="F199" s="18"/>
-      <c r="G199" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H199" s="19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G199" s="16"/>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>198</v>
+        <v>427</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="18"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G200" s="16"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>260</v>
       </c>
@@ -6656,17 +6958,19 @@
         <v>198</v>
       </c>
       <c r="C201" s="18"/>
-      <c r="D201" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D201" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E201" s="1"/>
       <c r="F201" s="18"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="2"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G201" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>260</v>
       </c>
@@ -6674,15 +6978,15 @@
         <v>198</v>
       </c>
       <c r="C202" s="18"/>
-      <c r="D202" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>137</v>
+      <c r="D202" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F202" s="18"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="2"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
@@ -6693,10 +6997,10 @@
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="16"/>
@@ -6711,10 +7015,10 @@
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="16"/>
@@ -6729,10 +7033,10 @@
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F205" s="18"/>
       <c r="G205" s="16"/>
@@ -6747,10 +7051,10 @@
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="16"/>
@@ -6765,10 +7069,10 @@
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F207" s="18"/>
       <c r="G207" s="16"/>
@@ -6783,10 +7087,10 @@
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F208" s="18"/>
       <c r="G208" s="16"/>
@@ -6801,10 +7105,10 @@
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="2" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="16"/>
@@ -6818,109 +7122,117 @@
         <v>198</v>
       </c>
       <c r="C210" s="18"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="14"/>
+      <c r="D210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F210" s="18"/>
       <c r="G210" s="16"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
-        <v>434</v>
+        <v>260</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>435</v>
+        <v>198</v>
       </c>
       <c r="C211" s="18"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
+      <c r="D211" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F211" s="18"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G211" s="16"/>
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
-        <v>434</v>
+        <v>260</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>435</v>
+        <v>198</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D212" s="13"/>
+      <c r="E212" s="14"/>
       <c r="F212" s="18"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="19"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G212" s="16"/>
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C213" s="18"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
+      <c r="D213" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E213" s="1"/>
       <c r="F213" s="18"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="2"/>
+      <c r="G213" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H213" s="26" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E214" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F214" s="18"/>
       <c r="G214" s="6"/>
-      <c r="H214" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="19"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="C215" s="18"/>
-      <c r="D215" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>113</v>
+      <c r="D215" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="F215" s="18"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="19"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="2" t="s">
-        <v>264</v>
+        <v>619</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>265</v>
+        <v>622</v>
       </c>
       <c r="F216" s="18"/>
       <c r="G216" s="16"/>
@@ -6928,17 +7240,17 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="2" t="s">
-        <v>266</v>
+        <v>620</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>267</v>
+        <v>623</v>
       </c>
       <c r="F217" s="18"/>
       <c r="G217" s="16"/>
@@ -6946,40 +7258,44 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="C218" s="18"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="14"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
       <c r="F218" s="18"/>
       <c r="G218" s="16"/>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>436</v>
+        <v>262</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>437</v>
+        <v>263</v>
       </c>
       <c r="C219" s="18"/>
-      <c r="D219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>625</v>
+      </c>
       <c r="E219" s="1"/>
       <c r="F219" s="18"/>
-      <c r="G219" s="6"/>
+      <c r="G219" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="H219" s="26" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>436</v>
+        <v>262</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>437</v>
+        <v>263</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="1" t="s">
@@ -6990,179 +7306,177 @@
       </c>
       <c r="F220" s="18"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
+      <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
-        <v>436</v>
+        <v>262</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>437</v>
+        <v>263</v>
       </c>
       <c r="C221" s="18"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
+      <c r="D221" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="F221" s="18"/>
       <c r="G221" s="16"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C222" s="18"/>
-      <c r="D222" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E222" s="1"/>
+      <c r="D222" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="F222" s="18"/>
-      <c r="G222" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H222" s="19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G222" s="16"/>
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C223" s="18"/>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="13"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C224" s="18"/>
+      <c r="D224" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H224" s="26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C225" s="18"/>
+      <c r="D225" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F223" s="18"/>
-      <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C224" s="18"/>
-      <c r="D224" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F224" s="18"/>
-      <c r="G224" s="16"/>
-      <c r="H224" s="2"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C225" s="18"/>
-      <c r="D225" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="F225" s="18"/>
-      <c r="G225" s="16"/>
-      <c r="H225" s="2"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>268</v>
+        <v>430</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="C226" s="18"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="14"/>
+      <c r="D226" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E226" s="2"/>
       <c r="F226" s="18"/>
-      <c r="G226" s="16"/>
-      <c r="H226" s="2"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>273</v>
+        <v>430</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="C227" s="18"/>
-      <c r="D227" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E227" s="1"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
       <c r="F227" s="18"/>
-      <c r="G227" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H227" s="19" t="s">
-        <v>480</v>
-      </c>
+      <c r="G227" s="16"/>
+      <c r="H227" s="2"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B228" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E228" s="1"/>
       <c r="F228" s="18"/>
-      <c r="G228" s="6"/>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G228" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H228" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B229" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C229" s="18"/>
-      <c r="D229" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>275</v>
+      <c r="D229" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F229" s="18"/>
-      <c r="G229" s="16"/>
-      <c r="H229" s="2"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="16"/>
@@ -7170,17 +7484,17 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F231" s="18"/>
       <c r="G231" s="16"/>
@@ -7188,23 +7502,19 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C232" s="18"/>
-      <c r="D232" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="D232" s="13"/>
+      <c r="E232" s="14"/>
       <c r="F232" s="18"/>
       <c r="G232" s="16"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>273</v>
       </c>
@@ -7212,63 +7522,67 @@
         <v>198</v>
       </c>
       <c r="C233" s="18"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="14"/>
+      <c r="D233" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E233" s="1"/>
       <c r="F233" s="18"/>
-      <c r="G233" s="16"/>
-      <c r="H233" s="2"/>
+      <c r="G233" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H233" s="19" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E234" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F234" s="18"/>
-      <c r="G234" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H234" s="19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C235" s="18"/>
-      <c r="D235" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>113</v>
+      <c r="D235" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="F235" s="18"/>
-      <c r="G235" s="6"/>
-      <c r="H235" s="6"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="2"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C236" s="18"/>
       <c r="D236" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="16"/>
@@ -7276,17 +7590,17 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C237" s="18"/>
       <c r="D237" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="16"/>
@@ -7294,17 +7608,17 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F238" s="18"/>
       <c r="G238" s="16"/>
@@ -7312,23 +7626,19 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C239" s="18"/>
-      <c r="D239" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="D239" s="13"/>
+      <c r="E239" s="14"/>
       <c r="F239" s="18"/>
       <c r="G239" s="16"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>282</v>
       </c>
@@ -7336,17 +7646,19 @@
         <v>263</v>
       </c>
       <c r="C240" s="18"/>
-      <c r="D240" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="D240" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E240" s="1"/>
       <c r="F240" s="18"/>
-      <c r="G240" s="16"/>
-      <c r="H240" s="2"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G240" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H240" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>282</v>
       </c>
@@ -7354,15 +7666,15 @@
         <v>263</v>
       </c>
       <c r="C241" s="18"/>
-      <c r="D241" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>294</v>
+      <c r="D241" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F241" s="18"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="2"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
@@ -7373,10 +7685,10 @@
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F242" s="18"/>
       <c r="G242" s="16"/>
@@ -7391,10 +7703,10 @@
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F243" s="18"/>
       <c r="G243" s="16"/>
@@ -7409,10 +7721,10 @@
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="16"/>
@@ -7427,10 +7739,10 @@
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="16"/>
@@ -7445,10 +7757,10 @@
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="16"/>
@@ -7463,10 +7775,10 @@
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F247" s="18"/>
       <c r="G247" s="16"/>
@@ -7481,10 +7793,10 @@
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F248" s="18"/>
       <c r="G248" s="16"/>
@@ -7499,10 +7811,10 @@
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F249" s="18"/>
       <c r="G249" s="16"/>
@@ -7517,10 +7829,10 @@
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="2" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="F250" s="18"/>
       <c r="G250" s="16"/>
@@ -7534,61 +7846,65 @@
         <v>263</v>
       </c>
       <c r="C251" s="18"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="14"/>
+      <c r="D251" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="F251" s="18"/>
       <c r="G251" s="16"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C252" s="18"/>
-      <c r="D252" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E252" s="1"/>
+      <c r="D252" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="F252" s="18"/>
-      <c r="G252" s="6"/>
-      <c r="H252" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G252" s="16"/>
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C253" s="18"/>
-      <c r="D253" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>113</v>
+      <c r="D253" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="F253" s="18"/>
-      <c r="G253" s="6"/>
-      <c r="H253" s="19"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="2"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F254" s="18"/>
       <c r="G254" s="16"/>
@@ -7596,17 +7912,17 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F255" s="18"/>
       <c r="G255" s="16"/>
@@ -7614,17 +7930,17 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="2" t="s">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="F256" s="18"/>
       <c r="G256" s="16"/>
@@ -7632,23 +7948,19 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C257" s="18"/>
-      <c r="D257" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="D257" s="13"/>
+      <c r="E257" s="14"/>
       <c r="F257" s="18"/>
       <c r="G257" s="16"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>311</v>
       </c>
@@ -7656,229 +7968,245 @@
         <v>312</v>
       </c>
       <c r="C258" s="18"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="14"/>
+      <c r="D258" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E258" s="1"/>
       <c r="F258" s="18"/>
-      <c r="G258" s="16"/>
-      <c r="H258" s="2"/>
+      <c r="G258" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H258" s="26" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C259" s="18"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F259" s="18"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H259" s="19"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C260" s="18"/>
-      <c r="D260" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>113</v>
+      <c r="D260" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="F260" s="18"/>
-      <c r="G260" s="6"/>
-      <c r="H260" s="19"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="2"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C261" s="18"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
+      <c r="D261" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="F261" s="18"/>
       <c r="G261" s="16"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="C262" s="18"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
+      <c r="D262" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="F262" s="18"/>
-      <c r="G262" s="6"/>
-      <c r="H262" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G262" s="16"/>
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="C263" s="18"/>
-      <c r="D263" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>113</v>
+      <c r="D263" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F263" s="18"/>
-      <c r="G263" s="6"/>
-      <c r="H263" s="19"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="2"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="C264" s="18"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
+      <c r="D264" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="F264" s="18"/>
       <c r="G264" s="16"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C265" s="18"/>
-      <c r="D265" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E265" s="1"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="14"/>
       <c r="F265" s="18"/>
-      <c r="G265" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H265" s="19" t="s">
-        <v>482</v>
-      </c>
+      <c r="G265" s="16"/>
+      <c r="H265" s="2"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B266" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="E266" s="1"/>
       <c r="F266" s="18"/>
-      <c r="G266" s="6"/>
-      <c r="H266" s="19"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G266" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H266" s="26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C267" s="18"/>
-      <c r="D267" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>120</v>
+      <c r="D267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F267" s="18"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="2"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G267" s="6"/>
+      <c r="H267" s="19"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C268" s="18"/>
-      <c r="D268" s="12"/>
-      <c r="E268" s="12"/>
+      <c r="D268" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>643</v>
+      </c>
       <c r="F268" s="18"/>
       <c r="G268" s="16"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C269" s="18"/>
-      <c r="D269" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E269" s="1"/>
+      <c r="D269" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="F269" s="18"/>
-      <c r="G269" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H269" s="19" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G269" s="16"/>
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C270" s="18"/>
-      <c r="D270" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>113</v>
+      <c r="D270" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="F270" s="18"/>
-      <c r="G270" s="20"/>
-      <c r="H270" s="19"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="2"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="2" t="s">
-        <v>121</v>
+        <v>639</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>122</v>
+        <v>646</v>
       </c>
       <c r="F271" s="18"/>
       <c r="G271" s="16"/>
@@ -7886,17 +8214,17 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="2" t="s">
-        <v>123</v>
+        <v>640</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>124</v>
+        <v>647</v>
       </c>
       <c r="F272" s="18"/>
       <c r="G272" s="16"/>
@@ -7904,17 +8232,17 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C273" s="18"/>
       <c r="D273" s="2" t="s">
-        <v>125</v>
+        <v>641</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>126</v>
+        <v>648</v>
       </c>
       <c r="F273" s="18"/>
       <c r="G273" s="16"/>
@@ -7922,17 +8250,17 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C274" s="18"/>
       <c r="D274" s="2" t="s">
-        <v>127</v>
+        <v>642</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>128</v>
+        <v>649</v>
       </c>
       <c r="F274" s="18"/>
       <c r="G274" s="16"/>
@@ -7940,141 +8268,139 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C275" s="18"/>
-      <c r="D275" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
       <c r="F275" s="18"/>
       <c r="G275" s="16"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C276" s="18"/>
-      <c r="D276" s="13"/>
-      <c r="E276" s="14"/>
+      <c r="D276" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E276" s="1"/>
       <c r="F276" s="18"/>
-      <c r="G276" s="16"/>
-      <c r="H276" s="2"/>
+      <c r="G276" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H276" s="19" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E277" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F277" s="18"/>
-      <c r="G277" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H277" s="19" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G277" s="6"/>
+      <c r="H277" s="19"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="C278" s="18"/>
-      <c r="D278" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>113</v>
+      <c r="D278" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F278" s="18"/>
-      <c r="G278" s="20"/>
-      <c r="H278" s="19"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G278" s="16"/>
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="C279" s="18"/>
-      <c r="D279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
       <c r="F279" s="18"/>
       <c r="G279" s="16"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C280" s="18"/>
-      <c r="D280" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D280" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E280" s="1"/>
       <c r="F280" s="18"/>
-      <c r="G280" s="16"/>
-      <c r="H280" s="2"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G280" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H280" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C281" s="18"/>
-      <c r="D281" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>10</v>
+      <c r="D281" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F281" s="18"/>
-      <c r="G281" s="16"/>
-      <c r="H281" s="2"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="19"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="2" t="s">
-        <v>326</v>
+        <v>121</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="F282" s="18"/>
       <c r="G282" s="16"/>
@@ -8082,17 +8408,17 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="2" t="s">
-        <v>328</v>
+        <v>123</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="F283" s="18"/>
       <c r="G283" s="16"/>
@@ -8100,17 +8426,17 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="2" t="s">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="F284" s="18"/>
       <c r="G284" s="16"/>
@@ -8118,17 +8444,17 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="2" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="F285" s="18"/>
       <c r="G285" s="16"/>
@@ -8136,17 +8462,17 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="2" t="s">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="F286" s="18"/>
       <c r="G286" s="16"/>
@@ -8154,285 +8480,283 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C287" s="18"/>
-      <c r="D287" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="D287" s="13"/>
+      <c r="E287" s="14"/>
       <c r="F287" s="18"/>
       <c r="G287" s="16"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B288" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B288" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="C288" s="18"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="14"/>
+      <c r="D288" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E288" s="1"/>
       <c r="F288" s="18"/>
-      <c r="G288" s="16"/>
-      <c r="H288" s="2"/>
+      <c r="G288" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H288" s="19" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B289" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B289" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C289" s="18"/>
       <c r="D289" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E289" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F289" s="18"/>
-      <c r="G289" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H289" s="19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G289" s="20"/>
+      <c r="H289" s="19"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B290" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B290" s="10" t="s">
-        <v>421</v>
-      </c>
       <c r="C290" s="18"/>
-      <c r="D290" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>113</v>
+      <c r="D290" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F290" s="18"/>
-      <c r="G290" s="6"/>
-      <c r="H290" s="19"/>
-    </row>
-    <row r="291" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G290" s="16"/>
+      <c r="H290" s="2"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B291" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B291" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F291" s="18"/>
       <c r="G291" s="16"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B292" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B292" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>156</v>
+        <v>9</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F292" s="18"/>
       <c r="G292" s="16"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B293" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B293" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>158</v>
+        <v>325</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="16"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B294" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B294" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C294" s="18"/>
       <c r="D294" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>160</v>
+        <v>327</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="16"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B295" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C295" s="18"/>
       <c r="D295" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>162</v>
+        <v>329</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="F295" s="18"/>
       <c r="G295" s="16"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B296" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B296" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>164</v>
+        <v>331</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="16"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B297" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B297" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>166</v>
+        <v>333</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="16"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B298" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>168</v>
+        <v>335</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="F298" s="18"/>
       <c r="G298" s="16"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B299" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B299" s="10" t="s">
-        <v>421</v>
-      </c>
       <c r="C299" s="18"/>
-      <c r="D299" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D299" s="13"/>
+      <c r="E299" s="14"/>
       <c r="F299" s="18"/>
       <c r="G299" s="16"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C300" s="18"/>
-      <c r="D300" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="D300" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E300" s="1"/>
       <c r="F300" s="18"/>
-      <c r="G300" s="16"/>
-      <c r="H300" s="2"/>
-    </row>
-    <row r="301" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G300" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H300" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C301" s="18"/>
-      <c r="D301" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>174</v>
+      <c r="D301" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F301" s="18"/>
-      <c r="G301" s="16"/>
-      <c r="H301" s="2"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="19"/>
     </row>
     <row r="302" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F302" s="18"/>
       <c r="G302" s="16"/>
@@ -8440,17 +8764,17 @@
     </row>
     <row r="303" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F303" s="18"/>
       <c r="G303" s="16"/>
@@ -8458,17 +8782,17 @@
     </row>
     <row r="304" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="16"/>
@@ -8476,17 +8800,17 @@
     </row>
     <row r="305" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="16"/>
@@ -8494,17 +8818,17 @@
     </row>
     <row r="306" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F306" s="18"/>
       <c r="G306" s="16"/>
@@ -8512,798 +8836,824 @@
     </row>
     <row r="307" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F307" s="18"/>
       <c r="G307" s="16"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C308" s="18"/>
-      <c r="D308" s="13"/>
-      <c r="E308" s="14"/>
+      <c r="D308" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="F308" s="18"/>
       <c r="G308" s="16"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C309" s="18"/>
-      <c r="D309" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E309" s="1"/>
+      <c r="D309" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="F309" s="18"/>
-      <c r="G309" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H309" s="19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G309" s="16"/>
+      <c r="H309" s="2"/>
+    </row>
+    <row r="310" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C310" s="18"/>
-      <c r="D310" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>113</v>
+      <c r="D310" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="F310" s="18"/>
-      <c r="G310" s="6"/>
-      <c r="H310" s="19"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G310" s="16"/>
+      <c r="H310" s="2"/>
+    </row>
+    <row r="311" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F311" s="18"/>
       <c r="G311" s="16"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>3</v>
+        <v>173</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="F312" s="18"/>
       <c r="G312" s="16"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>5</v>
+        <v>175</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="F313" s="18"/>
       <c r="G313" s="16"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="F314" s="18"/>
       <c r="G314" s="16"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C315" s="18"/>
-      <c r="D315" s="12"/>
-      <c r="E315" s="12"/>
+      <c r="D315" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F315" s="18"/>
       <c r="G315" s="16"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C316" s="18"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
+      <c r="D316" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F316" s="18"/>
-      <c r="G316" s="6"/>
-      <c r="H316" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G316" s="16"/>
+      <c r="H316" s="2"/>
+    </row>
+    <row r="317" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C317" s="18"/>
-      <c r="D317" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>113</v>
+      <c r="D317" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F317" s="18"/>
-      <c r="G317" s="6"/>
-      <c r="H317" s="19"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G317" s="16"/>
+      <c r="H317" s="2"/>
+    </row>
+    <row r="318" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C318" s="18"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
+      <c r="D318" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="F318" s="18"/>
       <c r="G318" s="16"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="C319" s="18"/>
-      <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="14"/>
       <c r="F319" s="18"/>
-      <c r="G319" s="6"/>
-      <c r="H319" s="26" t="s">
-        <v>575</v>
-      </c>
+      <c r="G319" s="16"/>
+      <c r="H319" s="2"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E320" s="1"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H320" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C321" s="18"/>
+      <c r="D321" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E320" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F320" s="18"/>
-      <c r="G320" s="6"/>
-      <c r="H320" s="19"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A321" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B321" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C321" s="18"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
       <c r="F321" s="18"/>
-      <c r="G321" s="16"/>
-      <c r="H321" s="2"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G321" s="6"/>
+      <c r="H321" s="19"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="C322" s="18"/>
-      <c r="D322" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E322" s="1"/>
+      <c r="D322" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F322" s="18"/>
-      <c r="G322" s="6"/>
-      <c r="H322" s="19" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G322" s="16"/>
+      <c r="H322" s="2"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="C323" s="18"/>
-      <c r="D323" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>113</v>
+      <c r="D323" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F323" s="18"/>
-      <c r="G323" s="6"/>
-      <c r="H323" s="19"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G323" s="16"/>
+      <c r="H323" s="2"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="2" t="s">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="16"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="2" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>343</v>
+        <v>7</v>
       </c>
       <c r="F325" s="18"/>
       <c r="G325" s="16"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="C326" s="18"/>
-      <c r="D326" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
       <c r="F326" s="18"/>
       <c r="G326" s="16"/>
       <c r="H326" s="2"/>
-      <c r="I326" s="4"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C327" s="18"/>
-      <c r="D327" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="D327" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E327" s="1"/>
       <c r="F327" s="18"/>
-      <c r="G327" s="16"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="4"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G327" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H327" s="26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C328" s="18"/>
-      <c r="D328" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>349</v>
+      <c r="D328" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F328" s="18"/>
-      <c r="G328" s="16"/>
-      <c r="H328" s="2"/>
-      <c r="I328" s="4"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G328" s="6"/>
+      <c r="H328" s="19"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="2" t="s">
-        <v>350</v>
+        <v>651</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>351</v>
+        <v>666</v>
       </c>
       <c r="F329" s="18"/>
       <c r="G329" s="16"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="2" t="s">
-        <v>352</v>
+        <v>652</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>353</v>
+        <v>667</v>
       </c>
       <c r="F330" s="18"/>
       <c r="G330" s="16"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="2" t="s">
-        <v>354</v>
+        <v>653</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>355</v>
+        <v>668</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="16"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C332" s="18"/>
-      <c r="D332" s="13"/>
-      <c r="E332" s="14"/>
+      <c r="D332" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>669</v>
+      </c>
       <c r="F332" s="18"/>
       <c r="G332" s="16"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C333" s="18"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
+      <c r="D333" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="F333" s="18"/>
-      <c r="G333" s="6"/>
-      <c r="H333" s="26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G333" s="16"/>
+      <c r="H333" s="2"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C334" s="18"/>
-      <c r="D334" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>113</v>
+      <c r="D334" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="F334" s="18"/>
-      <c r="G334" s="6"/>
-      <c r="H334" s="19"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G334" s="16"/>
+      <c r="H334" s="2"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="C335" s="18"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
+      <c r="D335" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="F335" s="18"/>
       <c r="G335" s="16"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B336" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C336" s="18"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
+      <c r="D336" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="F336" s="18"/>
-      <c r="G336" s="6"/>
-      <c r="H336" s="19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G336" s="16"/>
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B337" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C337" s="18"/>
-      <c r="D337" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>113</v>
+      <c r="D337" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="F337" s="18"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="19"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G337" s="16"/>
+      <c r="H337" s="2"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="B338" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C338" s="18"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
+      <c r="D338" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="F338" s="18"/>
       <c r="G338" s="16"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C339" s="18"/>
-      <c r="D339" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E339" s="1"/>
+      <c r="D339" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="F339" s="18"/>
-      <c r="G339" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H339" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G339" s="16"/>
+      <c r="H339" s="2"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C340" s="18"/>
-      <c r="D340" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>113</v>
+      <c r="D340" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="F340" s="18"/>
-      <c r="G340" s="20"/>
-      <c r="H340" s="19"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G340" s="16"/>
+      <c r="H340" s="2"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="2" t="s">
-        <v>357</v>
+        <v>663</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>358</v>
+        <v>678</v>
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="16"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="2" t="s">
-        <v>359</v>
+        <v>664</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>360</v>
+        <v>679</v>
       </c>
       <c r="F342" s="18"/>
       <c r="G342" s="16"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="9" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C343" s="18"/>
       <c r="D343" s="2" t="s">
-        <v>361</v>
+        <v>665</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>362</v>
+        <v>680</v>
       </c>
       <c r="F343" s="18"/>
       <c r="G343" s="16"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C344" s="18"/>
-      <c r="D344" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
       <c r="F344" s="18"/>
       <c r="G344" s="16"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C345" s="18"/>
-      <c r="D345" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="D345" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E345" s="1"/>
       <c r="F345" s="18"/>
-      <c r="G345" s="16"/>
-      <c r="H345" s="2"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G345" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H345" s="19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C346" s="18"/>
-      <c r="D346" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>366</v>
+      <c r="D346" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F346" s="18"/>
-      <c r="G346" s="16"/>
-      <c r="H346" s="2"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G346" s="6"/>
+      <c r="H346" s="19"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="2" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="16"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="2" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="16"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="2" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="16"/>
       <c r="H349" s="2"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349" s="4"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="2" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="16"/>
       <c r="H350" s="2"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350" s="4"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="16"/>
       <c r="H351" s="2"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351" s="4"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="16"/>
@@ -9311,17 +9661,17 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="16"/>
@@ -9329,17 +9679,17 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C354" s="18"/>
       <c r="D354" s="2" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="16"/>
@@ -9347,125 +9697,117 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C355" s="18"/>
-      <c r="D355" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D355" s="13"/>
+      <c r="E355" s="14"/>
       <c r="F355" s="18"/>
       <c r="G355" s="16"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C356" s="18"/>
-      <c r="D356" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
       <c r="F356" s="18"/>
-      <c r="G356" s="16"/>
-      <c r="H356" s="2"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G356" s="6"/>
+      <c r="H356" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C357" s="18"/>
-      <c r="D357" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>385</v>
+      <c r="D357" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F357" s="18"/>
-      <c r="G357" s="16"/>
-      <c r="H357" s="2"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="19"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C358" s="18"/>
-      <c r="D358" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
       <c r="F358" s="18"/>
       <c r="G358" s="16"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>263</v>
       </c>
       <c r="C359" s="18"/>
-      <c r="D359" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="D359" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E359" s="1"/>
       <c r="F359" s="18"/>
-      <c r="G359" s="16"/>
-      <c r="H359" s="2"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G359" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H359" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>263</v>
       </c>
       <c r="C360" s="18"/>
-      <c r="D360" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>389</v>
+      <c r="D360" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F360" s="18"/>
-      <c r="G360" s="16"/>
-      <c r="H360" s="2"/>
+      <c r="G360" s="20"/>
+      <c r="H360" s="19"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>263</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="2" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="16"/>
@@ -9473,17 +9815,17 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>263</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="2" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="16"/>
@@ -9491,69 +9833,71 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B363" s="10" t="s">
         <v>263</v>
       </c>
       <c r="C363" s="18"/>
-      <c r="D363" s="13"/>
-      <c r="E363" s="14"/>
+      <c r="D363" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="F363" s="18"/>
       <c r="G363" s="16"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C364" s="18"/>
-      <c r="D364" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E364" s="1"/>
+      <c r="D364" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F364" s="18"/>
-      <c r="G364" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H364" s="19" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G364" s="16"/>
+      <c r="H364" s="2"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C365" s="18"/>
-      <c r="D365" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>113</v>
+      <c r="D365" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="F365" s="18"/>
-      <c r="G365" s="20"/>
-      <c r="H365" s="19"/>
+      <c r="G365" s="16"/>
+      <c r="H365" s="2"/>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="2" t="s">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="16"/>
@@ -9561,17 +9905,17 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="2" t="s">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="16"/>
@@ -9579,17 +9923,17 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="2" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="16"/>
@@ -9597,17 +9941,17 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="2" t="s">
-        <v>108</v>
+        <v>368</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="16"/>
@@ -9615,85 +9959,89 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>111</v>
+        <v>370</v>
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="16"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C371" s="18"/>
-      <c r="D371" s="12"/>
-      <c r="E371" s="12"/>
+      <c r="D371" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="F371" s="18"/>
       <c r="G371" s="16"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C372" s="18"/>
-      <c r="D372" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E372" s="1"/>
+      <c r="D372" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="F372" s="18"/>
-      <c r="G372" s="6"/>
-      <c r="H372" s="19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G372" s="16"/>
+      <c r="H372" s="2"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C373" s="18"/>
-      <c r="D373" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>113</v>
+      <c r="D373" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="F373" s="18"/>
-      <c r="G373" s="6"/>
-      <c r="H373" s="19"/>
+      <c r="G373" s="16"/>
+      <c r="H373" s="2"/>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="16"/>
@@ -9701,17 +10049,17 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="16"/>
@@ -9719,17 +10067,17 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="2" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="16"/>
@@ -9737,17 +10085,17 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="16"/>
@@ -9755,67 +10103,71 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C378" s="18"/>
-      <c r="D378" s="13"/>
-      <c r="E378" s="14"/>
+      <c r="D378" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F378" s="18"/>
       <c r="G378" s="16"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C379" s="18"/>
-      <c r="D379" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E379" s="1"/>
+      <c r="D379" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="F379" s="18"/>
-      <c r="G379" s="6"/>
-      <c r="H379" s="19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G379" s="16"/>
+      <c r="H379" s="2"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C380" s="18"/>
-      <c r="D380" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>113</v>
+      <c r="D380" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="F380" s="18"/>
-      <c r="G380" s="6"/>
-      <c r="H380" s="19"/>
+      <c r="G380" s="16"/>
+      <c r="H380" s="2"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F381" s="18"/>
       <c r="G381" s="16"/>
@@ -9823,17 +10175,17 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F382" s="18"/>
       <c r="G382" s="16"/>
@@ -9841,164 +10193,514 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="9" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C383" s="18"/>
-      <c r="D383" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E383" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="D383" s="13"/>
+      <c r="E383" s="14"/>
       <c r="F383" s="18"/>
       <c r="G383" s="16"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B384" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C384" s="18"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
+      <c r="D384" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E384" s="1"/>
       <c r="F384" s="18"/>
-      <c r="G384" s="16"/>
-      <c r="H384" s="2"/>
+      <c r="G384" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H384" s="19" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="9"/>
-      <c r="B385" s="10"/>
+      <c r="A385" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C385" s="18"/>
       <c r="D385" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E385" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F385" s="18"/>
-      <c r="G385" s="6"/>
+      <c r="G385" s="20"/>
       <c r="H385" s="19"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="9"/>
-      <c r="B386" s="10"/>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C386" s="18"/>
-      <c r="D386" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>113</v>
+      <c r="D386" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F386" s="18"/>
-      <c r="G386" s="6"/>
-      <c r="H386" s="19"/>
+      <c r="G386" s="16"/>
+      <c r="H386" s="2"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A387" s="9"/>
-      <c r="B387" s="10"/>
+      <c r="A387" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B387" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C387" s="18"/>
       <c r="D387" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F387" s="18"/>
       <c r="G387" s="16"/>
       <c r="H387" s="2"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" s="9"/>
-      <c r="B388" s="10"/>
+      <c r="A388" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C388" s="18"/>
       <c r="D388" s="2" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F388" s="18"/>
       <c r="G388" s="16"/>
       <c r="H388" s="2"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="9"/>
-      <c r="B389" s="10"/>
+      <c r="A389" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C389" s="18"/>
       <c r="D389" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F389" s="18"/>
       <c r="G389" s="16"/>
       <c r="H389" s="2"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390" s="9"/>
-      <c r="B390" s="10"/>
+      <c r="A390" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C390" s="18"/>
       <c r="D390" s="2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="F390" s="18"/>
       <c r="G390" s="16"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="9"/>
-      <c r="B391" s="10"/>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C391" s="18"/>
-      <c r="D391" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
       <c r="F391" s="18"/>
       <c r="G391" s="16"/>
       <c r="H391" s="2"/>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="9"/>
-      <c r="B392" s="10"/>
+      <c r="A392" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="C392" s="18"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
+      <c r="D392" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E392" s="1"/>
       <c r="F392" s="18"/>
-      <c r="G392" s="16"/>
-      <c r="H392" s="2"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C393" s="18"/>
+      <c r="D393" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F393" s="18"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="19"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C394" s="18"/>
+      <c r="D394" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F394" s="18"/>
+      <c r="G394" s="16"/>
+      <c r="H394" s="2"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C395" s="18"/>
+      <c r="D395" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F395" s="18"/>
+      <c r="G395" s="16"/>
+      <c r="H395" s="2"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C396" s="18"/>
+      <c r="D396" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F396" s="18"/>
+      <c r="G396" s="16"/>
+      <c r="H396" s="2"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C397" s="18"/>
+      <c r="D397" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F397" s="18"/>
+      <c r="G397" s="16"/>
+      <c r="H397" s="2"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C398" s="18"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="14"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="16"/>
+      <c r="H398" s="2"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C399" s="18"/>
+      <c r="D399" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E399" s="1"/>
+      <c r="F399" s="18"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C400" s="18"/>
+      <c r="D400" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F400" s="18"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="19"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C401" s="18"/>
+      <c r="D401" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F401" s="18"/>
+      <c r="G401" s="16"/>
+      <c r="H401" s="2"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C402" s="18"/>
+      <c r="D402" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F402" s="18"/>
+      <c r="G402" s="16"/>
+      <c r="H402" s="2"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C403" s="18"/>
+      <c r="D403" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F403" s="18"/>
+      <c r="G403" s="16"/>
+      <c r="H403" s="2"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C404" s="18"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="16"/>
+      <c r="H404" s="2"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="9"/>
+      <c r="B405" s="10"/>
+      <c r="C405" s="18"/>
+      <c r="D405" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E405" s="1"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="19"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" s="9"/>
+      <c r="B406" s="10"/>
+      <c r="C406" s="18"/>
+      <c r="D406" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F406" s="18"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="19"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407" s="9"/>
+      <c r="B407" s="10"/>
+      <c r="C407" s="18"/>
+      <c r="D407" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F407" s="18"/>
+      <c r="G407" s="16"/>
+      <c r="H407" s="2"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" s="9"/>
+      <c r="B408" s="10"/>
+      <c r="C408" s="18"/>
+      <c r="D408" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F408" s="18"/>
+      <c r="G408" s="16"/>
+      <c r="H408" s="2"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409" s="9"/>
+      <c r="B409" s="10"/>
+      <c r="C409" s="18"/>
+      <c r="D409" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F409" s="18"/>
+      <c r="G409" s="16"/>
+      <c r="H409" s="2"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410" s="9"/>
+      <c r="B410" s="10"/>
+      <c r="C410" s="18"/>
+      <c r="D410" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F410" s="18"/>
+      <c r="G410" s="16"/>
+      <c r="H410" s="2"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411" s="9"/>
+      <c r="B411" s="10"/>
+      <c r="C411" s="18"/>
+      <c r="D411" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F411" s="18"/>
+      <c r="G411" s="16"/>
+      <c r="H411" s="2"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="9"/>
+      <c r="B412" s="10"/>
+      <c r="C412" s="18"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="12"/>
+      <c r="F412" s="18"/>
+      <c r="G412" s="16"/>
+      <c r="H412" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E417">
-    <sortCondition ref="A1:A417"/>
-    <sortCondition ref="B1:B417"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E437">
+    <sortCondition ref="A1:A437"/>
+    <sortCondition ref="B1:B437"/>
   </sortState>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D244:D246" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D250:D252" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E298:E301 E241:E246" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E309:E312 E247:E252" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
       <formula1>40</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D312" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
-    <hyperlink ref="D313" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
-    <hyperlink ref="D314" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
-    <hyperlink ref="D387" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82639&amp;ns=ncit" xr:uid="{E183E1A4-04D7-E24E-8A31-133F938F0D28}"/>
-    <hyperlink ref="D388" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82637&amp;ns=ncit" xr:uid="{1598C15F-5688-1C49-8C1A-DAB7E2F8D613}"/>
-    <hyperlink ref="D389" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C142568&amp;ns=ncit" xr:uid="{D16C9CD1-5E6A-6541-BB1C-7456DD2BAC6F}"/>
-    <hyperlink ref="D390" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82640&amp;ns=ncit" xr:uid="{9A50C8E0-449D-AE4E-B910-5C25A0F1DDCF}"/>
-    <hyperlink ref="D391" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82638&amp;ns=ncit" xr:uid="{3C18698C-B1AE-FA4B-9520-3CEE14AE4A74}"/>
+    <hyperlink ref="D323" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
+    <hyperlink ref="D324" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
+    <hyperlink ref="D325" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
+    <hyperlink ref="D407" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82639&amp;ns=ncit" xr:uid="{E183E1A4-04D7-E24E-8A31-133F938F0D28}"/>
+    <hyperlink ref="D408" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82637&amp;ns=ncit" xr:uid="{1598C15F-5688-1C49-8C1A-DAB7E2F8D613}"/>
+    <hyperlink ref="D409" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C142568&amp;ns=ncit" xr:uid="{D16C9CD1-5E6A-6541-BB1C-7456DD2BAC6F}"/>
+    <hyperlink ref="D410" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82640&amp;ns=ncit" xr:uid="{9A50C8E0-449D-AE4E-B910-5C25A0F1DDCF}"/>
+    <hyperlink ref="D411" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82638&amp;ns=ncit" xr:uid="{3C18698C-B1AE-FA4B-9520-3CEE14AE4A74}"/>
     <hyperlink ref="D120" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
     <hyperlink ref="D121" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
     <hyperlink ref="D122" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
@@ -10041,13 +10743,13 @@
     <hyperlink ref="D105" r:id="rId48" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
     <hyperlink ref="D106" r:id="rId49" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
     <hyperlink ref="D107" r:id="rId50" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
-    <hyperlink ref="D366" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
-    <hyperlink ref="D367" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
-    <hyperlink ref="D368" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
-    <hyperlink ref="D369" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
-    <hyperlink ref="D370" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
-    <hyperlink ref="H289" r:id="rId56" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
-    <hyperlink ref="H364" r:id="rId57" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
+    <hyperlink ref="D386" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
+    <hyperlink ref="D387" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
+    <hyperlink ref="D388" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
+    <hyperlink ref="D389" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
+    <hyperlink ref="D390" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
+    <hyperlink ref="H300" r:id="rId56" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
+    <hyperlink ref="H384" r:id="rId57" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
     <hyperlink ref="H109" r:id="rId58" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
     <hyperlink ref="D34" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C157352" xr:uid="{7714E1A1-7F57-1F45-8626-96AC1D085731}"/>
     <hyperlink ref="D35" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171525" xr:uid="{13669423-9FB2-DD4E-8C39-68B1F003F7CB}"/>
@@ -10099,60 +10801,60 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -10160,18 +10862,18 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>17</v>
@@ -10188,18 +10890,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>15</v>
@@ -10216,18 +10918,18 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
@@ -10244,18 +10946,18 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>19</v>
@@ -10272,18 +10974,18 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>23</v>
@@ -10302,82 +11004,82 @@
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -10398,37 +11100,37 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -10443,118 +11145,118 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -10622,17 +11324,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="332ebed6bf1f21540ac8ed4139e2af2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9643d50ff51ef4e8f7efba950a0a6c6b" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -10839,6 +11530,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1323A5E8-4C72-41C9-A579-AD9E7BE66D1F}">
   <ds:schemaRefs>
@@ -10848,23 +11550,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E47AC27-AEA3-4648-B7A2-5748F4E8871D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAEC375B-DC95-4A5A-BA67-B31DCC6A86AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10881,4 +11566,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E47AC27-AEA3-4648-B7A2-5748F4E8871D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ct.xlsx
+++ b/ct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/infographics/usdm_ct_infographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A18DEF-1094-E040-9FA0-D441BD47C5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0172674F-A3B0-9648-A475-3515FABE0679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17400" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="703">
   <si>
     <t>C16084</t>
   </si>
@@ -1254,27 +1254,12 @@
     <t>C201356</t>
   </si>
   <si>
-    <t>After</t>
-  </si>
-  <si>
     <t>C201357</t>
   </si>
   <si>
-    <t>Before</t>
-  </si>
-  <si>
     <t>C201358</t>
   </si>
   <si>
-    <t>Fixed Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C201265 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C201264 - </t>
-  </si>
-  <si>
     <t>studyType</t>
   </si>
   <si>
@@ -2086,6 +2071,81 @@
   </si>
   <si>
     <t>C207417 - CDISC DDF Study Intervention Role Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C99078 - CDISC SDTM Intervention Type Terminology</t>
+  </si>
+  <si>
+    <t>C15238</t>
+  </si>
+  <si>
+    <t>C307</t>
+  </si>
+  <si>
+    <t>C15313</t>
+  </si>
+  <si>
+    <t>C16830</t>
+  </si>
+  <si>
+    <t>C1909</t>
+  </si>
+  <si>
+    <t>C54696</t>
+  </si>
+  <si>
+    <t>C1505</t>
+  </si>
+  <si>
+    <t>C15184</t>
+  </si>
+  <si>
+    <t>C98769</t>
+  </si>
+  <si>
+    <t>Gene Therapy</t>
+  </si>
+  <si>
+    <t>Biological Agent</t>
+  </si>
+  <si>
+    <t>Radiation Therapy</t>
+  </si>
+  <si>
+    <t>Medical Device</t>
+  </si>
+  <si>
+    <t>Diagnostic Procedure</t>
+  </si>
+  <si>
+    <t>Pharmacologic Substance</t>
+  </si>
+  <si>
+    <t>Combination Product</t>
+  </si>
+  <si>
+    <t>Dietary Supplement</t>
+  </si>
+  <si>
+    <t>Behavioral Intervention</t>
+  </si>
+  <si>
+    <t>Physical Medical Procedure</t>
+  </si>
+  <si>
+    <t>C201265 - CDISC DDF Timing Relative To From Value Set Terminology</t>
+  </si>
+  <si>
+    <t>C201264 - CDISC DDF Timing Type Value Set Terminology</t>
+  </si>
+  <si>
+    <t>After Timing Type</t>
+  </si>
+  <si>
+    <t>Before Timing Type</t>
+  </si>
+  <si>
+    <t>Fixed Reference Timing Type</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2360,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2355,7 +2415,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2410,7 +2470,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2465,7 +2525,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2520,7 +2580,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2575,7 +2635,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2630,7 +2690,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2685,7 +2745,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2740,7 +2800,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2795,7 +2855,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2850,7 +2910,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2905,7 +2965,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2960,7 +3020,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3015,7 +3075,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3386,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94479E8-6944-C345-8953-69A0AF0635D7}">
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E350" sqref="E350"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3410,19 +3470,19 @@
         <v>188</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18"/>
       <c r="G1" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>446</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,7 +3490,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
@@ -3448,11 +3508,11 @@
         <v>188</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="18"/>
@@ -3464,7 +3524,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2"/>
@@ -3482,15 +3542,15 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3523,7 +3583,7 @@
         <v>190</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="16"/>
@@ -3541,7 +3601,7 @@
         <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="16"/>
@@ -3570,15 +3630,15 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="18"/>
       <c r="G10" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3658,15 +3718,15 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="18"/>
       <c r="G15" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3721,30 +3781,30 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="18"/>
       <c r="G19" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="1" t="s">
@@ -3759,14 +3819,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="18"/>
@@ -3775,10 +3835,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="2"/>
@@ -3789,30 +3849,30 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="18"/>
       <c r="G23" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="1" t="s">
@@ -3827,14 +3887,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="18"/>
@@ -3843,10 +3903,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="2"/>
@@ -3857,30 +3917,30 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="18"/>
       <c r="G27" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="1" t="s">
@@ -3895,17 +3955,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16"/>
@@ -3913,17 +3973,17 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16"/>
@@ -3931,10 +3991,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="2"/>
@@ -3948,19 +4008,19 @@
         <v>201</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="18"/>
       <c r="G32" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3968,7 +4028,7 @@
         <v>201</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
@@ -3986,14 +4046,14 @@
         <v>201</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="16"/>
@@ -4004,14 +4064,14 @@
         <v>201</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="16"/>
@@ -4022,14 +4082,14 @@
         <v>201</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="16"/>
@@ -4040,14 +4100,14 @@
         <v>201</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="16"/>
@@ -4058,14 +4118,14 @@
         <v>201</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="16"/>
@@ -4076,14 +4136,14 @@
         <v>201</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="16"/>
@@ -4094,14 +4154,14 @@
         <v>201</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="16"/>
@@ -4112,14 +4172,14 @@
         <v>201</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="16"/>
@@ -4130,14 +4190,14 @@
         <v>201</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="16"/>
@@ -4148,7 +4208,7 @@
         <v>201</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="2"/>
@@ -4162,19 +4222,19 @@
         <v>201</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="18"/>
       <c r="G44" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,7 +4242,7 @@
         <v>201</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="1" t="s">
@@ -4200,14 +4260,14 @@
         <v>201</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="16"/>
@@ -4218,14 +4278,14 @@
         <v>201</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="16"/>
@@ -4236,14 +4296,14 @@
         <v>201</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="16"/>
@@ -4254,14 +4314,14 @@
         <v>201</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="16"/>
@@ -4272,7 +4332,7 @@
         <v>201</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="2" t="s">
@@ -4290,14 +4350,14 @@
         <v>201</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="16"/>
@@ -4308,14 +4368,14 @@
         <v>201</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="16"/>
@@ -4326,14 +4386,14 @@
         <v>201</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="16"/>
@@ -4344,14 +4404,14 @@
         <v>201</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="16"/>
@@ -4362,14 +4422,14 @@
         <v>201</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="16"/>
@@ -4380,14 +4440,14 @@
         <v>201</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="16"/>
@@ -4398,14 +4458,14 @@
         <v>201</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="16"/>
@@ -4416,14 +4476,14 @@
         <v>201</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="16"/>
@@ -4434,14 +4494,14 @@
         <v>201</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="16"/>
@@ -4452,14 +4512,14 @@
         <v>201</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="16"/>
@@ -4470,14 +4530,14 @@
         <v>201</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="16"/>
@@ -4488,14 +4548,14 @@
         <v>201</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="16"/>
@@ -4506,14 +4566,14 @@
         <v>201</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="16"/>
@@ -4524,7 +4584,7 @@
         <v>201</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="2"/>
@@ -4542,15 +4602,15 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="18"/>
       <c r="G65" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4612,15 +4672,15 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="18"/>
       <c r="G69" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4718,15 +4778,15 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="18"/>
       <c r="G75" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,15 +4884,15 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="18"/>
       <c r="G81" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4923,30 +4983,30 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="18"/>
       <c r="G87" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="1" t="s">
@@ -4961,17 +5021,17 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="16"/>
@@ -4979,17 +5039,17 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="16"/>
@@ -4997,17 +5057,17 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="16"/>
@@ -5015,17 +5075,17 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="16"/>
@@ -5033,17 +5093,17 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="16"/>
@@ -5051,10 +5111,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="2"/>
@@ -5065,10 +5125,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="1" t="s">
@@ -5077,18 +5137,18 @@
       <c r="E95" s="1"/>
       <c r="F95" s="18"/>
       <c r="G95" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="5" t="s">
@@ -5103,10 +5163,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="2" t="s">
@@ -5121,10 +5181,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="2" t="s">
@@ -5139,10 +5199,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="2" t="s">
@@ -5157,10 +5217,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="2" t="s">
@@ -5175,10 +5235,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="2" t="s">
@@ -5193,10 +5253,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="2" t="s">
@@ -5211,10 +5271,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="2" t="s">
@@ -5229,10 +5289,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="2" t="s">
@@ -5247,10 +5307,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="2" t="s">
@@ -5265,10 +5325,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="2" t="s">
@@ -5283,10 +5343,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="2" t="s">
@@ -5301,10 +5361,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="12"/>
@@ -5315,10 +5375,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="1" t="s">
@@ -5327,18 +5387,18 @@
       <c r="E109" s="1"/>
       <c r="F109" s="18"/>
       <c r="G109" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="1" t="s">
@@ -5353,17 +5413,17 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="2" t="s">
-        <v>492</v>
+        <v>16</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>493</v>
+        <v>17</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="16"/>
@@ -5371,17 +5431,17 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="16"/>
@@ -5389,17 +5449,17 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="16"/>
@@ -5407,17 +5467,17 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="16"/>
@@ -5425,17 +5485,17 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="16"/>
@@ -5443,87 +5503,87 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C116" s="18"/>
-      <c r="D116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="18"/>
       <c r="G116" s="16"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="D117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="18"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="2"/>
+      <c r="G117" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F118" s="18"/>
-      <c r="G118" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H118" s="22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>113</v>
+      <c r="D119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F119" s="18"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F120" s="18"/>
       <c r="G120" s="16"/>
@@ -5531,17 +5591,17 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F121" s="18"/>
       <c r="G121" s="16"/>
@@ -5549,17 +5609,17 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F122" s="18"/>
       <c r="G122" s="16"/>
@@ -5567,17 +5627,17 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="16"/>
@@ -5585,17 +5645,17 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="16"/>
@@ -5603,17 +5663,17 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="16"/>
@@ -5621,17 +5681,17 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F126" s="18"/>
       <c r="G126" s="16"/>
@@ -5639,17 +5699,17 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="16"/>
@@ -5657,17 +5717,17 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="16"/>
@@ -5675,17 +5735,17 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="16"/>
@@ -5693,17 +5753,17 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="16"/>
@@ -5711,17 +5771,17 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="16"/>
@@ -5729,17 +5789,17 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="16"/>
@@ -5747,17 +5807,17 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="16"/>
@@ -5765,17 +5825,17 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F134" s="18"/>
       <c r="G134" s="16"/>
@@ -5783,17 +5843,17 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F135" s="18"/>
       <c r="G135" s="16"/>
@@ -5801,17 +5861,17 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="16"/>
@@ -5819,17 +5879,17 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="16"/>
@@ -5837,17 +5897,17 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="16"/>
@@ -5855,17 +5915,17 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="16"/>
@@ -5873,17 +5933,17 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F140" s="18"/>
       <c r="G140" s="16"/>
@@ -5891,17 +5951,17 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="16"/>
@@ -5909,17 +5969,17 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="16"/>
@@ -5927,17 +5987,17 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F143" s="18"/>
       <c r="G143" s="16"/>
@@ -5945,17 +6005,17 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F144" s="18"/>
       <c r="G144" s="16"/>
@@ -5963,17 +6023,17 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F145" s="18"/>
       <c r="G145" s="16"/>
@@ -5981,17 +6041,17 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F146" s="18"/>
       <c r="G146" s="16"/>
@@ -5999,17 +6059,17 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F147" s="18"/>
       <c r="G147" s="16"/>
@@ -6017,17 +6077,17 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="16"/>
@@ -6035,53 +6095,55 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="16"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="18"/>
       <c r="G150" s="16"/>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="D151" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E151" s="1"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="2"/>
+      <c r="G151" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H151" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
@@ -6092,18 +6154,16 @@
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E152" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F152" s="18"/>
-      <c r="G152" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H152" s="26" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="6"/>
+      <c r="H152" s="19"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>226</v>
       </c>
@@ -6111,15 +6171,15 @@
         <v>192</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>113</v>
+      <c r="D153" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="F153" s="18"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="19"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
@@ -6130,10 +6190,10 @@
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="16"/>
@@ -6147,28 +6207,30 @@
         <v>192</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="D155" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="D155" s="13"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="18"/>
-      <c r="G155" s="16"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="14"/>
+      <c r="D156" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E156" s="1"/>
       <c r="F156" s="18"/>
-      <c r="H156" s="2"/>
+      <c r="G156" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H156" s="26" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
@@ -6179,18 +6241,16 @@
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E157" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F157" s="18"/>
-      <c r="G157" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H157" s="26" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="6"/>
+      <c r="H157" s="19"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>227</v>
       </c>
@@ -6198,15 +6258,15 @@
         <v>198</v>
       </c>
       <c r="C158" s="18"/>
-      <c r="D158" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>113</v>
+      <c r="D158" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="F158" s="18"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="19"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
@@ -6217,10 +6277,10 @@
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="16"/>
@@ -6235,10 +6295,10 @@
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="16"/>
@@ -6253,10 +6313,10 @@
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="16"/>
@@ -6270,29 +6330,31 @@
         <v>198</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="D162" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D162" s="13"/>
+      <c r="E162" s="14"/>
       <c r="F162" s="18"/>
       <c r="G162" s="16"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="14"/>
+      <c r="D163" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E163" s="1"/>
       <c r="F163" s="18"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="2"/>
+      <c r="G163" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H163" s="26" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
@@ -6303,18 +6365,16 @@
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E164" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F164" s="18"/>
-      <c r="G164" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H164" s="26" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G164" s="6"/>
+      <c r="H164" s="19"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>236</v>
       </c>
@@ -6322,15 +6382,15 @@
         <v>205</v>
       </c>
       <c r="C165" s="18"/>
-      <c r="D165" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>113</v>
+      <c r="D165" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="F165" s="18"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="19"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
@@ -6341,10 +6401,10 @@
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="16"/>
@@ -6359,10 +6419,10 @@
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F167" s="18"/>
       <c r="G167" s="16"/>
@@ -6376,81 +6436,81 @@
         <v>205</v>
       </c>
       <c r="C168" s="18"/>
-      <c r="D168" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="14"/>
       <c r="F168" s="18"/>
       <c r="G168" s="16"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>205</v>
+        <v>420</v>
       </c>
       <c r="C169" s="18"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="14"/>
+      <c r="D169" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E169" s="1"/>
       <c r="F169" s="18"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="2"/>
+      <c r="G169" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H169" s="26" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E170" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F170" s="18"/>
-      <c r="G170" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H170" s="26" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G170" s="6"/>
+      <c r="H170" s="19"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C171" s="18"/>
-      <c r="D171" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>113</v>
+      <c r="D171" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="F171" s="18"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="19"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="2"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F172" s="18"/>
       <c r="G172" s="16"/>
@@ -6461,14 +6521,14 @@
         <v>243</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F173" s="18"/>
       <c r="G173" s="16"/>
@@ -6479,14 +6539,14 @@
         <v>243</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F174" s="18"/>
       <c r="G174" s="16"/>
@@ -6497,14 +6557,14 @@
         <v>243</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C175" s="18"/>
       <c r="D175" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F175" s="18"/>
       <c r="G175" s="16"/>
@@ -6515,14 +6575,14 @@
         <v>243</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C176" s="18"/>
       <c r="D176" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F176" s="18"/>
       <c r="G176" s="16"/>
@@ -6533,84 +6593,84 @@
         <v>243</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C177" s="18"/>
-      <c r="D177" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>599</v>
-      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="18"/>
       <c r="G177" s="16"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="D178" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E178" s="1"/>
       <c r="F178" s="18"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="2"/>
+      <c r="G178" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H178" s="26" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="E179" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F179" s="18"/>
-      <c r="G179" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H179" s="26" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G179" s="6"/>
+      <c r="H179" s="19"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>113</v>
+      <c r="D180" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="F180" s="18"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="19"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="2"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F181" s="18"/>
       <c r="G181" s="16"/>
@@ -6621,32 +6681,34 @@
         <v>243</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>605</v>
-      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
       <c r="F182" s="18"/>
       <c r="G182" s="16"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>426</v>
+        <v>244</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="D183" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E183" s="1"/>
       <c r="F183" s="18"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="2"/>
+      <c r="G183" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H183" s="26" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
@@ -6657,18 +6719,16 @@
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E184" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F184" s="18"/>
-      <c r="G184" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H184" s="26" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G184" s="6"/>
+      <c r="H184" s="19"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>243</v>
       </c>
@@ -6676,15 +6736,15 @@
         <v>244</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>113</v>
+      <c r="D185" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F185" s="18"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="19"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="2"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
@@ -6695,10 +6755,10 @@
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F186" s="18"/>
       <c r="G186" s="16"/>
@@ -6713,10 +6773,10 @@
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F187" s="18"/>
       <c r="G187" s="16"/>
@@ -6731,10 +6791,10 @@
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F188" s="18"/>
       <c r="G188" s="16"/>
@@ -6749,10 +6809,10 @@
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F189" s="18"/>
       <c r="G189" s="16"/>
@@ -6767,10 +6827,10 @@
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="2" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F190" s="18"/>
       <c r="G190" s="16"/>
@@ -6785,10 +6845,10 @@
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="2" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F191" s="18"/>
       <c r="G191" s="16"/>
@@ -6803,10 +6863,10 @@
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F192" s="18"/>
       <c r="G192" s="16"/>
@@ -6820,81 +6880,81 @@
         <v>244</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="D193" s="13"/>
+      <c r="E193" s="14"/>
       <c r="F193" s="18"/>
       <c r="G193" s="16"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="14"/>
+      <c r="D194" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E194" s="1"/>
       <c r="F194" s="18"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="2"/>
+      <c r="G194" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H194" s="26" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E195" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F195" s="18"/>
-      <c r="G195" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H195" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G195" s="6"/>
+      <c r="H195" s="19"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>113</v>
+      <c r="D196" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="F196" s="18"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="19"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F197" s="18"/>
       <c r="G197" s="16"/>
@@ -6905,14 +6965,14 @@
         <v>243</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F198" s="18"/>
       <c r="G198" s="16"/>
@@ -6923,32 +6983,34 @@
         <v>243</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C199" s="18"/>
-      <c r="D199" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>615</v>
-      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="18"/>
       <c r="G199" s="16"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>427</v>
+        <v>198</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
+      <c r="D200" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E200" s="1"/>
       <c r="F200" s="18"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="2"/>
+      <c r="G200" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H200" s="19" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
@@ -6959,18 +7021,16 @@
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E201" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F201" s="18"/>
-      <c r="G201" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H201" s="19" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>260</v>
       </c>
@@ -6978,15 +7038,15 @@
         <v>198</v>
       </c>
       <c r="C202" s="18"/>
-      <c r="D202" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>113</v>
+      <c r="D202" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F202" s="18"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="2"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
@@ -6997,10 +7057,10 @@
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="16"/>
@@ -7015,10 +7075,10 @@
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="16"/>
@@ -7033,10 +7093,10 @@
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F205" s="18"/>
       <c r="G205" s="16"/>
@@ -7051,10 +7111,10 @@
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="16"/>
@@ -7069,10 +7129,10 @@
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F207" s="18"/>
       <c r="G207" s="16"/>
@@ -7087,10 +7147,10 @@
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F208" s="18"/>
       <c r="G208" s="16"/>
@@ -7105,10 +7165,10 @@
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="16"/>
@@ -7123,10 +7183,10 @@
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F210" s="18"/>
       <c r="G210" s="16"/>
@@ -7140,81 +7200,81 @@
         <v>198</v>
       </c>
       <c r="C211" s="18"/>
-      <c r="D211" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="D211" s="13"/>
+      <c r="E211" s="14"/>
       <c r="F211" s="18"/>
       <c r="G211" s="16"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>260</v>
+        <v>423</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="14"/>
+      <c r="D212" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E212" s="1"/>
       <c r="F212" s="18"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="2"/>
+      <c r="G212" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H212" s="26" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C213" s="18"/>
       <c r="D213" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F213" s="18"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="19"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C214" s="18"/>
+      <c r="D214" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H213" s="26" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C214" s="18"/>
-      <c r="D214" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F214" s="18"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="19"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F215" s="18"/>
       <c r="G215" s="16"/>
@@ -7222,17 +7282,17 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F216" s="18"/>
       <c r="G216" s="16"/>
@@ -7240,35 +7300,37 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C217" s="18"/>
-      <c r="D217" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>623</v>
-      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
       <c r="F217" s="18"/>
       <c r="G217" s="16"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>428</v>
+        <v>262</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>429</v>
+        <v>263</v>
       </c>
       <c r="C218" s="18"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="D218" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E218" s="1"/>
       <c r="F218" s="18"/>
-      <c r="G218" s="16"/>
-      <c r="H218" s="2"/>
+      <c r="G218" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H218" s="26" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
@@ -7279,18 +7341,16 @@
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E219" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F219" s="18"/>
-      <c r="G219" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H219" s="26" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G219" s="6"/>
+      <c r="H219" s="19"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>262</v>
       </c>
@@ -7298,15 +7358,15 @@
         <v>263</v>
       </c>
       <c r="C220" s="18"/>
-      <c r="D220" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>113</v>
+      <c r="D220" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F220" s="18"/>
-      <c r="G220" s="6"/>
-      <c r="H220" s="19"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="2"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
@@ -7317,10 +7377,10 @@
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F221" s="18"/>
       <c r="G221" s="16"/>
@@ -7334,97 +7394,99 @@
         <v>263</v>
       </c>
       <c r="C222" s="18"/>
-      <c r="D222" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="D222" s="13"/>
+      <c r="E222" s="14"/>
       <c r="F222" s="18"/>
       <c r="G222" s="16"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>263</v>
+        <v>426</v>
       </c>
       <c r="C223" s="18"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="14"/>
+      <c r="D223" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="18"/>
-      <c r="G223" s="16"/>
-      <c r="H223" s="2"/>
+      <c r="G223" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H223" s="26" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="E224" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F224" s="18"/>
-      <c r="G224" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H224" s="26" t="s">
-        <v>627</v>
-      </c>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C225" s="18"/>
-      <c r="D225" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D225" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E225" s="2"/>
       <c r="F225" s="18"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C226" s="18"/>
-      <c r="D226" s="2" t="s">
-        <v>628</v>
-      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="18"/>
-      <c r="G226" s="6"/>
-      <c r="H226" s="6"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G226" s="16"/>
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>431</v>
+        <v>198</v>
       </c>
       <c r="C227" s="18"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
+      <c r="D227" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E227" s="1"/>
       <c r="F227" s="18"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="2"/>
+      <c r="G227" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H227" s="19" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
@@ -7435,18 +7497,16 @@
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E228" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F228" s="18"/>
-      <c r="G228" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H228" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>268</v>
       </c>
@@ -7454,15 +7514,15 @@
         <v>198</v>
       </c>
       <c r="C229" s="18"/>
-      <c r="D229" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>113</v>
+      <c r="D229" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="F229" s="18"/>
-      <c r="G229" s="6"/>
-      <c r="H229" s="6"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="2"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
@@ -7473,10 +7533,10 @@
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="16"/>
@@ -7490,29 +7550,31 @@
         <v>198</v>
       </c>
       <c r="C231" s="18"/>
-      <c r="D231" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="D231" s="13"/>
+      <c r="E231" s="14"/>
       <c r="F231" s="18"/>
       <c r="G231" s="16"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C232" s="18"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="14"/>
+      <c r="D232" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E232" s="1"/>
       <c r="F232" s="18"/>
-      <c r="G232" s="16"/>
-      <c r="H232" s="2"/>
+      <c r="G232" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H232" s="19" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
@@ -7523,18 +7585,16 @@
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E233" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F233" s="18"/>
-      <c r="G233" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H233" s="19" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>273</v>
       </c>
@@ -7542,15 +7602,15 @@
         <v>198</v>
       </c>
       <c r="C234" s="18"/>
-      <c r="D234" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>113</v>
+      <c r="D234" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="F234" s="18"/>
-      <c r="G234" s="6"/>
-      <c r="H234" s="6"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="2"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
@@ -7561,10 +7621,10 @@
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F235" s="18"/>
       <c r="G235" s="16"/>
@@ -7579,10 +7639,10 @@
       </c>
       <c r="C236" s="18"/>
       <c r="D236" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="16"/>
@@ -7597,10 +7657,10 @@
       </c>
       <c r="C237" s="18"/>
       <c r="D237" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="16"/>
@@ -7614,29 +7674,31 @@
         <v>198</v>
       </c>
       <c r="C238" s="18"/>
-      <c r="D238" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="D238" s="13"/>
+      <c r="E238" s="14"/>
       <c r="F238" s="18"/>
       <c r="G238" s="16"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C239" s="18"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="14"/>
+      <c r="D239" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E239" s="1"/>
       <c r="F239" s="18"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="2"/>
+      <c r="G239" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H239" s="19" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
@@ -7647,18 +7709,16 @@
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E240" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F240" s="18"/>
-      <c r="G240" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H240" s="19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>282</v>
       </c>
@@ -7666,15 +7726,15 @@
         <v>263</v>
       </c>
       <c r="C241" s="18"/>
-      <c r="D241" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>113</v>
+      <c r="D241" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="F241" s="18"/>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="2"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
@@ -7685,10 +7745,10 @@
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F242" s="18"/>
       <c r="G242" s="16"/>
@@ -7703,10 +7763,10 @@
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F243" s="18"/>
       <c r="G243" s="16"/>
@@ -7721,10 +7781,10 @@
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="16"/>
@@ -7739,10 +7799,10 @@
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="16"/>
@@ -7757,10 +7817,10 @@
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="16"/>
@@ -7775,10 +7835,10 @@
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F247" s="18"/>
       <c r="G247" s="16"/>
@@ -7793,10 +7853,10 @@
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F248" s="18"/>
       <c r="G248" s="16"/>
@@ -7811,10 +7871,10 @@
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F249" s="18"/>
       <c r="G249" s="16"/>
@@ -7829,10 +7889,10 @@
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F250" s="18"/>
       <c r="G250" s="16"/>
@@ -7847,10 +7907,10 @@
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F251" s="18"/>
       <c r="G251" s="16"/>
@@ -7865,10 +7925,10 @@
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F252" s="18"/>
       <c r="G252" s="16"/>
@@ -7883,10 +7943,10 @@
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F253" s="18"/>
       <c r="G253" s="16"/>
@@ -7901,10 +7961,10 @@
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F254" s="18"/>
       <c r="G254" s="16"/>
@@ -7919,10 +7979,10 @@
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="2" t="s">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="F255" s="18"/>
       <c r="G255" s="16"/>
@@ -7936,29 +7996,31 @@
         <v>263</v>
       </c>
       <c r="C256" s="18"/>
-      <c r="D256" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="D256" s="13"/>
+      <c r="E256" s="14"/>
       <c r="F256" s="18"/>
       <c r="G256" s="16"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C257" s="18"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="14"/>
+      <c r="D257" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E257" s="1"/>
       <c r="F257" s="18"/>
-      <c r="G257" s="16"/>
-      <c r="H257" s="2"/>
+      <c r="G257" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H257" s="26" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
@@ -7969,18 +8031,16 @@
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E258" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F258" s="18"/>
-      <c r="G258" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H258" s="26" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G258" s="6"/>
+      <c r="H258" s="19"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>311</v>
       </c>
@@ -7988,15 +8048,15 @@
         <v>312</v>
       </c>
       <c r="C259" s="18"/>
-      <c r="D259" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>113</v>
+      <c r="D259" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="F259" s="18"/>
-      <c r="G259" s="6"/>
-      <c r="H259" s="19"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="2"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
@@ -8007,10 +8067,10 @@
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F260" s="18"/>
       <c r="G260" s="16"/>
@@ -8025,10 +8085,10 @@
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F261" s="18"/>
       <c r="G261" s="16"/>
@@ -8043,10 +8103,10 @@
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>632</v>
+        <v>319</v>
       </c>
       <c r="F262" s="18"/>
       <c r="G262" s="16"/>
@@ -8061,10 +8121,10 @@
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="2" t="s">
-        <v>318</v>
+        <v>626</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>319</v>
+        <v>628</v>
       </c>
       <c r="F263" s="18"/>
       <c r="G263" s="16"/>
@@ -8078,29 +8138,31 @@
         <v>312</v>
       </c>
       <c r="C264" s="18"/>
-      <c r="D264" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="D264" s="13"/>
+      <c r="E264" s="14"/>
       <c r="F264" s="18"/>
       <c r="G264" s="16"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="C265" s="18"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="14"/>
+      <c r="D265" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E265" s="1"/>
       <c r="F265" s="18"/>
-      <c r="G265" s="16"/>
-      <c r="H265" s="2"/>
+      <c r="G265" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H265" s="26" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
@@ -8111,18 +8173,16 @@
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E266" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F266" s="18"/>
-      <c r="G266" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H266" s="26" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G266" s="6"/>
+      <c r="H266" s="19"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>311</v>
       </c>
@@ -8130,15 +8190,15 @@
         <v>198</v>
       </c>
       <c r="C267" s="18"/>
-      <c r="D267" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>113</v>
+      <c r="D267" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="F267" s="18"/>
-      <c r="G267" s="6"/>
-      <c r="H267" s="19"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="2"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
@@ -8149,10 +8209,10 @@
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F268" s="18"/>
       <c r="G268" s="16"/>
@@ -8167,10 +8227,10 @@
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F269" s="18"/>
       <c r="G269" s="16"/>
@@ -8185,10 +8245,10 @@
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F270" s="18"/>
       <c r="G270" s="16"/>
@@ -8203,10 +8263,10 @@
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F271" s="18"/>
       <c r="G271" s="16"/>
@@ -8221,10 +8281,10 @@
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F272" s="18"/>
       <c r="G272" s="16"/>
@@ -8239,10 +8299,10 @@
       </c>
       <c r="C273" s="18"/>
       <c r="D273" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F273" s="18"/>
       <c r="G273" s="16"/>
@@ -8256,29 +8316,31 @@
         <v>198</v>
       </c>
       <c r="C274" s="18"/>
-      <c r="D274" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>649</v>
-      </c>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
       <c r="F274" s="18"/>
       <c r="G274" s="16"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C275" s="18"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
+      <c r="D275" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E275" s="1"/>
       <c r="F275" s="18"/>
-      <c r="G275" s="16"/>
-      <c r="H275" s="2"/>
+      <c r="G275" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H275" s="19" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
@@ -8289,18 +8351,16 @@
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E276" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F276" s="18"/>
-      <c r="G276" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H276" s="19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G276" s="6"/>
+      <c r="H276" s="19"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>320</v>
       </c>
@@ -8308,17 +8368,17 @@
         <v>198</v>
       </c>
       <c r="C277" s="18"/>
-      <c r="D277" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>113</v>
+      <c r="D277" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F277" s="18"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="19"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G277" s="16"/>
+      <c r="H277" s="2"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>320</v>
       </c>
@@ -8326,29 +8386,31 @@
         <v>198</v>
       </c>
       <c r="C278" s="18"/>
-      <c r="D278" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
       <c r="F278" s="18"/>
       <c r="G278" s="16"/>
       <c r="H278" s="2"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="C279" s="18"/>
-      <c r="D279" s="12"/>
-      <c r="E279" s="12"/>
+      <c r="D279" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E279" s="1"/>
       <c r="F279" s="18"/>
-      <c r="G279" s="16"/>
-      <c r="H279" s="2"/>
+      <c r="G279" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H279" s="19" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
@@ -8359,18 +8421,16 @@
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E280" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F280" s="18"/>
-      <c r="G280" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H280" s="19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G280" s="20"/>
+      <c r="H280" s="19"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
         <v>321</v>
       </c>
@@ -8378,15 +8438,15 @@
         <v>322</v>
       </c>
       <c r="C281" s="18"/>
-      <c r="D281" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>113</v>
+      <c r="D281" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F281" s="18"/>
-      <c r="G281" s="20"/>
-      <c r="H281" s="19"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="2"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
@@ -8397,10 +8457,10 @@
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F282" s="18"/>
       <c r="G282" s="16"/>
@@ -8415,10 +8475,10 @@
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F283" s="18"/>
       <c r="G283" s="16"/>
@@ -8433,10 +8493,10 @@
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F284" s="18"/>
       <c r="G284" s="16"/>
@@ -8451,10 +8511,10 @@
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F285" s="18"/>
       <c r="G285" s="16"/>
@@ -8468,29 +8528,31 @@
         <v>322</v>
       </c>
       <c r="C286" s="18"/>
-      <c r="D286" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="D286" s="13"/>
+      <c r="E286" s="14"/>
       <c r="F286" s="18"/>
       <c r="G286" s="16"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C287" s="18"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="14"/>
+      <c r="D287" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E287" s="1"/>
       <c r="F287" s="18"/>
-      <c r="G287" s="16"/>
-      <c r="H287" s="2"/>
+      <c r="G287" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H287" s="19" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
@@ -8501,18 +8563,16 @@
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E288" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F288" s="18"/>
-      <c r="G288" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H288" s="19" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G288" s="20"/>
+      <c r="H288" s="19"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>323</v>
       </c>
@@ -8520,15 +8580,15 @@
         <v>324</v>
       </c>
       <c r="C289" s="18"/>
-      <c r="D289" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>113</v>
+      <c r="D289" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F289" s="18"/>
-      <c r="G289" s="20"/>
-      <c r="H289" s="19"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="2"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
@@ -8539,10 +8599,10 @@
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F290" s="18"/>
       <c r="G290" s="16"/>
@@ -8557,10 +8617,10 @@
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F291" s="18"/>
       <c r="G291" s="16"/>
@@ -8575,10 +8635,10 @@
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="2" t="s">
-        <v>9</v>
+        <v>325</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="F292" s="18"/>
       <c r="G292" s="16"/>
@@ -8593,10 +8653,10 @@
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="16"/>
@@ -8611,10 +8671,10 @@
       </c>
       <c r="C294" s="18"/>
       <c r="D294" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="16"/>
@@ -8629,10 +8689,10 @@
       </c>
       <c r="C295" s="18"/>
       <c r="D295" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F295" s="18"/>
       <c r="G295" s="16"/>
@@ -8647,10 +8707,10 @@
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="16"/>
@@ -8665,10 +8725,10 @@
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="16"/>
@@ -8682,81 +8742,81 @@
         <v>324</v>
       </c>
       <c r="C298" s="18"/>
-      <c r="D298" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="D298" s="13"/>
+      <c r="E298" s="14"/>
       <c r="F298" s="18"/>
       <c r="G298" s="16"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="C299" s="18"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="14"/>
+      <c r="D299" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E299" s="1"/>
       <c r="F299" s="18"/>
-      <c r="G299" s="16"/>
-      <c r="H299" s="2"/>
+      <c r="G299" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H299" s="19" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E300" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F300" s="18"/>
-      <c r="G300" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H300" s="19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G300" s="6"/>
+      <c r="H300" s="19"/>
+    </row>
+    <row r="301" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C301" s="18"/>
-      <c r="D301" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>113</v>
+      <c r="D301" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F301" s="18"/>
-      <c r="G301" s="6"/>
-      <c r="H301" s="19"/>
+      <c r="G301" s="16"/>
+      <c r="H301" s="2"/>
     </row>
     <row r="302" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F302" s="18"/>
       <c r="G302" s="16"/>
@@ -8767,14 +8827,14 @@
         <v>323</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F303" s="18"/>
       <c r="G303" s="16"/>
@@ -8785,14 +8845,14 @@
         <v>323</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="16"/>
@@ -8803,14 +8863,14 @@
         <v>323</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="16"/>
@@ -8821,14 +8881,14 @@
         <v>323</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F306" s="18"/>
       <c r="G306" s="16"/>
@@ -8839,14 +8899,14 @@
         <v>323</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F307" s="18"/>
       <c r="G307" s="16"/>
@@ -8857,14 +8917,14 @@
         <v>323</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F308" s="18"/>
       <c r="G308" s="16"/>
@@ -8875,14 +8935,14 @@
         <v>323</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F309" s="18"/>
       <c r="G309" s="16"/>
@@ -8893,14 +8953,14 @@
         <v>323</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F310" s="18"/>
       <c r="G310" s="16"/>
@@ -8911,14 +8971,14 @@
         <v>323</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F311" s="18"/>
       <c r="G311" s="16"/>
@@ -8929,14 +8989,14 @@
         <v>323</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F312" s="18"/>
       <c r="G312" s="16"/>
@@ -8947,14 +9007,14 @@
         <v>323</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F313" s="18"/>
       <c r="G313" s="16"/>
@@ -8965,14 +9025,14 @@
         <v>323</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F314" s="18"/>
       <c r="G314" s="16"/>
@@ -8983,14 +9043,14 @@
         <v>323</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F315" s="18"/>
       <c r="G315" s="16"/>
@@ -9001,14 +9061,14 @@
         <v>323</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F316" s="18"/>
       <c r="G316" s="16"/>
@@ -9019,102 +9079,102 @@
         <v>323</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F317" s="18"/>
       <c r="G317" s="16"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C318" s="18"/>
-      <c r="D318" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="D318" s="13"/>
+      <c r="E318" s="14"/>
       <c r="F318" s="18"/>
       <c r="G318" s="16"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C319" s="18"/>
-      <c r="D319" s="13"/>
-      <c r="E319" s="14"/>
+      <c r="D319" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E319" s="1"/>
       <c r="F319" s="18"/>
-      <c r="G319" s="16"/>
-      <c r="H319" s="2"/>
+      <c r="G319" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H319" s="19" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E320" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F320" s="18"/>
-      <c r="G320" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H320" s="19" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G320" s="6"/>
+      <c r="H320" s="19"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C321" s="18"/>
-      <c r="D321" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>113</v>
+      <c r="D321" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F321" s="18"/>
-      <c r="G321" s="6"/>
-      <c r="H321" s="19"/>
+      <c r="G321" s="16"/>
+      <c r="H321" s="2"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F322" s="18"/>
       <c r="G322" s="16"/>
@@ -9125,14 +9185,14 @@
         <v>323</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F323" s="18"/>
       <c r="G323" s="16"/>
@@ -9143,102 +9203,102 @@
         <v>323</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="16"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C325" s="18"/>
-      <c r="D325" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
       <c r="F325" s="18"/>
       <c r="G325" s="16"/>
       <c r="H325" s="2"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>412</v>
+        <v>198</v>
       </c>
       <c r="C326" s="18"/>
-      <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
+      <c r="D326" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E326" s="1"/>
       <c r="F326" s="18"/>
-      <c r="G326" s="16"/>
-      <c r="H326" s="2"/>
+      <c r="G326" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H326" s="26" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E327" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F327" s="18"/>
-      <c r="G327" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H327" s="26" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G327" s="6"/>
+      <c r="H327" s="19"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B328" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C328" s="18"/>
-      <c r="D328" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>113</v>
+      <c r="D328" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="F328" s="18"/>
-      <c r="G328" s="6"/>
-      <c r="H328" s="19"/>
+      <c r="G328" s="16"/>
+      <c r="H328" s="2"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F329" s="18"/>
       <c r="G329" s="16"/>
@@ -9246,17 +9306,17 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F330" s="18"/>
       <c r="G330" s="16"/>
@@ -9264,17 +9324,17 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B331" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="16"/>
@@ -9282,17 +9342,17 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B332" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F332" s="18"/>
       <c r="G332" s="16"/>
@@ -9300,17 +9360,17 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F333" s="18"/>
       <c r="G333" s="16"/>
@@ -9318,17 +9378,17 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B334" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C334" s="18"/>
       <c r="D334" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F334" s="18"/>
       <c r="G334" s="16"/>
@@ -9336,17 +9396,17 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B335" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C335" s="18"/>
       <c r="D335" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="16"/>
@@ -9354,17 +9414,17 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B336" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="16"/>
@@ -9372,17 +9432,17 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B337" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F337" s="18"/>
       <c r="G337" s="16"/>
@@ -9390,17 +9450,17 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B338" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F338" s="18"/>
       <c r="G338" s="16"/>
@@ -9408,17 +9468,17 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B339" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="16"/>
@@ -9426,17 +9486,17 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B340" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F340" s="18"/>
       <c r="G340" s="16"/>
@@ -9444,17 +9504,17 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B341" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="16"/>
@@ -9462,17 +9522,17 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B342" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F342" s="18"/>
       <c r="G342" s="16"/>
@@ -9480,35 +9540,37 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B343" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C343" s="18"/>
-      <c r="D343" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>680</v>
-      </c>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
       <c r="F343" s="18"/>
       <c r="G343" s="16"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c r="C344" s="18"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
+      <c r="D344" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E344" s="1"/>
       <c r="F344" s="18"/>
-      <c r="G344" s="16"/>
-      <c r="H344" s="2"/>
+      <c r="G344" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H344" s="19" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
@@ -9519,18 +9581,16 @@
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E345" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F345" s="18"/>
-      <c r="G345" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H345" s="19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G345" s="6"/>
+      <c r="H345" s="19"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>337</v>
       </c>
@@ -9538,15 +9598,15 @@
         <v>338</v>
       </c>
       <c r="C346" s="18"/>
-      <c r="D346" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>113</v>
+      <c r="D346" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F346" s="18"/>
-      <c r="G346" s="6"/>
-      <c r="H346" s="19"/>
+      <c r="G346" s="16"/>
+      <c r="H346" s="2"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
@@ -9557,16 +9617,16 @@
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="16"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>337</v>
       </c>
@@ -9575,14 +9635,15 @@
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="16"/>
       <c r="H348" s="2"/>
+      <c r="I348" s="4"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
@@ -9593,10 +9654,10 @@
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="16"/>
@@ -9612,17 +9673,17 @@
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="16"/>
       <c r="H350" s="2"/>
       <c r="I350" s="4"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>337</v>
       </c>
@@ -9631,15 +9692,14 @@
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="16"/>
       <c r="H351" s="2"/>
-      <c r="I351" s="4"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
@@ -9650,10 +9710,10 @@
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="16"/>
@@ -9668,10 +9728,10 @@
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="16"/>
@@ -9685,29 +9745,31 @@
         <v>338</v>
       </c>
       <c r="C354" s="18"/>
-      <c r="D354" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="D354" s="13"/>
+      <c r="E354" s="14"/>
       <c r="F354" s="18"/>
       <c r="G354" s="16"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>337</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C355" s="18"/>
-      <c r="D355" s="13"/>
-      <c r="E355" s="14"/>
+      <c r="D355" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E355" s="1"/>
       <c r="F355" s="18"/>
-      <c r="G355" s="16"/>
-      <c r="H355" s="2"/>
+      <c r="G355" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H355" s="19" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
@@ -9717,15 +9779,17 @@
         <v>198</v>
       </c>
       <c r="C356" s="18"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
+      <c r="D356" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F356" s="18"/>
       <c r="G356" s="6"/>
-      <c r="H356" s="19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H356" s="19"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="9" t="s">
         <v>337</v>
       </c>
@@ -9733,15 +9797,15 @@
         <v>198</v>
       </c>
       <c r="C357" s="18"/>
-      <c r="D357" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>113</v>
+      <c r="D357" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="F357" s="18"/>
-      <c r="G357" s="6"/>
-      <c r="H357" s="19"/>
+      <c r="G357" s="16"/>
+      <c r="H357" s="2"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
@@ -9751,63 +9815,65 @@
         <v>198</v>
       </c>
       <c r="C358" s="18"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
+      <c r="D358" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="F358" s="18"/>
       <c r="G358" s="16"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C359" s="18"/>
-      <c r="D359" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E359" s="1"/>
+      <c r="D359" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="F359" s="18"/>
-      <c r="G359" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H359" s="19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G359" s="16"/>
+      <c r="H359" s="2"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C360" s="18"/>
-      <c r="D360" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>113</v>
+      <c r="D360" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="F360" s="18"/>
-      <c r="G360" s="20"/>
-      <c r="H360" s="19"/>
+      <c r="G360" s="16"/>
+      <c r="H360" s="2"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>357</v>
+        <v>692</v>
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="16"/>
@@ -9815,17 +9881,17 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="2" t="s">
-        <v>358</v>
+        <v>683</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>359</v>
+        <v>693</v>
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="16"/>
@@ -9833,17 +9899,17 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="2" t="s">
-        <v>360</v>
+        <v>684</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>361</v>
+        <v>694</v>
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="16"/>
@@ -9851,17 +9917,17 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="2" t="s">
-        <v>151</v>
+        <v>685</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>152</v>
+        <v>695</v>
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="16"/>
@@ -9869,17 +9935,17 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="2" t="s">
-        <v>362</v>
+        <v>686</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>363</v>
+        <v>696</v>
       </c>
       <c r="F365" s="18"/>
       <c r="G365" s="16"/>
@@ -9887,17 +9953,17 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="2" t="s">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>365</v>
+        <v>697</v>
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="16"/>
@@ -9905,23 +9971,19 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C367" s="18"/>
-      <c r="D367" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E367" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
       <c r="F367" s="18"/>
       <c r="G367" s="16"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>355</v>
       </c>
@@ -9929,17 +9991,19 @@
         <v>263</v>
       </c>
       <c r="C368" s="18"/>
-      <c r="D368" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="D368" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E368" s="1"/>
       <c r="F368" s="18"/>
-      <c r="G368" s="16"/>
-      <c r="H368" s="2"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G368" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H368" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>355</v>
       </c>
@@ -9947,15 +10011,15 @@
         <v>263</v>
       </c>
       <c r="C369" s="18"/>
-      <c r="D369" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>369</v>
+      <c r="D369" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F369" s="18"/>
-      <c r="G369" s="16"/>
-      <c r="H369" s="2"/>
+      <c r="G369" s="20"/>
+      <c r="H369" s="19"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
@@ -9966,10 +10030,10 @@
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="2" t="s">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="16"/>
@@ -9984,10 +10048,10 @@
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F371" s="18"/>
       <c r="G371" s="16"/>
@@ -10002,10 +10066,10 @@
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F372" s="18"/>
       <c r="G372" s="16"/>
@@ -10020,10 +10084,10 @@
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="2" t="s">
-        <v>375</v>
+        <v>151</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="F373" s="18"/>
       <c r="G373" s="16"/>
@@ -10038,10 +10102,10 @@
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="16"/>
@@ -10056,10 +10120,10 @@
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="16"/>
@@ -10074,10 +10138,10 @@
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="16"/>
@@ -10092,10 +10156,10 @@
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="2" t="s">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="16"/>
@@ -10110,10 +10174,10 @@
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="2" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="F378" s="18"/>
       <c r="G378" s="16"/>
@@ -10128,10 +10192,10 @@
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="2" t="s">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F379" s="18"/>
       <c r="G379" s="16"/>
@@ -10146,10 +10210,10 @@
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F380" s="18"/>
       <c r="G380" s="16"/>
@@ -10164,10 +10228,10 @@
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F381" s="18"/>
       <c r="G381" s="16"/>
@@ -10182,10 +10246,10 @@
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F382" s="18"/>
       <c r="G382" s="16"/>
@@ -10199,63 +10263,65 @@
         <v>263</v>
       </c>
       <c r="C383" s="18"/>
-      <c r="D383" s="13"/>
-      <c r="E383" s="14"/>
+      <c r="D383" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="F383" s="18"/>
       <c r="G383" s="16"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C384" s="18"/>
-      <c r="D384" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E384" s="1"/>
+      <c r="D384" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="F384" s="18"/>
-      <c r="G384" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H384" s="19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G384" s="16"/>
+      <c r="H384" s="2"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C385" s="18"/>
-      <c r="D385" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>113</v>
+      <c r="D385" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="F385" s="18"/>
-      <c r="G385" s="20"/>
-      <c r="H385" s="19"/>
+      <c r="G385" s="16"/>
+      <c r="H385" s="2"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="2" t="s">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="F386" s="18"/>
       <c r="G386" s="16"/>
@@ -10263,17 +10329,17 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F387" s="18"/>
       <c r="G387" s="16"/>
@@ -10281,17 +10347,17 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="2" t="s">
-        <v>106</v>
+        <v>385</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
       <c r="F388" s="18"/>
       <c r="G388" s="16"/>
@@ -10299,17 +10365,17 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="2" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="F389" s="18"/>
       <c r="G389" s="16"/>
@@ -10317,103 +10383,105 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="2" t="s">
-        <v>110</v>
+        <v>389</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="F390" s="18"/>
       <c r="G390" s="16"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C391" s="18"/>
-      <c r="D391" s="12"/>
-      <c r="E391" s="12"/>
+      <c r="D391" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="F391" s="18"/>
       <c r="G391" s="16"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="C392" s="18"/>
-      <c r="D392" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E392" s="1"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="14"/>
       <c r="F392" s="18"/>
-      <c r="G392" s="6"/>
-      <c r="H392" s="19" t="s">
-        <v>480</v>
-      </c>
+      <c r="G392" s="16"/>
+      <c r="H392" s="2"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E393" s="1"/>
+      <c r="F393" s="18"/>
+      <c r="G393" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H393" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C394" s="18"/>
+      <c r="D394" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E393" s="1" t="s">
+      <c r="E394" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F393" s="18"/>
-      <c r="G393" s="6"/>
-      <c r="H393" s="19"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B394" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C394" s="18"/>
-      <c r="D394" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="F394" s="18"/>
-      <c r="G394" s="16"/>
-      <c r="H394" s="2"/>
+      <c r="G394" s="20"/>
+      <c r="H394" s="19"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="2" t="s">
-        <v>398</v>
+        <v>102</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="F395" s="18"/>
       <c r="G395" s="16"/>
@@ -10421,17 +10489,17 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="2" t="s">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="F396" s="18"/>
       <c r="G396" s="16"/>
@@ -10439,17 +10507,17 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="2" t="s">
-        <v>402</v>
+        <v>106</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="F397" s="18"/>
       <c r="G397" s="16"/>
@@ -10457,103 +10525,105 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="C398" s="18"/>
-      <c r="D398" s="13"/>
-      <c r="E398" s="14"/>
+      <c r="D398" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F398" s="18"/>
       <c r="G398" s="16"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C399" s="18"/>
-      <c r="D399" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E399" s="1"/>
+      <c r="D399" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F399" s="18"/>
-      <c r="G399" s="6"/>
-      <c r="H399" s="19" t="s">
-        <v>481</v>
-      </c>
+      <c r="G399" s="16"/>
+      <c r="H399" s="2"/>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C400" s="18"/>
-      <c r="D400" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
       <c r="F400" s="18"/>
-      <c r="G400" s="6"/>
-      <c r="H400" s="19"/>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G400" s="16"/>
+      <c r="H400" s="2"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="C401" s="18"/>
-      <c r="D401" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E401" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="D401" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E401" s="1"/>
       <c r="F401" s="18"/>
-      <c r="G401" s="16"/>
-      <c r="H401" s="2"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G401" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H401" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="C402" s="18"/>
-      <c r="D402" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E402" s="2" t="s">
-        <v>407</v>
+      <c r="D402" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F402" s="18"/>
-      <c r="G402" s="16"/>
-      <c r="H402" s="2"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="19"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F403" s="18"/>
       <c r="G403" s="16"/>
@@ -10564,223 +10634,272 @@
         <v>394</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="C404" s="18"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
+      <c r="D404" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="F404" s="18"/>
       <c r="G404" s="16"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="9"/>
-      <c r="B405" s="10"/>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="C405" s="18"/>
-      <c r="D405" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E405" s="1"/>
+      <c r="D405" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="F405" s="18"/>
-      <c r="G405" s="6"/>
-      <c r="H405" s="19"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="9"/>
-      <c r="B406" s="10"/>
+      <c r="G405" s="16"/>
+      <c r="H405" s="2"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="C406" s="18"/>
-      <c r="D406" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>113</v>
+      <c r="D406" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="F406" s="18"/>
-      <c r="G406" s="6"/>
-      <c r="H406" s="19"/>
+      <c r="G406" s="16"/>
+      <c r="H406" s="2"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A407" s="9"/>
-      <c r="B407" s="10"/>
+      <c r="A407" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="C407" s="18"/>
-      <c r="D407" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E407" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D407" s="13"/>
+      <c r="E407" s="14"/>
       <c r="F407" s="18"/>
       <c r="G407" s="16"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" s="9"/>
-      <c r="B408" s="10"/>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C408" s="18"/>
-      <c r="D408" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D408" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E408" s="1"/>
       <c r="F408" s="18"/>
-      <c r="G408" s="16"/>
-      <c r="H408" s="2"/>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" s="9"/>
-      <c r="B409" s="10"/>
+      <c r="G408" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H408" s="19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C409" s="18"/>
-      <c r="D409" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>19</v>
+      <c r="D409" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F409" s="18"/>
-      <c r="G409" s="16"/>
-      <c r="H409" s="2"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="19"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A410" s="9"/>
-      <c r="B410" s="10"/>
+      <c r="A410" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C410" s="18"/>
       <c r="D410" s="2" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="F410" s="18"/>
       <c r="G410" s="16"/>
       <c r="H410" s="2"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" s="9"/>
-      <c r="B411" s="10"/>
+      <c r="A411" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C411" s="18"/>
       <c r="D411" s="2" t="s">
-        <v>22</v>
+        <v>405</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>23</v>
+        <v>701</v>
       </c>
       <c r="F411" s="18"/>
       <c r="G411" s="16"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="9"/>
-      <c r="B412" s="10"/>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C412" s="18"/>
-      <c r="D412" s="12"/>
-      <c r="E412" s="12"/>
+      <c r="D412" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>702</v>
+      </c>
       <c r="F412" s="18"/>
       <c r="G412" s="16"/>
       <c r="H412" s="2"/>
     </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C413" s="18"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="18"/>
+      <c r="G413" s="16"/>
+      <c r="H413" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E437">
-    <sortCondition ref="A1:A437"/>
-    <sortCondition ref="B1:B437"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E436">
+    <sortCondition ref="A1:A436"/>
+    <sortCondition ref="B1:B436"/>
   </sortState>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D250:D252" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D249:D251" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E309:E312 E247:E252" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E308:E311 E246:E251" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
       <formula1>40</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D323" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
-    <hyperlink ref="D324" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
-    <hyperlink ref="D325" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
-    <hyperlink ref="D407" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82639&amp;ns=ncit" xr:uid="{E183E1A4-04D7-E24E-8A31-133F938F0D28}"/>
-    <hyperlink ref="D408" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82637&amp;ns=ncit" xr:uid="{1598C15F-5688-1C49-8C1A-DAB7E2F8D613}"/>
-    <hyperlink ref="D409" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C142568&amp;ns=ncit" xr:uid="{D16C9CD1-5E6A-6541-BB1C-7456DD2BAC6F}"/>
-    <hyperlink ref="D410" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82640&amp;ns=ncit" xr:uid="{9A50C8E0-449D-AE4E-B910-5C25A0F1DDCF}"/>
-    <hyperlink ref="D411" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C82638&amp;ns=ncit" xr:uid="{3C18698C-B1AE-FA4B-9520-3CEE14AE4A74}"/>
-    <hyperlink ref="D120" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
-    <hyperlink ref="D121" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
-    <hyperlink ref="D122" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
-    <hyperlink ref="D123" r:id="rId12" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{D1A6EBA8-5EB0-2C44-8CF1-4F32248BBABA}"/>
-    <hyperlink ref="D124" r:id="rId13" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{378AD94C-04DC-5141-AF38-82F17081A01D}"/>
-    <hyperlink ref="D125" r:id="rId14" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49664&amp;ns=ncit" xr:uid="{B622E711-2E06-3948-A337-ACDDDD41753D}"/>
-    <hyperlink ref="D126" r:id="rId15" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49663&amp;ns=ncit" xr:uid="{90FA3808-24C9-F64E-B64C-B4CA46192E89}"/>
-    <hyperlink ref="D127" r:id="rId16" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C178057&amp;ns=ncit" xr:uid="{3C761412-B393-ED44-91CF-9957D6558BDF}"/>
-    <hyperlink ref="D128" r:id="rId17" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158287&amp;ns=ncit" xr:uid="{6D32DDD1-AE98-2E43-BD7B-096D75610356}"/>
-    <hyperlink ref="D129" r:id="rId18" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49667&amp;ns=ncit" xr:uid="{F6EFDD48-09F8-0541-BDE0-483B76C2A992}"/>
-    <hyperlink ref="D130" r:id="rId19" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49666&amp;ns=ncit" xr:uid="{60CE0F0D-7279-7647-886C-207D5C6AEC81}"/>
-    <hyperlink ref="D131" r:id="rId20" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49665&amp;ns=ncit" xr:uid="{69F550B5-2198-BB4A-B840-175F41966649}"/>
-    <hyperlink ref="D132" r:id="rId21" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C39493&amp;ns=ncit" xr:uid="{C9D75BAB-3967-AA41-BC31-FB810A713DC9}"/>
-    <hyperlink ref="D133" r:id="rId22" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C201484&amp;ns=ncit" xr:uid="{D9B5CBEE-086F-144B-8881-E9423989DB5B}"/>
-    <hyperlink ref="D134" r:id="rId23" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C174366&amp;ns=ncit" xr:uid="{76398CA8-7DFE-074F-9615-77038545419E}"/>
-    <hyperlink ref="D135" r:id="rId24" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C120842&amp;ns=ncit" xr:uid="{F7CF6BD0-6EF9-3B46-BA28-45C1615F2957}"/>
-    <hyperlink ref="D136" r:id="rId25" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129001&amp;ns=ncit" xr:uid="{647C2A18-5BE0-EC46-83AE-FAC1A19B8480}"/>
-    <hyperlink ref="D137" r:id="rId26" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161477&amp;ns=ncit" xr:uid="{D3492A35-9EDA-2D44-8EBE-3EA2A26ADEEB}"/>
-    <hyperlink ref="D138" r:id="rId27" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161478&amp;ns=ncit" xr:uid="{877ACD3A-A6BC-6945-9A23-EF1F0ADBED65}"/>
-    <hyperlink ref="D139" r:id="rId28" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161479&amp;ns=ncit" xr:uid="{B6E0CA88-27D3-C147-9431-A79309BC526C}"/>
-    <hyperlink ref="D140" r:id="rId29" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161480&amp;ns=ncit" xr:uid="{D30181D7-62CC-3843-8EDD-94D3A7E828DC}"/>
-    <hyperlink ref="D141" r:id="rId30" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158283&amp;ns=ncit" xr:uid="{89C02071-8111-7A44-9B34-A21C17E266A7}"/>
-    <hyperlink ref="D142" r:id="rId31" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158284&amp;ns=ncit" xr:uid="{173FD762-EAC0-7941-BD4A-F2163B5EFBDB}"/>
-    <hyperlink ref="D143" r:id="rId32" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158290&amp;ns=ncit" xr:uid="{41363D12-A0AB-4442-96E2-F2EF89AF30A5}"/>
-    <hyperlink ref="D144" r:id="rId33" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158289&amp;ns=ncit" xr:uid="{4ED920F2-EC00-3740-A64A-34FEDA2E5C51}"/>
-    <hyperlink ref="D145" r:id="rId34" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158288&amp;ns=ncit" xr:uid="{C70BD844-68B5-1847-A926-2E32CDE28574}"/>
-    <hyperlink ref="D146" r:id="rId35" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158285&amp;ns=ncit" xr:uid="{074C134A-45D5-9D4D-9B57-8756AA2785F7}"/>
-    <hyperlink ref="D147" r:id="rId36" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158286&amp;ns=ncit" xr:uid="{A29F72E4-AE80-9C44-A9E5-33F34E1BB05D}"/>
-    <hyperlink ref="D148" r:id="rId37" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C127803&amp;ns=ncit" xr:uid="{2254B34B-2A80-F24A-A414-2F218796F0BE}"/>
-    <hyperlink ref="D149" r:id="rId38" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98729&amp;ns=ncit" xr:uid="{F1D3CE17-4BD1-4444-BE5E-0522D6C58FA0}"/>
-    <hyperlink ref="D150" r:id="rId39" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98791&amp;ns=ncit" xr:uid="{8A2DAB16-66B3-E448-93F8-2FCE9BDE458F}"/>
-    <hyperlink ref="D97" r:id="rId40" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15714&amp;ns=ncit" xr:uid="{556F5DC1-C1C8-2240-911F-A82212855285}"/>
-    <hyperlink ref="D98" r:id="rId41" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71485&amp;ns=ncit" xr:uid="{7505117A-A482-4243-85F9-0619C885AE2D}"/>
-    <hyperlink ref="D99" r:id="rId42" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C139174&amp;ns=ncit" xr:uid="{9D4684C2-55A0-EC4A-9C6D-38A561DA9672}"/>
-    <hyperlink ref="D100" r:id="rId43" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7F9BD7E2-D1B8-7E4A-879F-8EBF298EF875}"/>
-    <hyperlink ref="D101" r:id="rId44" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{8BAF591E-00BB-B64F-823A-553862C0BB8B}"/>
-    <hyperlink ref="D102" r:id="rId45" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15245&amp;ns=ncit" xr:uid="{B0227C52-5A21-B746-92BA-45FC129C985E}"/>
-    <hyperlink ref="D103" r:id="rId46" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{37B22110-B0C2-5D44-8386-0A8164E33FEC}"/>
-    <hyperlink ref="D104" r:id="rId47" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71486&amp;ns=ncit" xr:uid="{0C08005F-132B-A04E-A1B0-B278A7B08E2C}"/>
-    <hyperlink ref="D105" r:id="rId48" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
-    <hyperlink ref="D106" r:id="rId49" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
-    <hyperlink ref="D107" r:id="rId50" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
-    <hyperlink ref="D386" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
-    <hyperlink ref="D387" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
-    <hyperlink ref="D388" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
-    <hyperlink ref="D389" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
-    <hyperlink ref="D390" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
-    <hyperlink ref="H300" r:id="rId56" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
-    <hyperlink ref="H384" r:id="rId57" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
-    <hyperlink ref="H109" r:id="rId58" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
-    <hyperlink ref="D34" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C157352" xr:uid="{7714E1A1-7F57-1F45-8626-96AC1D085731}"/>
-    <hyperlink ref="D35" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171525" xr:uid="{13669423-9FB2-DD4E-8C39-68B1F003F7CB}"/>
-    <hyperlink ref="D36" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C175574" xr:uid="{90BF3119-C866-924C-8E68-7900AA0837E5}"/>
-    <hyperlink ref="D37" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25170" xr:uid="{637F8517-0017-6B4A-A6A6-6A2C1CDA96F7}"/>
-    <hyperlink ref="D38" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171533" xr:uid="{17E2142A-6445-8D43-A175-DC269B4C5CEA}"/>
-    <hyperlink ref="D39" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171537" xr:uid="{F1D2B3B5-06D9-7C40-9BBF-8CD9979E4ECF}"/>
-    <hyperlink ref="D40" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C177933" xr:uid="{4F6A7314-DC4A-7246-BC6F-7E7269CFD597}"/>
-    <hyperlink ref="D41" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171524" xr:uid="{83D5DD2A-59AC-9948-90FA-A4FFAFE8D069}"/>
-    <hyperlink ref="D42" r:id="rId67" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70805" xr:uid="{D33CB886-CF31-7843-AE22-D54171665381}"/>
-    <hyperlink ref="D46" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102647" xr:uid="{44D05BA5-1E98-244B-96EC-6073BB959C19}"/>
-    <hyperlink ref="D47" r:id="rId69" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C127785" xr:uid="{318AD07F-92AB-EC42-98C7-C2D35EAB9342}"/>
-    <hyperlink ref="D48" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16281" xr:uid="{7A79D0CA-826D-BA49-AD38-6052E8F5392F}"/>
-    <hyperlink ref="D49" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16696" xr:uid="{FF23189B-1787-4C4C-91C5-B33F78BA6A12}"/>
-    <hyperlink ref="D50" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C21541" xr:uid="{907FFECE-97C5-5845-8C4E-AFF15E057628}"/>
-    <hyperlink ref="D51" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85862" xr:uid="{CDCCD88D-6689-7E4A-BD56-6BA1EE8407A0}"/>
-    <hyperlink ref="D52" r:id="rId74" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102650" xr:uid="{3DE33E90-640A-2245-B96C-0A06BA955F75}"/>
-    <hyperlink ref="D53" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102712" xr:uid="{26BF5053-59E4-E740-B051-911F13B4B00B}"/>
-    <hyperlink ref="D54" r:id="rId76" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181530" xr:uid="{EED3C904-B3C1-0942-A929-4D6612D64AA5}"/>
-    <hyperlink ref="D55" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C41206" xr:uid="{204CBA36-D182-1C40-9176-77EC89E3B351}"/>
-    <hyperlink ref="D56" r:id="rId78" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C18002" xr:uid="{132D4C5A-9677-E047-A0FB-560F2016E207}"/>
-    <hyperlink ref="D57" r:id="rId79" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C211570" xr:uid="{782115E4-C0E6-FA4A-AA49-A1D2FB77F090}"/>
-    <hyperlink ref="D58" r:id="rId80" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17556" xr:uid="{43943B98-60FB-C84A-8C90-79196C468CDF}"/>
-    <hyperlink ref="D59" r:id="rId81" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181529" xr:uid="{72B80A59-311D-D44D-AC6A-1328A7DF8BB9}"/>
-    <hyperlink ref="D60" r:id="rId82" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85863" xr:uid="{C49158AD-726E-2040-8E68-34783A4442BE}"/>
-    <hyperlink ref="D61" r:id="rId83" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102679" xr:uid="{C2491F0E-D764-2344-BCFA-00730A211E09}"/>
-    <hyperlink ref="D62" r:id="rId84" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17118" xr:uid="{AA595D72-F04C-3447-9CC4-186E0CC4ED55}"/>
-    <hyperlink ref="D63" r:id="rId85" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C48953" xr:uid="{5E4D3C00-0CB7-054B-9610-8DFBDCB4B7E1}"/>
+    <hyperlink ref="D322" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
+    <hyperlink ref="D323" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
+    <hyperlink ref="D324" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
+    <hyperlink ref="D119" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
+    <hyperlink ref="D120" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
+    <hyperlink ref="D121" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
+    <hyperlink ref="D122" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{D1A6EBA8-5EB0-2C44-8CF1-4F32248BBABA}"/>
+    <hyperlink ref="D123" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{378AD94C-04DC-5141-AF38-82F17081A01D}"/>
+    <hyperlink ref="D124" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49664&amp;ns=ncit" xr:uid="{B622E711-2E06-3948-A337-ACDDDD41753D}"/>
+    <hyperlink ref="D125" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49663&amp;ns=ncit" xr:uid="{90FA3808-24C9-F64E-B64C-B4CA46192E89}"/>
+    <hyperlink ref="D126" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C178057&amp;ns=ncit" xr:uid="{3C761412-B393-ED44-91CF-9957D6558BDF}"/>
+    <hyperlink ref="D127" r:id="rId12" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158287&amp;ns=ncit" xr:uid="{6D32DDD1-AE98-2E43-BD7B-096D75610356}"/>
+    <hyperlink ref="D128" r:id="rId13" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49667&amp;ns=ncit" xr:uid="{F6EFDD48-09F8-0541-BDE0-483B76C2A992}"/>
+    <hyperlink ref="D129" r:id="rId14" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49666&amp;ns=ncit" xr:uid="{60CE0F0D-7279-7647-886C-207D5C6AEC81}"/>
+    <hyperlink ref="D130" r:id="rId15" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49665&amp;ns=ncit" xr:uid="{69F550B5-2198-BB4A-B840-175F41966649}"/>
+    <hyperlink ref="D131" r:id="rId16" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C39493&amp;ns=ncit" xr:uid="{C9D75BAB-3967-AA41-BC31-FB810A713DC9}"/>
+    <hyperlink ref="D132" r:id="rId17" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C201484&amp;ns=ncit" xr:uid="{D9B5CBEE-086F-144B-8881-E9423989DB5B}"/>
+    <hyperlink ref="D133" r:id="rId18" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C174366&amp;ns=ncit" xr:uid="{76398CA8-7DFE-074F-9615-77038545419E}"/>
+    <hyperlink ref="D134" r:id="rId19" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C120842&amp;ns=ncit" xr:uid="{F7CF6BD0-6EF9-3B46-BA28-45C1615F2957}"/>
+    <hyperlink ref="D135" r:id="rId20" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129001&amp;ns=ncit" xr:uid="{647C2A18-5BE0-EC46-83AE-FAC1A19B8480}"/>
+    <hyperlink ref="D136" r:id="rId21" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161477&amp;ns=ncit" xr:uid="{D3492A35-9EDA-2D44-8EBE-3EA2A26ADEEB}"/>
+    <hyperlink ref="D137" r:id="rId22" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161478&amp;ns=ncit" xr:uid="{877ACD3A-A6BC-6945-9A23-EF1F0ADBED65}"/>
+    <hyperlink ref="D138" r:id="rId23" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161479&amp;ns=ncit" xr:uid="{B6E0CA88-27D3-C147-9431-A79309BC526C}"/>
+    <hyperlink ref="D139" r:id="rId24" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161480&amp;ns=ncit" xr:uid="{D30181D7-62CC-3843-8EDD-94D3A7E828DC}"/>
+    <hyperlink ref="D140" r:id="rId25" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158283&amp;ns=ncit" xr:uid="{89C02071-8111-7A44-9B34-A21C17E266A7}"/>
+    <hyperlink ref="D141" r:id="rId26" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158284&amp;ns=ncit" xr:uid="{173FD762-EAC0-7941-BD4A-F2163B5EFBDB}"/>
+    <hyperlink ref="D142" r:id="rId27" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158290&amp;ns=ncit" xr:uid="{41363D12-A0AB-4442-96E2-F2EF89AF30A5}"/>
+    <hyperlink ref="D143" r:id="rId28" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158289&amp;ns=ncit" xr:uid="{4ED920F2-EC00-3740-A64A-34FEDA2E5C51}"/>
+    <hyperlink ref="D144" r:id="rId29" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158288&amp;ns=ncit" xr:uid="{C70BD844-68B5-1847-A926-2E32CDE28574}"/>
+    <hyperlink ref="D145" r:id="rId30" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158285&amp;ns=ncit" xr:uid="{074C134A-45D5-9D4D-9B57-8756AA2785F7}"/>
+    <hyperlink ref="D146" r:id="rId31" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158286&amp;ns=ncit" xr:uid="{A29F72E4-AE80-9C44-A9E5-33F34E1BB05D}"/>
+    <hyperlink ref="D147" r:id="rId32" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C127803&amp;ns=ncit" xr:uid="{2254B34B-2A80-F24A-A414-2F218796F0BE}"/>
+    <hyperlink ref="D148" r:id="rId33" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98729&amp;ns=ncit" xr:uid="{F1D3CE17-4BD1-4444-BE5E-0522D6C58FA0}"/>
+    <hyperlink ref="D149" r:id="rId34" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98791&amp;ns=ncit" xr:uid="{8A2DAB16-66B3-E448-93F8-2FCE9BDE458F}"/>
+    <hyperlink ref="D97" r:id="rId35" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15714&amp;ns=ncit" xr:uid="{556F5DC1-C1C8-2240-911F-A82212855285}"/>
+    <hyperlink ref="D98" r:id="rId36" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71485&amp;ns=ncit" xr:uid="{7505117A-A482-4243-85F9-0619C885AE2D}"/>
+    <hyperlink ref="D99" r:id="rId37" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C139174&amp;ns=ncit" xr:uid="{9D4684C2-55A0-EC4A-9C6D-38A561DA9672}"/>
+    <hyperlink ref="D100" r:id="rId38" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7F9BD7E2-D1B8-7E4A-879F-8EBF298EF875}"/>
+    <hyperlink ref="D101" r:id="rId39" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{8BAF591E-00BB-B64F-823A-553862C0BB8B}"/>
+    <hyperlink ref="D102" r:id="rId40" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15245&amp;ns=ncit" xr:uid="{B0227C52-5A21-B746-92BA-45FC129C985E}"/>
+    <hyperlink ref="D103" r:id="rId41" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{37B22110-B0C2-5D44-8386-0A8164E33FEC}"/>
+    <hyperlink ref="D104" r:id="rId42" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71486&amp;ns=ncit" xr:uid="{0C08005F-132B-A04E-A1B0-B278A7B08E2C}"/>
+    <hyperlink ref="D105" r:id="rId43" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
+    <hyperlink ref="D106" r:id="rId44" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
+    <hyperlink ref="D107" r:id="rId45" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
+    <hyperlink ref="D395" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
+    <hyperlink ref="D396" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
+    <hyperlink ref="D397" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
+    <hyperlink ref="D398" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
+    <hyperlink ref="D399" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
+    <hyperlink ref="H299" r:id="rId51" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
+    <hyperlink ref="H393" r:id="rId52" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
+    <hyperlink ref="H109" r:id="rId53" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
+    <hyperlink ref="D34" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C157352" xr:uid="{7714E1A1-7F57-1F45-8626-96AC1D085731}"/>
+    <hyperlink ref="D35" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171525" xr:uid="{13669423-9FB2-DD4E-8C39-68B1F003F7CB}"/>
+    <hyperlink ref="D36" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C175574" xr:uid="{90BF3119-C866-924C-8E68-7900AA0837E5}"/>
+    <hyperlink ref="D37" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25170" xr:uid="{637F8517-0017-6B4A-A6A6-6A2C1CDA96F7}"/>
+    <hyperlink ref="D38" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171533" xr:uid="{17E2142A-6445-8D43-A175-DC269B4C5CEA}"/>
+    <hyperlink ref="D39" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171537" xr:uid="{F1D2B3B5-06D9-7C40-9BBF-8CD9979E4ECF}"/>
+    <hyperlink ref="D40" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C177933" xr:uid="{4F6A7314-DC4A-7246-BC6F-7E7269CFD597}"/>
+    <hyperlink ref="D41" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171524" xr:uid="{83D5DD2A-59AC-9948-90FA-A4FFAFE8D069}"/>
+    <hyperlink ref="D42" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70805" xr:uid="{D33CB886-CF31-7843-AE22-D54171665381}"/>
+    <hyperlink ref="D46" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102647" xr:uid="{44D05BA5-1E98-244B-96EC-6073BB959C19}"/>
+    <hyperlink ref="D47" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C127785" xr:uid="{318AD07F-92AB-EC42-98C7-C2D35EAB9342}"/>
+    <hyperlink ref="D48" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16281" xr:uid="{7A79D0CA-826D-BA49-AD38-6052E8F5392F}"/>
+    <hyperlink ref="D49" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16696" xr:uid="{FF23189B-1787-4C4C-91C5-B33F78BA6A12}"/>
+    <hyperlink ref="D50" r:id="rId67" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C21541" xr:uid="{907FFECE-97C5-5845-8C4E-AFF15E057628}"/>
+    <hyperlink ref="D51" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85862" xr:uid="{CDCCD88D-6689-7E4A-BD56-6BA1EE8407A0}"/>
+    <hyperlink ref="D52" r:id="rId69" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102650" xr:uid="{3DE33E90-640A-2245-B96C-0A06BA955F75}"/>
+    <hyperlink ref="D53" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102712" xr:uid="{26BF5053-59E4-E740-B051-911F13B4B00B}"/>
+    <hyperlink ref="D54" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181530" xr:uid="{EED3C904-B3C1-0942-A929-4D6612D64AA5}"/>
+    <hyperlink ref="D55" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C41206" xr:uid="{204CBA36-D182-1C40-9176-77EC89E3B351}"/>
+    <hyperlink ref="D56" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C18002" xr:uid="{132D4C5A-9677-E047-A0FB-560F2016E207}"/>
+    <hyperlink ref="D57" r:id="rId74" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C211570" xr:uid="{782115E4-C0E6-FA4A-AA49-A1D2FB77F090}"/>
+    <hyperlink ref="D58" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17556" xr:uid="{43943B98-60FB-C84A-8C90-79196C468CDF}"/>
+    <hyperlink ref="D59" r:id="rId76" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181529" xr:uid="{72B80A59-311D-D44D-AC6A-1328A7DF8BB9}"/>
+    <hyperlink ref="D60" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85863" xr:uid="{C49158AD-726E-2040-8E68-34783A4442BE}"/>
+    <hyperlink ref="D61" r:id="rId78" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102679" xr:uid="{C2491F0E-D764-2344-BCFA-00730A211E09}"/>
+    <hyperlink ref="D62" r:id="rId79" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17118" xr:uid="{AA595D72-F04C-3447-9CC4-186E0CC4ED55}"/>
+    <hyperlink ref="D63" r:id="rId80" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C48953" xr:uid="{5E4D3C00-0CB7-054B-9610-8DFBDCB4B7E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId86"/>
+  <drawing r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -10801,60 +10920,60 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -10862,18 +10981,18 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>17</v>
@@ -10890,18 +11009,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>15</v>
@@ -10918,18 +11037,18 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
@@ -10946,18 +11065,18 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>19</v>
@@ -10974,18 +11093,18 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>23</v>
@@ -11004,82 +11123,82 @@
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -11100,37 +11219,37 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -11145,118 +11264,118 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C39" s="4"/>
     </row>

--- a/ct.xlsx
+++ b/ct.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/infographics/usdm_ct_infographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0172674F-A3B0-9648-A475-3515FABE0679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA315AF4-F88E-3044-AEF3-FF8E30DB5331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17400" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
+    <workbookView xWindow="-25760" yWindow="500" windowWidth="25760" windowHeight="17400" xr2:uid="{4EFD5AF7-E009-9C48-949E-E7F76E68FB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Codelist Extensible_x0009_Codelist Na" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$414</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="707">
   <si>
     <t>C16084</t>
   </si>
@@ -2146,13 +2149,25 @@
   </si>
   <si>
     <t>Fixed Reference Timing Type</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Extensible</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2221,8 +2236,23 @@
       <name val="Aptos Display"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2253,8 +2283,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2277,11 +2313,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2337,6 +2386,28 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2360,7 +2431,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2415,7 +2486,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2470,7 +2541,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2525,7 +2596,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2580,7 +2651,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2635,7 +2706,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2690,7 +2761,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2745,7 +2816,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2800,7 +2871,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2855,7 +2926,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2910,7 +2981,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2965,7 +3036,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3020,7 +3091,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3075,7 +3146,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3446,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94479E8-6944-C345-8953-69A0AF0635D7}">
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3460,50 +3531,54 @@
     <col min="4" max="4" width="10.83203125" style="4"/>
     <col min="5" max="5" width="74" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="17" customWidth="1"/>
     <col min="8" max="8" width="74.33203125" customWidth="1"/>
     <col min="9" max="9" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="6" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H2" s="31" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>188</v>
       </c>
@@ -3511,13 +3586,15 @@
         <v>411</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -3527,31 +3604,27 @@
         <v>411</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="18"/>
       <c r="G4" s="16"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>411</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>447</v>
-      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3562,16 +3635,18 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>188</v>
       </c>
@@ -3579,15 +3654,15 @@
         <v>189</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>434</v>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -3598,10 +3673,10 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="16"/>
@@ -3615,31 +3690,29 @@
         <v>189</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>448</v>
-      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -3650,16 +3723,18 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>188</v>
       </c>
@@ -3667,15 +3742,15 @@
         <v>192</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>194</v>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -3686,10 +3761,10 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="16"/>
@@ -3703,31 +3778,29 @@
         <v>192</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="16"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>449</v>
-      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -3738,16 +3811,18 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -3755,15 +3830,15 @@
         <v>198</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>200</v>
+      <c r="D17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -3773,31 +3848,29 @@
         <v>198</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="16"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>414</v>
+        <v>197</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>415</v>
+        <v>198</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>450</v>
-      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -3808,16 +3881,18 @@
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>414</v>
       </c>
@@ -3825,13 +3900,15 @@
         <v>415</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3841,31 +3918,27 @@
         <v>415</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="18"/>
       <c r="G22" s="16"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>414</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>451</v>
-      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -3876,16 +3949,18 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>414</v>
       </c>
@@ -3893,13 +3968,15 @@
         <v>416</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
@@ -3909,31 +3986,27 @@
         <v>416</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="18"/>
       <c r="G26" s="16"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>452</v>
-      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -3944,16 +4017,18 @@
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>417</v>
       </c>
@@ -3961,15 +4036,15 @@
         <v>418</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>437</v>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F29" s="18"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -3980,10 +4055,10 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16"/>
@@ -3997,31 +4072,29 @@
         <v>418</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="16"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>201</v>
+        <v>417</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>453</v>
-      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -4032,16 +4105,18 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>201</v>
       </c>
@@ -4049,15 +4124,15 @@
         <v>412</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>507</v>
+      <c r="D34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="24"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -4068,10 +4143,10 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="16"/>
@@ -4086,10 +4161,10 @@
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="16"/>
@@ -4104,10 +4179,10 @@
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="16"/>
@@ -4122,10 +4197,10 @@
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="16"/>
@@ -4140,10 +4215,10 @@
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="16"/>
@@ -4158,10 +4233,10 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="16"/>
@@ -4176,10 +4251,10 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="16"/>
@@ -4194,10 +4269,10 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="16"/>
@@ -4211,31 +4286,29 @@
         <v>412</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="F43" s="18"/>
       <c r="G43" s="16"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>454</v>
-      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
@@ -4246,16 +4319,18 @@
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>201</v>
       </c>
@@ -4263,15 +4338,15 @@
         <v>413</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>525</v>
+      <c r="D46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F46" s="18"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="24"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
@@ -4282,10 +4357,10 @@
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="16"/>
@@ -4300,10 +4375,10 @@
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="16"/>
@@ -4318,10 +4393,10 @@
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="16"/>
@@ -4336,10 +4411,10 @@
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>530</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>139</v>
+        <v>531</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="16"/>
@@ -4354,10 +4429,10 @@
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="2" t="s">
-        <v>532</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>533</v>
+        <v>139</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="16"/>
@@ -4372,10 +4447,10 @@
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="16"/>
@@ -4390,10 +4465,10 @@
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="16"/>
@@ -4408,10 +4483,10 @@
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="16"/>
@@ -4426,10 +4501,10 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="16"/>
@@ -4444,10 +4519,10 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="16"/>
@@ -4462,10 +4537,10 @@
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="16"/>
@@ -4480,10 +4555,10 @@
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="16"/>
@@ -4498,10 +4573,10 @@
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="16"/>
@@ -4516,10 +4591,10 @@
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="16"/>
@@ -4534,10 +4609,10 @@
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="16"/>
@@ -4552,10 +4627,10 @@
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="16"/>
@@ -4570,10 +4645,10 @@
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="16"/>
@@ -4587,31 +4662,29 @@
         <v>413</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="F64" s="18"/>
       <c r="G64" s="16"/>
       <c r="H64" s="24"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>198</v>
+        <v>413</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>455</v>
-      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -4622,16 +4695,18 @@
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G66" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>201</v>
       </c>
@@ -4639,15 +4714,15 @@
         <v>198</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>203</v>
+      <c r="D67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F67" s="18"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="24"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
@@ -4657,31 +4732,29 @@
         <v>198</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
+      <c r="D68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F68" s="18"/>
       <c r="G68" s="16"/>
       <c r="H68" s="24"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>456</v>
-      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
@@ -4692,16 +4765,18 @@
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="18"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="19"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G70" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>204</v>
       </c>
@@ -4709,15 +4784,15 @@
         <v>205</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>207</v>
+      <c r="D71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="24"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
@@ -4728,10 +4803,10 @@
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="16"/>
@@ -4746,10 +4821,10 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="16"/>
@@ -4763,31 +4838,29 @@
         <v>205</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
+      <c r="D74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="F74" s="18"/>
       <c r="G74" s="16"/>
       <c r="H74" s="24"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E75" s="1"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="18"/>
-      <c r="G75" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>457</v>
-      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
@@ -4798,16 +4871,18 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="18"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G76" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>212</v>
       </c>
@@ -4815,15 +4890,15 @@
         <v>198</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="D77" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>214</v>
+      <c r="D77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F77" s="18"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="24"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="19"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
@@ -4834,10 +4909,10 @@
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="16"/>
@@ -4852,10 +4927,10 @@
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="16"/>
@@ -4869,31 +4944,29 @@
         <v>198</v>
       </c>
       <c r="C80" s="18"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
+      <c r="D80" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F80" s="18"/>
       <c r="G80" s="16"/>
       <c r="H80" s="24"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C81" s="18"/>
-      <c r="D81" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E81" s="1"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="18"/>
-      <c r="G81" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>458</v>
-      </c>
+      <c r="G81" s="16"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
@@ -4904,16 +4977,18 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="18"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="23"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G82" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>219</v>
       </c>
@@ -4921,15 +4996,15 @@
         <v>198</v>
       </c>
       <c r="C83" s="18"/>
-      <c r="D83" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>221</v>
+      <c r="D83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F83" s="18"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="24"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
@@ -4940,10 +5015,10 @@
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="16"/>
@@ -4958,10 +5033,10 @@
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="16"/>
@@ -4975,31 +5050,29 @@
         <v>198</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
+      <c r="D86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="F86" s="18"/>
       <c r="G86" s="16"/>
       <c r="H86" s="24"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>419</v>
+        <v>198</v>
       </c>
       <c r="C87" s="18"/>
-      <c r="D87" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E87" s="1"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="14"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>564</v>
-      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
@@ -5010,16 +5083,18 @@
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="18"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G88" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>408</v>
       </c>
@@ -5027,15 +5102,15 @@
         <v>419</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>570</v>
+      <c r="D89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F89" s="18"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="24"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="19"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
@@ -5046,10 +5121,10 @@
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="16"/>
@@ -5064,10 +5139,10 @@
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="16"/>
@@ -5082,10 +5157,10 @@
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="16"/>
@@ -5100,10 +5175,10 @@
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="16"/>
@@ -5117,31 +5192,29 @@
         <v>419</v>
       </c>
       <c r="C94" s="18"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="F94" s="18"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="24"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>408</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="18"/>
-      <c r="G95" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H95" s="23" t="s">
-        <v>460</v>
-      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
@@ -5151,17 +5224,19 @@
         <v>409</v>
       </c>
       <c r="C96" s="18"/>
-      <c r="D96" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="18"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="23"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G96" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>408</v>
       </c>
@@ -5169,15 +5244,15 @@
         <v>409</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>87</v>
+      <c r="D97" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="2"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
@@ -5188,10 +5263,10 @@
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="16"/>
@@ -5206,10 +5281,10 @@
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="16"/>
@@ -5224,10 +5299,10 @@
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="2" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="16"/>
@@ -5242,10 +5317,10 @@
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="16"/>
@@ -5260,10 +5335,10 @@
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="16"/>
@@ -5278,10 +5353,10 @@
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="16"/>
@@ -5296,10 +5371,10 @@
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="16"/>
@@ -5314,10 +5389,10 @@
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="16"/>
@@ -5332,10 +5407,10 @@
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="16"/>
@@ -5350,16 +5425,16 @@
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="16"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>408</v>
       </c>
@@ -5367,8 +5442,12 @@
         <v>409</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="D108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F108" s="18"/>
       <c r="G108" s="16"/>
       <c r="H108" s="2"/>
@@ -5378,20 +5457,14 @@
         <v>408</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="D109" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="18"/>
-      <c r="G109" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>461</v>
-      </c>
+      <c r="G109" s="16"/>
+      <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
@@ -5402,16 +5475,18 @@
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="18"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G110" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>408</v>
       </c>
@@ -5419,15 +5494,15 @@
         <v>420</v>
       </c>
       <c r="C111" s="18"/>
-      <c r="D111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>17</v>
+      <c r="D111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F111" s="18"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="2"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
@@ -5438,10 +5513,10 @@
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="16"/>
@@ -5456,10 +5531,10 @@
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="16"/>
@@ -5474,10 +5549,10 @@
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="16"/>
@@ -5492,10 +5567,10 @@
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="16"/>
@@ -5509,31 +5584,29 @@
         <v>420</v>
       </c>
       <c r="C116" s="18"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F116" s="18"/>
       <c r="G116" s="16"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>408</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="1"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="18"/>
-      <c r="G117" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H117" s="22" t="s">
-        <v>464</v>
-      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
@@ -5544,16 +5617,18 @@
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="18"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G118" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>408</v>
       </c>
@@ -5561,15 +5636,15 @@
         <v>244</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>25</v>
+      <c r="D119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F119" s="18"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="2"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
@@ -5580,10 +5655,10 @@
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F120" s="18"/>
       <c r="G120" s="16"/>
@@ -5598,10 +5673,10 @@
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F121" s="18"/>
       <c r="G121" s="16"/>
@@ -5616,10 +5691,10 @@
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F122" s="18"/>
       <c r="G122" s="16"/>
@@ -5634,10 +5709,10 @@
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="16"/>
@@ -5652,10 +5727,10 @@
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="16"/>
@@ -5670,10 +5745,10 @@
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="16"/>
@@ -5688,10 +5763,10 @@
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F126" s="18"/>
       <c r="G126" s="16"/>
@@ -5706,10 +5781,10 @@
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="16"/>
@@ -5724,10 +5799,10 @@
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="16"/>
@@ -5742,10 +5817,10 @@
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="16"/>
@@ -5760,10 +5835,10 @@
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="16"/>
@@ -5778,10 +5853,10 @@
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="16"/>
@@ -5796,10 +5871,10 @@
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="16"/>
@@ -5814,10 +5889,10 @@
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="16"/>
@@ -5832,10 +5907,10 @@
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F134" s="18"/>
       <c r="G134" s="16"/>
@@ -5850,10 +5925,10 @@
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F135" s="18"/>
       <c r="G135" s="16"/>
@@ -5868,10 +5943,10 @@
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="16"/>
@@ -5886,10 +5961,10 @@
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="16"/>
@@ -5904,10 +5979,10 @@
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="16"/>
@@ -5922,10 +5997,10 @@
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="16"/>
@@ -5940,10 +6015,10 @@
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F140" s="18"/>
       <c r="G140" s="16"/>
@@ -5958,10 +6033,10 @@
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="16"/>
@@ -5976,10 +6051,10 @@
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="16"/>
@@ -5994,10 +6069,10 @@
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F143" s="18"/>
       <c r="G143" s="16"/>
@@ -6012,10 +6087,10 @@
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F144" s="18"/>
       <c r="G144" s="16"/>
@@ -6030,10 +6105,10 @@
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F145" s="18"/>
       <c r="G145" s="16"/>
@@ -6048,10 +6123,10 @@
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F146" s="18"/>
       <c r="G146" s="16"/>
@@ -6066,10 +6141,10 @@
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F147" s="18"/>
       <c r="G147" s="16"/>
@@ -6084,10 +6159,10 @@
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="16"/>
@@ -6102,16 +6177,16 @@
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="16"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>408</v>
       </c>
@@ -6119,31 +6194,29 @@
         <v>244</v>
       </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="D150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F150" s="18"/>
       <c r="G150" s="16"/>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E151" s="1"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H151" s="26" t="s">
-        <v>575</v>
-      </c>
+      <c r="G151" s="16"/>
+      <c r="H151" s="2"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
@@ -6154,16 +6227,18 @@
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E152" s="1"/>
       <c r="F152" s="18"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="19"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G152" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H152" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>226</v>
       </c>
@@ -6171,15 +6246,15 @@
         <v>192</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>194</v>
+      <c r="D153" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F153" s="18"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="2"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
@@ -6190,10 +6265,10 @@
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="16"/>
@@ -6207,30 +6282,28 @@
         <v>192</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="14"/>
+      <c r="D155" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F155" s="18"/>
+      <c r="G155" s="16"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E156" s="1"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="14"/>
       <c r="F156" s="18"/>
-      <c r="G156" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H156" s="26" t="s">
-        <v>577</v>
-      </c>
+      <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
@@ -6241,16 +6314,18 @@
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="E157" s="1"/>
       <c r="F157" s="18"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="19"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G157" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>227</v>
       </c>
@@ -6258,15 +6333,15 @@
         <v>198</v>
       </c>
       <c r="C158" s="18"/>
-      <c r="D158" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>229</v>
+      <c r="D158" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F158" s="18"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="2"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="19"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
@@ -6277,10 +6352,10 @@
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="16"/>
@@ -6295,10 +6370,10 @@
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="16"/>
@@ -6313,10 +6388,10 @@
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="16"/>
@@ -6330,31 +6405,29 @@
         <v>198</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="14"/>
+      <c r="D162" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="F162" s="18"/>
       <c r="G162" s="16"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="D163" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E163" s="1"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="14"/>
       <c r="F163" s="18"/>
-      <c r="G163" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H163" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="G163" s="16"/>
+      <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
@@ -6365,16 +6438,18 @@
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="E164" s="1"/>
       <c r="F164" s="18"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="19"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G164" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H164" s="26" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>236</v>
       </c>
@@ -6382,15 +6457,15 @@
         <v>205</v>
       </c>
       <c r="C165" s="18"/>
-      <c r="D165" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>238</v>
+      <c r="D165" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F165" s="18"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="2"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="19"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
@@ -6401,10 +6476,10 @@
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="16"/>
@@ -6419,10 +6494,10 @@
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F167" s="18"/>
       <c r="G167" s="16"/>
@@ -6436,31 +6511,29 @@
         <v>205</v>
       </c>
       <c r="C168" s="18"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="14"/>
+      <c r="D168" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="F168" s="18"/>
       <c r="G168" s="16"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>420</v>
+        <v>205</v>
       </c>
       <c r="C169" s="18"/>
-      <c r="D169" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E169" s="1"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="14"/>
       <c r="F169" s="18"/>
-      <c r="G169" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H169" s="26" t="s">
-        <v>582</v>
-      </c>
+      <c r="G169" s="16"/>
+      <c r="H169" s="2"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
@@ -6471,16 +6544,18 @@
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="E170" s="1"/>
       <c r="F170" s="18"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="19"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G170" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H170" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>243</v>
       </c>
@@ -6488,15 +6563,15 @@
         <v>420</v>
       </c>
       <c r="C171" s="18"/>
-      <c r="D171" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>589</v>
+      <c r="D171" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F171" s="18"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="2"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="19"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
@@ -6507,10 +6582,10 @@
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F172" s="18"/>
       <c r="G172" s="16"/>
@@ -6525,10 +6600,10 @@
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F173" s="18"/>
       <c r="G173" s="16"/>
@@ -6543,10 +6618,10 @@
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F174" s="18"/>
       <c r="G174" s="16"/>
@@ -6561,10 +6636,10 @@
       </c>
       <c r="C175" s="18"/>
       <c r="D175" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F175" s="18"/>
       <c r="G175" s="16"/>
@@ -6579,10 +6654,10 @@
       </c>
       <c r="C176" s="18"/>
       <c r="D176" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F176" s="18"/>
       <c r="G176" s="16"/>
@@ -6596,31 +6671,29 @@
         <v>420</v>
       </c>
       <c r="C177" s="18"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>594</v>
+      </c>
       <c r="F177" s="18"/>
       <c r="G177" s="16"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E178" s="1"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="18"/>
-      <c r="G178" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H178" s="26" t="s">
-        <v>596</v>
-      </c>
+      <c r="G178" s="16"/>
+      <c r="H178" s="2"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
@@ -6631,16 +6704,18 @@
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="E179" s="1"/>
       <c r="F179" s="18"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="19"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G179" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H179" s="26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>243</v>
       </c>
@@ -6648,15 +6723,15 @@
         <v>421</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>599</v>
+      <c r="D180" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F180" s="18"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="2"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="19"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
@@ -6667,10 +6742,10 @@
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F181" s="18"/>
       <c r="G181" s="16"/>
@@ -6684,31 +6759,29 @@
         <v>421</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="F182" s="18"/>
       <c r="G182" s="16"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>244</v>
+        <v>421</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E183" s="1"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="18"/>
-      <c r="G183" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H183" s="26" t="s">
-        <v>601</v>
-      </c>
+      <c r="G183" s="16"/>
+      <c r="H183" s="2"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
@@ -6719,16 +6792,18 @@
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="E184" s="1"/>
       <c r="F184" s="18"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="19"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G184" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H184" s="26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>243</v>
       </c>
@@ -6736,15 +6811,15 @@
         <v>244</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>246</v>
+      <c r="D185" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F185" s="18"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="2"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="19"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
@@ -6755,10 +6830,10 @@
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F186" s="18"/>
       <c r="G186" s="16"/>
@@ -6773,10 +6848,10 @@
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F187" s="18"/>
       <c r="G187" s="16"/>
@@ -6791,10 +6866,10 @@
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F188" s="18"/>
       <c r="G188" s="16"/>
@@ -6809,10 +6884,10 @@
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F189" s="18"/>
       <c r="G189" s="16"/>
@@ -6827,10 +6902,10 @@
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F190" s="18"/>
       <c r="G190" s="16"/>
@@ -6845,10 +6920,10 @@
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="2" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F191" s="18"/>
       <c r="G191" s="16"/>
@@ -6863,10 +6938,10 @@
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F192" s="18"/>
       <c r="G192" s="16"/>
@@ -6880,31 +6955,29 @@
         <v>244</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="14"/>
+      <c r="D193" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="F193" s="18"/>
       <c r="G193" s="16"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>422</v>
+        <v>244</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E194" s="1"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="14"/>
       <c r="F194" s="18"/>
-      <c r="G194" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H194" s="26" t="s">
-        <v>604</v>
-      </c>
+      <c r="G194" s="16"/>
+      <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
@@ -6915,16 +6988,18 @@
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="E195" s="1"/>
       <c r="F195" s="18"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="19"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G195" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H195" s="26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>243</v>
       </c>
@@ -6932,15 +7007,15 @@
         <v>422</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>608</v>
+      <c r="D196" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F196" s="18"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="2"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="19"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
@@ -6951,10 +7026,10 @@
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F197" s="18"/>
       <c r="G197" s="16"/>
@@ -6969,10 +7044,10 @@
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F198" s="18"/>
       <c r="G198" s="16"/>
@@ -6986,31 +7061,29 @@
         <v>422</v>
       </c>
       <c r="C199" s="18"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
+      <c r="D199" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="F199" s="18"/>
       <c r="G199" s="16"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E200" s="1"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="18"/>
-      <c r="G200" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H200" s="19" t="s">
-        <v>465</v>
-      </c>
+      <c r="G200" s="16"/>
+      <c r="H200" s="2"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
@@ -7021,16 +7094,18 @@
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E201" s="1"/>
       <c r="F201" s="18"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G201" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>260</v>
       </c>
@@ -7038,15 +7113,15 @@
         <v>198</v>
       </c>
       <c r="C202" s="18"/>
-      <c r="D202" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>135</v>
+      <c r="D202" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F202" s="18"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="2"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
@@ -7057,10 +7132,10 @@
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="16"/>
@@ -7075,10 +7150,10 @@
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="16"/>
@@ -7093,10 +7168,10 @@
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F205" s="18"/>
       <c r="G205" s="16"/>
@@ -7111,10 +7186,10 @@
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="16"/>
@@ -7129,10 +7204,10 @@
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F207" s="18"/>
       <c r="G207" s="16"/>
@@ -7147,10 +7222,10 @@
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F208" s="18"/>
       <c r="G208" s="16"/>
@@ -7165,10 +7240,10 @@
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="16"/>
@@ -7183,10 +7258,10 @@
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="2" t="s">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F210" s="18"/>
       <c r="G210" s="16"/>
@@ -7200,31 +7275,29 @@
         <v>198</v>
       </c>
       <c r="C211" s="18"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="14"/>
+      <c r="D211" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F211" s="18"/>
       <c r="G211" s="16"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>424</v>
+        <v>198</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E212" s="1"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="14"/>
       <c r="F212" s="18"/>
-      <c r="G212" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H212" s="26" t="s">
-        <v>612</v>
-      </c>
+      <c r="G212" s="16"/>
+      <c r="H212" s="2"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
@@ -7235,16 +7308,18 @@
       </c>
       <c r="C213" s="18"/>
       <c r="D213" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="E213" s="1"/>
       <c r="F213" s="18"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="19"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G213" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H213" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>423</v>
       </c>
@@ -7252,15 +7327,15 @@
         <v>424</v>
       </c>
       <c r="C214" s="18"/>
-      <c r="D214" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>616</v>
+      <c r="D214" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F214" s="18"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="2"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="19"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
@@ -7271,10 +7346,10 @@
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F215" s="18"/>
       <c r="G215" s="16"/>
@@ -7289,10 +7364,10 @@
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F216" s="18"/>
       <c r="G216" s="16"/>
@@ -7306,31 +7381,29 @@
         <v>424</v>
       </c>
       <c r="C217" s="18"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
+      <c r="D217" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="F217" s="18"/>
       <c r="G217" s="16"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
-        <v>262</v>
+        <v>423</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>263</v>
+        <v>424</v>
       </c>
       <c r="C218" s="18"/>
-      <c r="D218" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="E218" s="1"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
       <c r="F218" s="18"/>
-      <c r="G218" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H218" s="26" t="s">
-        <v>619</v>
-      </c>
+      <c r="G218" s="16"/>
+      <c r="H218" s="2"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
@@ -7341,16 +7414,18 @@
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E219" s="1"/>
       <c r="F219" s="18"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="19"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G219" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H219" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>262</v>
       </c>
@@ -7358,15 +7433,15 @@
         <v>263</v>
       </c>
       <c r="C220" s="18"/>
-      <c r="D220" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>265</v>
+      <c r="D220" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F220" s="18"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="2"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
@@ -7377,10 +7452,10 @@
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F221" s="18"/>
       <c r="G221" s="16"/>
@@ -7394,31 +7469,29 @@
         <v>263</v>
       </c>
       <c r="C222" s="18"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="14"/>
+      <c r="D222" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="F222" s="18"/>
       <c r="G222" s="16"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="C223" s="18"/>
-      <c r="D223" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E223" s="1"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="14"/>
       <c r="F223" s="18"/>
-      <c r="G223" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H223" s="26" t="s">
-        <v>622</v>
-      </c>
+      <c r="G223" s="16"/>
+      <c r="H223" s="2"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
@@ -7429,14 +7502,16 @@
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E224" s="1"/>
       <c r="F224" s="18"/>
-      <c r="G224" s="6"/>
-      <c r="H224" s="6"/>
+      <c r="G224" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H224" s="26" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
@@ -7446,15 +7521,17 @@
         <v>426</v>
       </c>
       <c r="C225" s="18"/>
-      <c r="D225" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E225" s="2"/>
+      <c r="D225" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F225" s="18"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>425</v>
       </c>
@@ -7462,31 +7539,27 @@
         <v>426</v>
       </c>
       <c r="C226" s="18"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="2" t="s">
+        <v>623</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="18"/>
-      <c r="G226" s="16"/>
-      <c r="H226" s="2"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>268</v>
+        <v>425</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>198</v>
+        <v>426</v>
       </c>
       <c r="C227" s="18"/>
-      <c r="D227" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E227" s="1"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
       <c r="F227" s="18"/>
-      <c r="G227" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H227" s="19" t="s">
-        <v>466</v>
-      </c>
+      <c r="G227" s="16"/>
+      <c r="H227" s="2"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
@@ -7497,16 +7570,18 @@
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="E228" s="1"/>
       <c r="F228" s="18"/>
-      <c r="G228" s="6"/>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G228" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H228" s="19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>268</v>
       </c>
@@ -7514,15 +7589,15 @@
         <v>198</v>
       </c>
       <c r="C229" s="18"/>
-      <c r="D229" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>270</v>
+      <c r="D229" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F229" s="18"/>
-      <c r="G229" s="16"/>
-      <c r="H229" s="2"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
@@ -7533,10 +7608,10 @@
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="16"/>
@@ -7550,31 +7625,29 @@
         <v>198</v>
       </c>
       <c r="C231" s="18"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="14"/>
+      <c r="D231" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="F231" s="18"/>
       <c r="G231" s="16"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C232" s="18"/>
-      <c r="D232" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E232" s="1"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="14"/>
       <c r="F232" s="18"/>
-      <c r="G232" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H232" s="19" t="s">
-        <v>467</v>
-      </c>
+      <c r="G232" s="16"/>
+      <c r="H232" s="2"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
@@ -7585,16 +7658,18 @@
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="E233" s="1"/>
       <c r="F233" s="18"/>
-      <c r="G233" s="6"/>
-      <c r="H233" s="6"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G233" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H233" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>273</v>
       </c>
@@ -7602,15 +7677,15 @@
         <v>198</v>
       </c>
       <c r="C234" s="18"/>
-      <c r="D234" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>275</v>
+      <c r="D234" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F234" s="18"/>
-      <c r="G234" s="16"/>
-      <c r="H234" s="2"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
@@ -7621,10 +7696,10 @@
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F235" s="18"/>
       <c r="G235" s="16"/>
@@ -7639,10 +7714,10 @@
       </c>
       <c r="C236" s="18"/>
       <c r="D236" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="16"/>
@@ -7657,10 +7732,10 @@
       </c>
       <c r="C237" s="18"/>
       <c r="D237" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="16"/>
@@ -7674,31 +7749,29 @@
         <v>198</v>
       </c>
       <c r="C238" s="18"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="14"/>
+      <c r="D238" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F238" s="18"/>
       <c r="G238" s="16"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C239" s="18"/>
-      <c r="D239" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E239" s="1"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="14"/>
       <c r="F239" s="18"/>
-      <c r="G239" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H239" s="19" t="s">
-        <v>468</v>
-      </c>
+      <c r="G239" s="16"/>
+      <c r="H239" s="2"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
@@ -7709,16 +7782,18 @@
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="E240" s="1"/>
       <c r="F240" s="18"/>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G240" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H240" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>282</v>
       </c>
@@ -7726,15 +7801,15 @@
         <v>263</v>
       </c>
       <c r="C241" s="18"/>
-      <c r="D241" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>284</v>
+      <c r="D241" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F241" s="18"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="2"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
@@ -7745,10 +7820,10 @@
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F242" s="18"/>
       <c r="G242" s="16"/>
@@ -7763,10 +7838,10 @@
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F243" s="18"/>
       <c r="G243" s="16"/>
@@ -7781,10 +7856,10 @@
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="16"/>
@@ -7799,10 +7874,10 @@
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="16"/>
@@ -7817,10 +7892,10 @@
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="16"/>
@@ -7835,10 +7910,10 @@
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F247" s="18"/>
       <c r="G247" s="16"/>
@@ -7853,10 +7928,10 @@
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F248" s="18"/>
       <c r="G248" s="16"/>
@@ -7871,10 +7946,10 @@
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F249" s="18"/>
       <c r="G249" s="16"/>
@@ -7889,10 +7964,10 @@
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F250" s="18"/>
       <c r="G250" s="16"/>
@@ -7907,10 +7982,10 @@
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F251" s="18"/>
       <c r="G251" s="16"/>
@@ -7925,10 +8000,10 @@
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F252" s="18"/>
       <c r="G252" s="16"/>
@@ -7943,10 +8018,10 @@
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F253" s="18"/>
       <c r="G253" s="16"/>
@@ -7961,10 +8036,10 @@
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F254" s="18"/>
       <c r="G254" s="16"/>
@@ -7979,10 +8054,10 @@
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="2" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="F255" s="18"/>
       <c r="G255" s="16"/>
@@ -7996,31 +8071,29 @@
         <v>263</v>
       </c>
       <c r="C256" s="18"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="14"/>
+      <c r="D256" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F256" s="18"/>
       <c r="G256" s="16"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C257" s="18"/>
-      <c r="D257" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E257" s="1"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="14"/>
       <c r="F257" s="18"/>
-      <c r="G257" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H257" s="26" t="s">
-        <v>624</v>
-      </c>
+      <c r="G257" s="16"/>
+      <c r="H257" s="2"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
@@ -8031,16 +8104,18 @@
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E258" s="1"/>
       <c r="F258" s="18"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="19"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G258" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H258" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>311</v>
       </c>
@@ -8048,15 +8123,15 @@
         <v>312</v>
       </c>
       <c r="C259" s="18"/>
-      <c r="D259" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>316</v>
+      <c r="D259" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F259" s="18"/>
-      <c r="G259" s="16"/>
-      <c r="H259" s="2"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="19"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
@@ -8067,10 +8142,10 @@
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F260" s="18"/>
       <c r="G260" s="16"/>
@@ -8085,10 +8160,10 @@
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>627</v>
+        <v>314</v>
       </c>
       <c r="F261" s="18"/>
       <c r="G261" s="16"/>
@@ -8103,10 +8178,10 @@
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>319</v>
+        <v>627</v>
       </c>
       <c r="F262" s="18"/>
       <c r="G262" s="16"/>
@@ -8121,10 +8196,10 @@
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="2" t="s">
-        <v>626</v>
+        <v>318</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>628</v>
+        <v>319</v>
       </c>
       <c r="F263" s="18"/>
       <c r="G263" s="16"/>
@@ -8138,31 +8213,29 @@
         <v>312</v>
       </c>
       <c r="C264" s="18"/>
-      <c r="D264" s="13"/>
-      <c r="E264" s="14"/>
+      <c r="D264" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>628</v>
+      </c>
       <c r="F264" s="18"/>
       <c r="G264" s="16"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C265" s="18"/>
-      <c r="D265" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E265" s="1"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="14"/>
       <c r="F265" s="18"/>
-      <c r="G265" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H265" s="26" t="s">
-        <v>630</v>
-      </c>
+      <c r="G265" s="16"/>
+      <c r="H265" s="2"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
@@ -8173,16 +8246,18 @@
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="E266" s="1"/>
       <c r="F266" s="18"/>
-      <c r="G266" s="6"/>
-      <c r="H266" s="19"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G266" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H266" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>311</v>
       </c>
@@ -8190,15 +8265,15 @@
         <v>198</v>
       </c>
       <c r="C267" s="18"/>
-      <c r="D267" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>638</v>
+      <c r="D267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F267" s="18"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="2"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="19"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
@@ -8209,10 +8284,10 @@
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F268" s="18"/>
       <c r="G268" s="16"/>
@@ -8227,10 +8302,10 @@
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F269" s="18"/>
       <c r="G269" s="16"/>
@@ -8245,10 +8320,10 @@
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F270" s="18"/>
       <c r="G270" s="16"/>
@@ -8263,10 +8338,10 @@
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F271" s="18"/>
       <c r="G271" s="16"/>
@@ -8281,10 +8356,10 @@
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F272" s="18"/>
       <c r="G272" s="16"/>
@@ -8299,10 +8374,10 @@
       </c>
       <c r="C273" s="18"/>
       <c r="D273" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F273" s="18"/>
       <c r="G273" s="16"/>
@@ -8316,31 +8391,29 @@
         <v>198</v>
       </c>
       <c r="C274" s="18"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
+      <c r="D274" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="F274" s="18"/>
       <c r="G274" s="16"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C275" s="18"/>
-      <c r="D275" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E275" s="1"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
       <c r="F275" s="18"/>
-      <c r="G275" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H275" s="19" t="s">
-        <v>469</v>
-      </c>
+      <c r="G275" s="16"/>
+      <c r="H275" s="2"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
@@ -8351,16 +8424,18 @@
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="E276" s="1"/>
       <c r="F276" s="18"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="19"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G276" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H276" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>320</v>
       </c>
@@ -8368,17 +8443,17 @@
         <v>198</v>
       </c>
       <c r="C277" s="18"/>
-      <c r="D277" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>120</v>
+      <c r="D277" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F277" s="18"/>
-      <c r="G277" s="16"/>
-      <c r="H277" s="2"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G277" s="6"/>
+      <c r="H277" s="19"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>320</v>
       </c>
@@ -8386,31 +8461,29 @@
         <v>198</v>
       </c>
       <c r="C278" s="18"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
+      <c r="D278" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F278" s="18"/>
       <c r="G278" s="16"/>
       <c r="H278" s="2"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="C279" s="18"/>
-      <c r="D279" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E279" s="1"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
       <c r="F279" s="18"/>
-      <c r="G279" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H279" s="19" t="s">
-        <v>470</v>
-      </c>
+      <c r="G279" s="16"/>
+      <c r="H279" s="2"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
@@ -8421,16 +8494,18 @@
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E280" s="1"/>
       <c r="F280" s="18"/>
-      <c r="G280" s="20"/>
-      <c r="H280" s="19"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G280" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H280" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>321</v>
       </c>
@@ -8438,15 +8513,15 @@
         <v>322</v>
       </c>
       <c r="C281" s="18"/>
-      <c r="D281" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>122</v>
+      <c r="D281" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F281" s="18"/>
-      <c r="G281" s="16"/>
-      <c r="H281" s="2"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="19"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
@@ -8457,10 +8532,10 @@
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F282" s="18"/>
       <c r="G282" s="16"/>
@@ -8475,10 +8550,10 @@
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F283" s="18"/>
       <c r="G283" s="16"/>
@@ -8493,10 +8568,10 @@
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F284" s="18"/>
       <c r="G284" s="16"/>
@@ -8511,10 +8586,10 @@
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F285" s="18"/>
       <c r="G285" s="16"/>
@@ -8528,31 +8603,29 @@
         <v>322</v>
       </c>
       <c r="C286" s="18"/>
-      <c r="D286" s="13"/>
-      <c r="E286" s="14"/>
+      <c r="D286" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F286" s="18"/>
       <c r="G286" s="16"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C287" s="18"/>
-      <c r="D287" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E287" s="1"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="14"/>
       <c r="F287" s="18"/>
-      <c r="G287" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H287" s="19" t="s">
-        <v>459</v>
-      </c>
+      <c r="G287" s="16"/>
+      <c r="H287" s="2"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
@@ -8563,16 +8636,18 @@
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E288" s="1"/>
       <c r="F288" s="18"/>
-      <c r="G288" s="20"/>
-      <c r="H288" s="19"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G288" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H288" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>323</v>
       </c>
@@ -8580,15 +8655,15 @@
         <v>324</v>
       </c>
       <c r="C289" s="18"/>
-      <c r="D289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>12</v>
+      <c r="D289" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F289" s="18"/>
-      <c r="G289" s="16"/>
-      <c r="H289" s="2"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="19"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
@@ -8599,10 +8674,10 @@
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F290" s="18"/>
       <c r="G290" s="16"/>
@@ -8617,10 +8692,10 @@
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F291" s="18"/>
       <c r="G291" s="16"/>
@@ -8635,10 +8710,10 @@
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="2" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="F292" s="18"/>
       <c r="G292" s="16"/>
@@ -8653,10 +8728,10 @@
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="16"/>
@@ -8671,10 +8746,10 @@
       </c>
       <c r="C294" s="18"/>
       <c r="D294" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="16"/>
@@ -8689,10 +8764,10 @@
       </c>
       <c r="C295" s="18"/>
       <c r="D295" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F295" s="18"/>
       <c r="G295" s="16"/>
@@ -8707,10 +8782,10 @@
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="16"/>
@@ -8725,10 +8800,10 @@
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="16"/>
@@ -8742,31 +8817,29 @@
         <v>324</v>
       </c>
       <c r="C298" s="18"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="14"/>
+      <c r="D298" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="F298" s="18"/>
       <c r="G298" s="16"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="C299" s="18"/>
-      <c r="D299" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E299" s="1"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="14"/>
       <c r="F299" s="18"/>
-      <c r="G299" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H299" s="19" t="s">
-        <v>462</v>
-      </c>
+      <c r="G299" s="16"/>
+      <c r="H299" s="2"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
@@ -8777,16 +8850,18 @@
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E300" s="1"/>
       <c r="F300" s="18"/>
-      <c r="G300" s="6"/>
-      <c r="H300" s="19"/>
-    </row>
-    <row r="301" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G300" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H300" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>323</v>
       </c>
@@ -8794,15 +8869,15 @@
         <v>410</v>
       </c>
       <c r="C301" s="18"/>
-      <c r="D301" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>154</v>
+      <c r="D301" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F301" s="18"/>
-      <c r="G301" s="16"/>
-      <c r="H301" s="2"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="19"/>
     </row>
     <row r="302" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
@@ -8813,10 +8888,10 @@
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F302" s="18"/>
       <c r="G302" s="16"/>
@@ -8831,10 +8906,10 @@
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F303" s="18"/>
       <c r="G303" s="16"/>
@@ -8849,10 +8924,10 @@
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="16"/>
@@ -8867,10 +8942,10 @@
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="16"/>
@@ -8885,10 +8960,10 @@
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F306" s="18"/>
       <c r="G306" s="16"/>
@@ -8903,10 +8978,10 @@
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F307" s="18"/>
       <c r="G307" s="16"/>
@@ -8921,10 +8996,10 @@
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F308" s="18"/>
       <c r="G308" s="16"/>
@@ -8939,10 +9014,10 @@
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F309" s="18"/>
       <c r="G309" s="16"/>
@@ -8957,10 +9032,10 @@
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F310" s="18"/>
       <c r="G310" s="16"/>
@@ -8975,10 +9050,10 @@
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F311" s="18"/>
       <c r="G311" s="16"/>
@@ -8993,10 +9068,10 @@
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F312" s="18"/>
       <c r="G312" s="16"/>
@@ -9011,10 +9086,10 @@
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F313" s="18"/>
       <c r="G313" s="16"/>
@@ -9029,10 +9104,10 @@
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F314" s="18"/>
       <c r="G314" s="16"/>
@@ -9047,10 +9122,10 @@
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F315" s="18"/>
       <c r="G315" s="16"/>
@@ -9065,10 +9140,10 @@
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F316" s="18"/>
       <c r="G316" s="16"/>
@@ -9083,16 +9158,16 @@
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F317" s="18"/>
       <c r="G317" s="16"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>323</v>
       </c>
@@ -9100,31 +9175,29 @@
         <v>410</v>
       </c>
       <c r="C318" s="18"/>
-      <c r="D318" s="13"/>
-      <c r="E318" s="14"/>
+      <c r="D318" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="F318" s="18"/>
       <c r="G318" s="16"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>323</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C319" s="18"/>
-      <c r="D319" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E319" s="1"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="14"/>
       <c r="F319" s="18"/>
-      <c r="G319" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H319" s="19" t="s">
-        <v>463</v>
-      </c>
+      <c r="G319" s="16"/>
+      <c r="H319" s="2"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
@@ -9135,16 +9208,18 @@
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E320" s="1"/>
       <c r="F320" s="18"/>
-      <c r="G320" s="6"/>
-      <c r="H320" s="19"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G320" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H320" s="19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>323</v>
       </c>
@@ -9152,15 +9227,15 @@
         <v>407</v>
       </c>
       <c r="C321" s="18"/>
-      <c r="D321" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>1</v>
+      <c r="D321" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F321" s="18"/>
-      <c r="G321" s="16"/>
-      <c r="H321" s="2"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="19"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
@@ -9171,10 +9246,10 @@
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F322" s="18"/>
       <c r="G322" s="16"/>
@@ -9189,10 +9264,10 @@
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F323" s="18"/>
       <c r="G323" s="16"/>
@@ -9207,16 +9282,16 @@
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="16"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
         <v>323</v>
       </c>
@@ -9224,31 +9299,29 @@
         <v>407</v>
       </c>
       <c r="C325" s="18"/>
-      <c r="D325" s="12"/>
-      <c r="E325" s="12"/>
+      <c r="D325" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F325" s="18"/>
       <c r="G325" s="16"/>
       <c r="H325" s="2"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>427</v>
+        <v>323</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="C326" s="18"/>
-      <c r="D326" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="E326" s="1"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
       <c r="F326" s="18"/>
-      <c r="G326" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H326" s="26" t="s">
-        <v>676</v>
-      </c>
+      <c r="G326" s="16"/>
+      <c r="H326" s="2"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
@@ -9259,16 +9332,18 @@
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="E327" s="1"/>
       <c r="F327" s="18"/>
-      <c r="G327" s="6"/>
-      <c r="H327" s="19"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G327" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H327" s="26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>427</v>
       </c>
@@ -9276,15 +9351,15 @@
         <v>198</v>
       </c>
       <c r="C328" s="18"/>
-      <c r="D328" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>661</v>
+      <c r="D328" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F328" s="18"/>
-      <c r="G328" s="16"/>
-      <c r="H328" s="2"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="19"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
@@ -9295,10 +9370,10 @@
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F329" s="18"/>
       <c r="G329" s="16"/>
@@ -9313,10 +9388,10 @@
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F330" s="18"/>
       <c r="G330" s="16"/>
@@ -9331,10 +9406,10 @@
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="16"/>
@@ -9349,10 +9424,10 @@
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F332" s="18"/>
       <c r="G332" s="16"/>
@@ -9367,10 +9442,10 @@
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F333" s="18"/>
       <c r="G333" s="16"/>
@@ -9385,10 +9460,10 @@
       </c>
       <c r="C334" s="18"/>
       <c r="D334" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F334" s="18"/>
       <c r="G334" s="16"/>
@@ -9403,10 +9478,10 @@
       </c>
       <c r="C335" s="18"/>
       <c r="D335" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="16"/>
@@ -9421,10 +9496,10 @@
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="16"/>
@@ -9439,10 +9514,10 @@
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F337" s="18"/>
       <c r="G337" s="16"/>
@@ -9457,10 +9532,10 @@
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F338" s="18"/>
       <c r="G338" s="16"/>
@@ -9475,10 +9550,10 @@
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="16"/>
@@ -9493,10 +9568,10 @@
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F340" s="18"/>
       <c r="G340" s="16"/>
@@ -9511,10 +9586,10 @@
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="16"/>
@@ -9529,10 +9604,10 @@
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F342" s="18"/>
       <c r="G342" s="16"/>
@@ -9546,31 +9621,29 @@
         <v>198</v>
       </c>
       <c r="C343" s="18"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
+      <c r="D343" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="F343" s="18"/>
       <c r="G343" s="16"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C344" s="18"/>
-      <c r="D344" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E344" s="1"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
       <c r="F344" s="18"/>
-      <c r="G344" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H344" s="19" t="s">
-        <v>471</v>
-      </c>
+      <c r="G344" s="16"/>
+      <c r="H344" s="2"/>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
@@ -9581,16 +9654,18 @@
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="E345" s="1"/>
       <c r="F345" s="18"/>
-      <c r="G345" s="6"/>
-      <c r="H345" s="19"/>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G345" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H345" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>337</v>
       </c>
@@ -9598,15 +9673,15 @@
         <v>338</v>
       </c>
       <c r="C346" s="18"/>
-      <c r="D346" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>340</v>
+      <c r="D346" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F346" s="18"/>
-      <c r="G346" s="16"/>
-      <c r="H346" s="2"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="19"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
@@ -9617,16 +9692,16 @@
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="16"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>337</v>
       </c>
@@ -9635,15 +9710,14 @@
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="16"/>
       <c r="H348" s="2"/>
-      <c r="I348" s="4"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
@@ -9654,10 +9728,10 @@
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="16"/>
@@ -9673,17 +9747,17 @@
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="16"/>
       <c r="H350" s="2"/>
       <c r="I350" s="4"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>337</v>
       </c>
@@ -9692,14 +9766,15 @@
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="16"/>
       <c r="H351" s="2"/>
+      <c r="I351" s="4"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
@@ -9710,10 +9785,10 @@
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="16"/>
@@ -9728,10 +9803,10 @@
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="16"/>
@@ -9745,31 +9820,29 @@
         <v>338</v>
       </c>
       <c r="C354" s="18"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="14"/>
+      <c r="D354" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="F354" s="18"/>
       <c r="G354" s="16"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
         <v>337</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c r="C355" s="18"/>
-      <c r="D355" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E355" s="1"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="14"/>
       <c r="F355" s="18"/>
-      <c r="G355" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H355" s="19" t="s">
-        <v>472</v>
-      </c>
+      <c r="G355" s="16"/>
+      <c r="H355" s="2"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
@@ -9780,16 +9853,18 @@
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="E356" s="1"/>
       <c r="F356" s="18"/>
-      <c r="G356" s="6"/>
-      <c r="H356" s="19"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G356" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H356" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>337</v>
       </c>
@@ -9797,15 +9872,15 @@
         <v>198</v>
       </c>
       <c r="C357" s="18"/>
-      <c r="D357" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>688</v>
+      <c r="D357" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F357" s="18"/>
-      <c r="G357" s="16"/>
-      <c r="H357" s="2"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="19"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
@@ -9816,10 +9891,10 @@
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F358" s="18"/>
       <c r="G358" s="16"/>
@@ -9834,10 +9909,10 @@
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="16"/>
@@ -9852,10 +9927,10 @@
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="16"/>
@@ -9870,10 +9945,10 @@
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="2" t="s">
-        <v>345</v>
+        <v>682</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="16"/>
@@ -9888,10 +9963,10 @@
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="2" t="s">
-        <v>683</v>
+        <v>345</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="16"/>
@@ -9906,10 +9981,10 @@
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="16"/>
@@ -9924,10 +9999,10 @@
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="16"/>
@@ -9942,10 +10017,10 @@
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F365" s="18"/>
       <c r="G365" s="16"/>
@@ -9960,10 +10035,10 @@
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="16"/>
@@ -9977,31 +10052,29 @@
         <v>198</v>
       </c>
       <c r="C367" s="18"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
+      <c r="D367" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="F367" s="18"/>
       <c r="G367" s="16"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C368" s="18"/>
-      <c r="D368" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E368" s="1"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
       <c r="F368" s="18"/>
-      <c r="G368" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H368" s="19" t="s">
-        <v>473</v>
-      </c>
+      <c r="G368" s="16"/>
+      <c r="H368" s="2"/>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
@@ -10012,16 +10085,18 @@
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="E369" s="1"/>
       <c r="F369" s="18"/>
-      <c r="G369" s="20"/>
-      <c r="H369" s="19"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G369" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H369" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>355</v>
       </c>
@@ -10029,15 +10104,15 @@
         <v>263</v>
       </c>
       <c r="C370" s="18"/>
-      <c r="D370" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>357</v>
+      <c r="D370" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F370" s="18"/>
-      <c r="G370" s="16"/>
-      <c r="H370" s="2"/>
+      <c r="G370" s="20"/>
+      <c r="H370" s="19"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="9" t="s">
@@ -10048,10 +10123,10 @@
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F371" s="18"/>
       <c r="G371" s="16"/>
@@ -10066,10 +10141,10 @@
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F372" s="18"/>
       <c r="G372" s="16"/>
@@ -10084,10 +10159,10 @@
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="2" t="s">
-        <v>151</v>
+        <v>360</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="F373" s="18"/>
       <c r="G373" s="16"/>
@@ -10102,10 +10177,10 @@
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="2" t="s">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="16"/>
@@ -10120,10 +10195,10 @@
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="16"/>
@@ -10138,10 +10213,10 @@
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="16"/>
@@ -10156,10 +10231,10 @@
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="2" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="16"/>
@@ -10174,10 +10249,10 @@
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="2" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="F378" s="18"/>
       <c r="G378" s="16"/>
@@ -10192,10 +10267,10 @@
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="2" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F379" s="18"/>
       <c r="G379" s="16"/>
@@ -10210,10 +10285,10 @@
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="2" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F380" s="18"/>
       <c r="G380" s="16"/>
@@ -10228,10 +10303,10 @@
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F381" s="18"/>
       <c r="G381" s="16"/>
@@ -10246,10 +10321,10 @@
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F382" s="18"/>
       <c r="G382" s="16"/>
@@ -10264,10 +10339,10 @@
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F383" s="18"/>
       <c r="G383" s="16"/>
@@ -10282,10 +10357,10 @@
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F384" s="18"/>
       <c r="G384" s="16"/>
@@ -10300,10 +10375,10 @@
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F385" s="18"/>
       <c r="G385" s="16"/>
@@ -10318,10 +10393,10 @@
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F386" s="18"/>
       <c r="G386" s="16"/>
@@ -10336,10 +10411,10 @@
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="2" t="s">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="F387" s="18"/>
       <c r="G387" s="16"/>
@@ -10354,10 +10429,10 @@
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="2" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="F388" s="18"/>
       <c r="G388" s="16"/>
@@ -10372,10 +10447,10 @@
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F389" s="18"/>
       <c r="G389" s="16"/>
@@ -10390,10 +10465,10 @@
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F390" s="18"/>
       <c r="G390" s="16"/>
@@ -10408,10 +10483,10 @@
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F391" s="18"/>
       <c r="G391" s="16"/>
@@ -10425,31 +10500,29 @@
         <v>263</v>
       </c>
       <c r="C392" s="18"/>
-      <c r="D392" s="13"/>
-      <c r="E392" s="14"/>
+      <c r="D392" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="F392" s="18"/>
       <c r="G392" s="16"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C393" s="18"/>
-      <c r="D393" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E393" s="1"/>
+      <c r="D393" s="13"/>
+      <c r="E393" s="14"/>
       <c r="F393" s="18"/>
-      <c r="G393" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H393" s="19" t="s">
-        <v>474</v>
-      </c>
+      <c r="G393" s="16"/>
+      <c r="H393" s="2"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
@@ -10460,16 +10533,18 @@
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E394" s="1"/>
       <c r="F394" s="18"/>
-      <c r="G394" s="20"/>
-      <c r="H394" s="19"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G394" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H394" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>393</v>
       </c>
@@ -10477,15 +10552,15 @@
         <v>198</v>
       </c>
       <c r="C395" s="18"/>
-      <c r="D395" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>103</v>
+      <c r="D395" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F395" s="18"/>
-      <c r="G395" s="16"/>
-      <c r="H395" s="2"/>
+      <c r="G395" s="20"/>
+      <c r="H395" s="19"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
@@ -10496,10 +10571,10 @@
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F396" s="18"/>
       <c r="G396" s="16"/>
@@ -10514,10 +10589,10 @@
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F397" s="18"/>
       <c r="G397" s="16"/>
@@ -10532,10 +10607,10 @@
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F398" s="18"/>
       <c r="G398" s="16"/>
@@ -10550,16 +10625,16 @@
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F399" s="18"/>
       <c r="G399" s="16"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>393</v>
       </c>
@@ -10567,31 +10642,29 @@
         <v>198</v>
       </c>
       <c r="C400" s="18"/>
-      <c r="D400" s="12"/>
-      <c r="E400" s="12"/>
+      <c r="D400" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F400" s="18"/>
       <c r="G400" s="16"/>
       <c r="H400" s="2"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="C401" s="18"/>
-      <c r="D401" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E401" s="1"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="12"/>
       <c r="F401" s="18"/>
-      <c r="G401" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H401" s="19" t="s">
-        <v>475</v>
-      </c>
+      <c r="G401" s="16"/>
+      <c r="H401" s="2"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
@@ -10602,16 +10675,18 @@
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="E402" s="1"/>
       <c r="F402" s="18"/>
-      <c r="G402" s="6"/>
-      <c r="H402" s="19"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G402" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H402" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>394</v>
       </c>
@@ -10619,15 +10694,15 @@
         <v>395</v>
       </c>
       <c r="C403" s="18"/>
-      <c r="D403" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E403" s="2" t="s">
-        <v>397</v>
+      <c r="D403" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F403" s="18"/>
-      <c r="G403" s="16"/>
-      <c r="H403" s="2"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="19"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
@@ -10638,10 +10713,10 @@
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F404" s="18"/>
       <c r="G404" s="16"/>
@@ -10656,10 +10731,10 @@
       </c>
       <c r="C405" s="18"/>
       <c r="D405" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F405" s="18"/>
       <c r="G405" s="16"/>
@@ -10674,10 +10749,10 @@
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F406" s="18"/>
       <c r="G406" s="16"/>
@@ -10691,31 +10766,29 @@
         <v>395</v>
       </c>
       <c r="C407" s="18"/>
-      <c r="D407" s="13"/>
-      <c r="E407" s="14"/>
+      <c r="D407" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="F407" s="18"/>
       <c r="G407" s="16"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="C408" s="18"/>
-      <c r="D408" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E408" s="1"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="14"/>
       <c r="F408" s="18"/>
-      <c r="G408" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H408" s="19" t="s">
-        <v>476</v>
-      </c>
+      <c r="G408" s="16"/>
+      <c r="H408" s="2"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
@@ -10726,16 +10799,18 @@
       </c>
       <c r="C409" s="18"/>
       <c r="D409" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="E409" s="1"/>
       <c r="F409" s="18"/>
-      <c r="G409" s="6"/>
-      <c r="H409" s="19"/>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G409" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H409" s="19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>394</v>
       </c>
@@ -10743,15 +10818,15 @@
         <v>198</v>
       </c>
       <c r="C410" s="18"/>
-      <c r="D410" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>700</v>
+      <c r="D410" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F410" s="18"/>
-      <c r="G410" s="16"/>
-      <c r="H410" s="2"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="19"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
@@ -10762,10 +10837,10 @@
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F411" s="18"/>
       <c r="G411" s="16"/>
@@ -10780,10 +10855,10 @@
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F412" s="18"/>
       <c r="G412" s="16"/>
@@ -10797,106 +10872,125 @@
         <v>198</v>
       </c>
       <c r="C413" s="18"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
+      <c r="D413" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>702</v>
+      </c>
       <c r="F413" s="18"/>
       <c r="G413" s="16"/>
       <c r="H413" s="2"/>
     </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C414" s="18"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="18"/>
+      <c r="G414" s="16"/>
+      <c r="H414" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E436">
-    <sortCondition ref="A1:A436"/>
-    <sortCondition ref="B1:B436"/>
+  <autoFilter ref="A1:H414" xr:uid="{B94479E8-6944-C345-8953-69A0AF0635D7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E437">
+    <sortCondition ref="A2:A437"/>
+    <sortCondition ref="B2:B437"/>
   </sortState>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D249:D251" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TESTCD must be 8 characters or less" sqref="D250:D252" xr:uid="{37478FA6-4C76-BA4B-A92E-46A08444574B}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E308:E311 E246:E251" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="TEST must be 40 characters or less_x000a_" sqref="E309:E312 E247:E252" xr:uid="{8B09262B-7256-BE44-BDB3-7B702189347A}">
       <formula1>40</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D322" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
-    <hyperlink ref="D323" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
-    <hyperlink ref="D324" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
-    <hyperlink ref="D119" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
-    <hyperlink ref="D120" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
-    <hyperlink ref="D121" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
-    <hyperlink ref="D122" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{D1A6EBA8-5EB0-2C44-8CF1-4F32248BBABA}"/>
-    <hyperlink ref="D123" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{378AD94C-04DC-5141-AF38-82F17081A01D}"/>
-    <hyperlink ref="D124" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49664&amp;ns=ncit" xr:uid="{B622E711-2E06-3948-A337-ACDDDD41753D}"/>
-    <hyperlink ref="D125" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49663&amp;ns=ncit" xr:uid="{90FA3808-24C9-F64E-B64C-B4CA46192E89}"/>
-    <hyperlink ref="D126" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C178057&amp;ns=ncit" xr:uid="{3C761412-B393-ED44-91CF-9957D6558BDF}"/>
-    <hyperlink ref="D127" r:id="rId12" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158287&amp;ns=ncit" xr:uid="{6D32DDD1-AE98-2E43-BD7B-096D75610356}"/>
-    <hyperlink ref="D128" r:id="rId13" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49667&amp;ns=ncit" xr:uid="{F6EFDD48-09F8-0541-BDE0-483B76C2A992}"/>
-    <hyperlink ref="D129" r:id="rId14" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49666&amp;ns=ncit" xr:uid="{60CE0F0D-7279-7647-886C-207D5C6AEC81}"/>
-    <hyperlink ref="D130" r:id="rId15" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49665&amp;ns=ncit" xr:uid="{69F550B5-2198-BB4A-B840-175F41966649}"/>
-    <hyperlink ref="D131" r:id="rId16" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C39493&amp;ns=ncit" xr:uid="{C9D75BAB-3967-AA41-BC31-FB810A713DC9}"/>
-    <hyperlink ref="D132" r:id="rId17" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C201484&amp;ns=ncit" xr:uid="{D9B5CBEE-086F-144B-8881-E9423989DB5B}"/>
-    <hyperlink ref="D133" r:id="rId18" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C174366&amp;ns=ncit" xr:uid="{76398CA8-7DFE-074F-9615-77038545419E}"/>
-    <hyperlink ref="D134" r:id="rId19" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C120842&amp;ns=ncit" xr:uid="{F7CF6BD0-6EF9-3B46-BA28-45C1615F2957}"/>
-    <hyperlink ref="D135" r:id="rId20" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129001&amp;ns=ncit" xr:uid="{647C2A18-5BE0-EC46-83AE-FAC1A19B8480}"/>
-    <hyperlink ref="D136" r:id="rId21" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161477&amp;ns=ncit" xr:uid="{D3492A35-9EDA-2D44-8EBE-3EA2A26ADEEB}"/>
-    <hyperlink ref="D137" r:id="rId22" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161478&amp;ns=ncit" xr:uid="{877ACD3A-A6BC-6945-9A23-EF1F0ADBED65}"/>
-    <hyperlink ref="D138" r:id="rId23" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161479&amp;ns=ncit" xr:uid="{B6E0CA88-27D3-C147-9431-A79309BC526C}"/>
-    <hyperlink ref="D139" r:id="rId24" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161480&amp;ns=ncit" xr:uid="{D30181D7-62CC-3843-8EDD-94D3A7E828DC}"/>
-    <hyperlink ref="D140" r:id="rId25" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158283&amp;ns=ncit" xr:uid="{89C02071-8111-7A44-9B34-A21C17E266A7}"/>
-    <hyperlink ref="D141" r:id="rId26" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158284&amp;ns=ncit" xr:uid="{173FD762-EAC0-7941-BD4A-F2163B5EFBDB}"/>
-    <hyperlink ref="D142" r:id="rId27" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158290&amp;ns=ncit" xr:uid="{41363D12-A0AB-4442-96E2-F2EF89AF30A5}"/>
-    <hyperlink ref="D143" r:id="rId28" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158289&amp;ns=ncit" xr:uid="{4ED920F2-EC00-3740-A64A-34FEDA2E5C51}"/>
-    <hyperlink ref="D144" r:id="rId29" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158288&amp;ns=ncit" xr:uid="{C70BD844-68B5-1847-A926-2E32CDE28574}"/>
-    <hyperlink ref="D145" r:id="rId30" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158285&amp;ns=ncit" xr:uid="{074C134A-45D5-9D4D-9B57-8756AA2785F7}"/>
-    <hyperlink ref="D146" r:id="rId31" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158286&amp;ns=ncit" xr:uid="{A29F72E4-AE80-9C44-A9E5-33F34E1BB05D}"/>
-    <hyperlink ref="D147" r:id="rId32" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C127803&amp;ns=ncit" xr:uid="{2254B34B-2A80-F24A-A414-2F218796F0BE}"/>
-    <hyperlink ref="D148" r:id="rId33" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98729&amp;ns=ncit" xr:uid="{F1D3CE17-4BD1-4444-BE5E-0522D6C58FA0}"/>
-    <hyperlink ref="D149" r:id="rId34" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98791&amp;ns=ncit" xr:uid="{8A2DAB16-66B3-E448-93F8-2FCE9BDE458F}"/>
-    <hyperlink ref="D97" r:id="rId35" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15714&amp;ns=ncit" xr:uid="{556F5DC1-C1C8-2240-911F-A82212855285}"/>
-    <hyperlink ref="D98" r:id="rId36" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71485&amp;ns=ncit" xr:uid="{7505117A-A482-4243-85F9-0619C885AE2D}"/>
-    <hyperlink ref="D99" r:id="rId37" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C139174&amp;ns=ncit" xr:uid="{9D4684C2-55A0-EC4A-9C6D-38A561DA9672}"/>
-    <hyperlink ref="D100" r:id="rId38" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7F9BD7E2-D1B8-7E4A-879F-8EBF298EF875}"/>
-    <hyperlink ref="D101" r:id="rId39" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{8BAF591E-00BB-B64F-823A-553862C0BB8B}"/>
-    <hyperlink ref="D102" r:id="rId40" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15245&amp;ns=ncit" xr:uid="{B0227C52-5A21-B746-92BA-45FC129C985E}"/>
-    <hyperlink ref="D103" r:id="rId41" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{37B22110-B0C2-5D44-8386-0A8164E33FEC}"/>
-    <hyperlink ref="D104" r:id="rId42" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71486&amp;ns=ncit" xr:uid="{0C08005F-132B-A04E-A1B0-B278A7B08E2C}"/>
-    <hyperlink ref="D105" r:id="rId43" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
-    <hyperlink ref="D106" r:id="rId44" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
-    <hyperlink ref="D107" r:id="rId45" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
-    <hyperlink ref="D395" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
-    <hyperlink ref="D396" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
-    <hyperlink ref="D397" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
-    <hyperlink ref="D398" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
-    <hyperlink ref="D399" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
-    <hyperlink ref="H299" r:id="rId51" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
-    <hyperlink ref="H393" r:id="rId52" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
-    <hyperlink ref="H109" r:id="rId53" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
-    <hyperlink ref="D34" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C157352" xr:uid="{7714E1A1-7F57-1F45-8626-96AC1D085731}"/>
-    <hyperlink ref="D35" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171525" xr:uid="{13669423-9FB2-DD4E-8C39-68B1F003F7CB}"/>
-    <hyperlink ref="D36" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C175574" xr:uid="{90BF3119-C866-924C-8E68-7900AA0837E5}"/>
-    <hyperlink ref="D37" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25170" xr:uid="{637F8517-0017-6B4A-A6A6-6A2C1CDA96F7}"/>
-    <hyperlink ref="D38" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171533" xr:uid="{17E2142A-6445-8D43-A175-DC269B4C5CEA}"/>
-    <hyperlink ref="D39" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171537" xr:uid="{F1D2B3B5-06D9-7C40-9BBF-8CD9979E4ECF}"/>
-    <hyperlink ref="D40" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C177933" xr:uid="{4F6A7314-DC4A-7246-BC6F-7E7269CFD597}"/>
-    <hyperlink ref="D41" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171524" xr:uid="{83D5DD2A-59AC-9948-90FA-A4FFAFE8D069}"/>
-    <hyperlink ref="D42" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70805" xr:uid="{D33CB886-CF31-7843-AE22-D54171665381}"/>
-    <hyperlink ref="D46" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102647" xr:uid="{44D05BA5-1E98-244B-96EC-6073BB959C19}"/>
-    <hyperlink ref="D47" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C127785" xr:uid="{318AD07F-92AB-EC42-98C7-C2D35EAB9342}"/>
-    <hyperlink ref="D48" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16281" xr:uid="{7A79D0CA-826D-BA49-AD38-6052E8F5392F}"/>
-    <hyperlink ref="D49" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16696" xr:uid="{FF23189B-1787-4C4C-91C5-B33F78BA6A12}"/>
-    <hyperlink ref="D50" r:id="rId67" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C21541" xr:uid="{907FFECE-97C5-5845-8C4E-AFF15E057628}"/>
-    <hyperlink ref="D51" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85862" xr:uid="{CDCCD88D-6689-7E4A-BD56-6BA1EE8407A0}"/>
-    <hyperlink ref="D52" r:id="rId69" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102650" xr:uid="{3DE33E90-640A-2245-B96C-0A06BA955F75}"/>
-    <hyperlink ref="D53" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102712" xr:uid="{26BF5053-59E4-E740-B051-911F13B4B00B}"/>
-    <hyperlink ref="D54" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181530" xr:uid="{EED3C904-B3C1-0942-A929-4D6612D64AA5}"/>
-    <hyperlink ref="D55" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C41206" xr:uid="{204CBA36-D182-1C40-9176-77EC89E3B351}"/>
-    <hyperlink ref="D56" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C18002" xr:uid="{132D4C5A-9677-E047-A0FB-560F2016E207}"/>
-    <hyperlink ref="D57" r:id="rId74" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C211570" xr:uid="{782115E4-C0E6-FA4A-AA49-A1D2FB77F090}"/>
-    <hyperlink ref="D58" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17556" xr:uid="{43943B98-60FB-C84A-8C90-79196C468CDF}"/>
-    <hyperlink ref="D59" r:id="rId76" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181529" xr:uid="{72B80A59-311D-D44D-AC6A-1328A7DF8BB9}"/>
-    <hyperlink ref="D60" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85863" xr:uid="{C49158AD-726E-2040-8E68-34783A4442BE}"/>
-    <hyperlink ref="D61" r:id="rId78" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102679" xr:uid="{C2491F0E-D764-2344-BCFA-00730A211E09}"/>
-    <hyperlink ref="D62" r:id="rId79" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17118" xr:uid="{AA595D72-F04C-3447-9CC4-186E0CC4ED55}"/>
-    <hyperlink ref="D63" r:id="rId80" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C48953" xr:uid="{5E4D3C00-0CB7-054B-9610-8DFBDCB4B7E1}"/>
+    <hyperlink ref="D323" r:id="rId1" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98722&amp;ns=ncit" xr:uid="{6DC3673F-3372-964D-A523-13839C6660FF}"/>
+    <hyperlink ref="D324" r:id="rId2" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129000&amp;ns=ncit" xr:uid="{DF6DB2D1-D226-0949-86D0-72A50FB80AE6}"/>
+    <hyperlink ref="D325" r:id="rId3" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98388&amp;ns=ncit" xr:uid="{3A91D351-0033-3048-AF82-D77063BC39F6}"/>
+    <hyperlink ref="D120" r:id="rId4" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49662&amp;ns=ncit" xr:uid="{95728853-9505-4B47-A14C-7E11A7251FDB}"/>
+    <hyperlink ref="D121" r:id="rId5" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49661&amp;ns=ncit" xr:uid="{6BE24A59-6F30-6E48-96F7-62D0CA418B16}"/>
+    <hyperlink ref="D122" r:id="rId6" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7CAF42B2-40B7-364E-88D2-833F2B949782}"/>
+    <hyperlink ref="D123" r:id="rId7" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{D1A6EBA8-5EB0-2C44-8CF1-4F32248BBABA}"/>
+    <hyperlink ref="D124" r:id="rId8" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{378AD94C-04DC-5141-AF38-82F17081A01D}"/>
+    <hyperlink ref="D125" r:id="rId9" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49664&amp;ns=ncit" xr:uid="{B622E711-2E06-3948-A337-ACDDDD41753D}"/>
+    <hyperlink ref="D126" r:id="rId10" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49663&amp;ns=ncit" xr:uid="{90FA3808-24C9-F64E-B64C-B4CA46192E89}"/>
+    <hyperlink ref="D127" r:id="rId11" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C178057&amp;ns=ncit" xr:uid="{3C761412-B393-ED44-91CF-9957D6558BDF}"/>
+    <hyperlink ref="D128" r:id="rId12" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158287&amp;ns=ncit" xr:uid="{6D32DDD1-AE98-2E43-BD7B-096D75610356}"/>
+    <hyperlink ref="D129" r:id="rId13" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49667&amp;ns=ncit" xr:uid="{F6EFDD48-09F8-0541-BDE0-483B76C2A992}"/>
+    <hyperlink ref="D130" r:id="rId14" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49666&amp;ns=ncit" xr:uid="{60CE0F0D-7279-7647-886C-207D5C6AEC81}"/>
+    <hyperlink ref="D131" r:id="rId15" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49665&amp;ns=ncit" xr:uid="{69F550B5-2198-BB4A-B840-175F41966649}"/>
+    <hyperlink ref="D132" r:id="rId16" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C39493&amp;ns=ncit" xr:uid="{C9D75BAB-3967-AA41-BC31-FB810A713DC9}"/>
+    <hyperlink ref="D133" r:id="rId17" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C201484&amp;ns=ncit" xr:uid="{D9B5CBEE-086F-144B-8881-E9423989DB5B}"/>
+    <hyperlink ref="D134" r:id="rId18" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C174366&amp;ns=ncit" xr:uid="{76398CA8-7DFE-074F-9615-77038545419E}"/>
+    <hyperlink ref="D135" r:id="rId19" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C120842&amp;ns=ncit" xr:uid="{F7CF6BD0-6EF9-3B46-BA28-45C1615F2957}"/>
+    <hyperlink ref="D136" r:id="rId20" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C129001&amp;ns=ncit" xr:uid="{647C2A18-5BE0-EC46-83AE-FAC1A19B8480}"/>
+    <hyperlink ref="D137" r:id="rId21" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161477&amp;ns=ncit" xr:uid="{D3492A35-9EDA-2D44-8EBE-3EA2A26ADEEB}"/>
+    <hyperlink ref="D138" r:id="rId22" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161478&amp;ns=ncit" xr:uid="{877ACD3A-A6BC-6945-9A23-EF1F0ADBED65}"/>
+    <hyperlink ref="D139" r:id="rId23" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161479&amp;ns=ncit" xr:uid="{B6E0CA88-27D3-C147-9431-A79309BC526C}"/>
+    <hyperlink ref="D140" r:id="rId24" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C161480&amp;ns=ncit" xr:uid="{D30181D7-62CC-3843-8EDD-94D3A7E828DC}"/>
+    <hyperlink ref="D141" r:id="rId25" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158283&amp;ns=ncit" xr:uid="{89C02071-8111-7A44-9B34-A21C17E266A7}"/>
+    <hyperlink ref="D142" r:id="rId26" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158284&amp;ns=ncit" xr:uid="{173FD762-EAC0-7941-BD4A-F2163B5EFBDB}"/>
+    <hyperlink ref="D143" r:id="rId27" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158290&amp;ns=ncit" xr:uid="{41363D12-A0AB-4442-96E2-F2EF89AF30A5}"/>
+    <hyperlink ref="D144" r:id="rId28" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158289&amp;ns=ncit" xr:uid="{4ED920F2-EC00-3740-A64A-34FEDA2E5C51}"/>
+    <hyperlink ref="D145" r:id="rId29" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158288&amp;ns=ncit" xr:uid="{C70BD844-68B5-1847-A926-2E32CDE28574}"/>
+    <hyperlink ref="D146" r:id="rId30" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158285&amp;ns=ncit" xr:uid="{074C134A-45D5-9D4D-9B57-8756AA2785F7}"/>
+    <hyperlink ref="D147" r:id="rId31" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C158286&amp;ns=ncit" xr:uid="{A29F72E4-AE80-9C44-A9E5-33F34E1BB05D}"/>
+    <hyperlink ref="D148" r:id="rId32" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C127803&amp;ns=ncit" xr:uid="{2254B34B-2A80-F24A-A414-2F218796F0BE}"/>
+    <hyperlink ref="D149" r:id="rId33" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98729&amp;ns=ncit" xr:uid="{F1D3CE17-4BD1-4444-BE5E-0522D6C58FA0}"/>
+    <hyperlink ref="D150" r:id="rId34" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C98791&amp;ns=ncit" xr:uid="{8A2DAB16-66B3-E448-93F8-2FCE9BDE458F}"/>
+    <hyperlink ref="D98" r:id="rId35" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15714&amp;ns=ncit" xr:uid="{556F5DC1-C1C8-2240-911F-A82212855285}"/>
+    <hyperlink ref="D99" r:id="rId36" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71485&amp;ns=ncit" xr:uid="{7505117A-A482-4243-85F9-0619C885AE2D}"/>
+    <hyperlink ref="D100" r:id="rId37" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C139174&amp;ns=ncit" xr:uid="{9D4684C2-55A0-EC4A-9C6D-38A561DA9672}"/>
+    <hyperlink ref="D101" r:id="rId38" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49657&amp;ns=ncit" xr:uid="{7F9BD7E2-D1B8-7E4A-879F-8EBF298EF875}"/>
+    <hyperlink ref="D102" r:id="rId39" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49656&amp;ns=ncit" xr:uid="{8BAF591E-00BB-B64F-823A-553862C0BB8B}"/>
+    <hyperlink ref="D103" r:id="rId40" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C15245&amp;ns=ncit" xr:uid="{B0227C52-5A21-B746-92BA-45FC129C985E}"/>
+    <hyperlink ref="D104" r:id="rId41" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49653&amp;ns=ncit" xr:uid="{37B22110-B0C2-5D44-8386-0A8164E33FEC}"/>
+    <hyperlink ref="D105" r:id="rId42" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C71486&amp;ns=ncit" xr:uid="{0C08005F-132B-A04E-A1B0-B278A7B08E2C}"/>
+    <hyperlink ref="D106" r:id="rId43" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49655&amp;ns=ncit" xr:uid="{6113A0E3-CD8B-AA4A-94DE-85A08E30FB29}"/>
+    <hyperlink ref="D107" r:id="rId44" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C49654&amp;ns=ncit" xr:uid="{30DD0B29-5A3B-914A-BB6F-33DC671FFA31}"/>
+    <hyperlink ref="D108" r:id="rId45" display="https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=24.11d&amp;code=C170629&amp;ns=ncit" xr:uid="{9E74DF3B-339A-E54A-9FCC-7B5AC91C3132}"/>
+    <hyperlink ref="D396" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207615" xr:uid="{C96C9ED0-1851-0D4D-A8C6-1C18FB378656}"/>
+    <hyperlink ref="D397" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207616" xr:uid="{442BD9B2-F2F7-784E-ABC8-5CB815F9F1BE}"/>
+    <hyperlink ref="D398" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207617" xr:uid="{33ECBA37-7032-144F-B0A2-732631A8DE4F}"/>
+    <hyperlink ref="D399" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207618" xr:uid="{2CAFC3B6-DBE6-DF49-A447-EEA52CB6C964}"/>
+    <hyperlink ref="D400" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C207646" xr:uid="{EE81E977-423B-E84C-A57F-C2F375F0258D}"/>
+    <hyperlink ref="H300" r:id="rId51" xr:uid="{24A22A33-8EE2-D746-97A5-83CB67FF8970}"/>
+    <hyperlink ref="H394" r:id="rId52" xr:uid="{F1BFB3C5-DA9F-F94C-8E05-02FBC24F243D}"/>
+    <hyperlink ref="H110" r:id="rId53" xr:uid="{A9998425-8922-1E45-B884-A70D0010E794}"/>
+    <hyperlink ref="D35" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C157352" xr:uid="{7714E1A1-7F57-1F45-8626-96AC1D085731}"/>
+    <hyperlink ref="D36" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171525" xr:uid="{13669423-9FB2-DD4E-8C39-68B1F003F7CB}"/>
+    <hyperlink ref="D37" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C175574" xr:uid="{90BF3119-C866-924C-8E68-7900AA0837E5}"/>
+    <hyperlink ref="D38" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25170" xr:uid="{637F8517-0017-6B4A-A6A6-6A2C1CDA96F7}"/>
+    <hyperlink ref="D39" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171533" xr:uid="{17E2142A-6445-8D43-A175-DC269B4C5CEA}"/>
+    <hyperlink ref="D40" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171537" xr:uid="{F1D2B3B5-06D9-7C40-9BBF-8CD9979E4ECF}"/>
+    <hyperlink ref="D41" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C177933" xr:uid="{4F6A7314-DC4A-7246-BC6F-7E7269CFD597}"/>
+    <hyperlink ref="D42" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C171524" xr:uid="{83D5DD2A-59AC-9948-90FA-A4FFAFE8D069}"/>
+    <hyperlink ref="D43" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70805" xr:uid="{D33CB886-CF31-7843-AE22-D54171665381}"/>
+    <hyperlink ref="D47" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102647" xr:uid="{44D05BA5-1E98-244B-96EC-6073BB959C19}"/>
+    <hyperlink ref="D48" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C127785" xr:uid="{318AD07F-92AB-EC42-98C7-C2D35EAB9342}"/>
+    <hyperlink ref="D49" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16281" xr:uid="{7A79D0CA-826D-BA49-AD38-6052E8F5392F}"/>
+    <hyperlink ref="D50" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C16696" xr:uid="{FF23189B-1787-4C4C-91C5-B33F78BA6A12}"/>
+    <hyperlink ref="D51" r:id="rId67" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C21541" xr:uid="{907FFECE-97C5-5845-8C4E-AFF15E057628}"/>
+    <hyperlink ref="D52" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85862" xr:uid="{CDCCD88D-6689-7E4A-BD56-6BA1EE8407A0}"/>
+    <hyperlink ref="D53" r:id="rId69" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102650" xr:uid="{3DE33E90-640A-2245-B96C-0A06BA955F75}"/>
+    <hyperlink ref="D54" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102712" xr:uid="{26BF5053-59E4-E740-B051-911F13B4B00B}"/>
+    <hyperlink ref="D55" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181530" xr:uid="{EED3C904-B3C1-0942-A929-4D6612D64AA5}"/>
+    <hyperlink ref="D56" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C41206" xr:uid="{204CBA36-D182-1C40-9176-77EC89E3B351}"/>
+    <hyperlink ref="D57" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C18002" xr:uid="{132D4C5A-9677-E047-A0FB-560F2016E207}"/>
+    <hyperlink ref="D58" r:id="rId74" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C211570" xr:uid="{782115E4-C0E6-FA4A-AA49-A1D2FB77F090}"/>
+    <hyperlink ref="D59" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17556" xr:uid="{43943B98-60FB-C84A-8C90-79196C468CDF}"/>
+    <hyperlink ref="D60" r:id="rId76" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C181529" xr:uid="{72B80A59-311D-D44D-AC6A-1328A7DF8BB9}"/>
+    <hyperlink ref="D61" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85863" xr:uid="{C49158AD-726E-2040-8E68-34783A4442BE}"/>
+    <hyperlink ref="D62" r:id="rId78" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102679" xr:uid="{C2491F0E-D764-2344-BCFA-00730A211E09}"/>
+    <hyperlink ref="D63" r:id="rId79" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17118" xr:uid="{AA595D72-F04C-3447-9CC4-186E0CC4ED55}"/>
+    <hyperlink ref="D64" r:id="rId80" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C48953" xr:uid="{5E4D3C00-0CB7-054B-9610-8DFBDCB4B7E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId81"/>
@@ -11443,6 +11537,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="332ebed6bf1f21540ac8ed4139e2af2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9643d50ff51ef4e8f7efba950a0a6c6b" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -11649,17 +11754,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1323A5E8-4C72-41C9-A579-AD9E7BE66D1F}">
   <ds:schemaRefs>
@@ -11669,6 +11763,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E47AC27-AEA3-4648-B7A2-5748F4E8871D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAEC375B-DC95-4A5A-BA67-B31DCC6A86AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11685,21 +11796,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E47AC27-AEA3-4648-B7A2-5748F4E8871D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>